--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DE83F3-671D-4C9D-A1A9-17D9D0D656C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083DF10E-A7E9-4F18-9807-A3B4A389568F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="124">
   <si>
     <r>
       <t>N</t>
@@ -394,6 +394,30 @@
   </si>
   <si>
     <t>SDC002800324/7227</t>
+  </si>
+  <si>
+    <t>SDC010019219/99</t>
+  </si>
+  <si>
+    <t>SDC002800324/7265</t>
+  </si>
+  <si>
+    <t>SDC002800324/7298</t>
+  </si>
+  <si>
+    <t>SDC007063634/55</t>
+  </si>
+  <si>
+    <t>SDC010014500/2426</t>
+  </si>
+  <si>
+    <t>SDC010014500/2488</t>
+  </si>
+  <si>
+    <t>SDC007003860/13809</t>
+  </si>
+  <si>
+    <t>SDC011000445/28022</t>
   </si>
 </sst>
 </file>
@@ -498,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,7 +659,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,11 +683,47 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,66 +755,51 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,27 +810,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1153,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,36 +1169,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1202,11 +1238,11 @@
       <c r="E4" s="23">
         <v>44564</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="72">
         <f>D4+D5+D6+D7+D8+D9+D10</f>
         <v>1544720</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="75">
         <v>44588</v>
       </c>
     </row>
@@ -1226,8 +1262,8 @@
       <c r="E5" s="23">
         <v>44567</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -1245,8 +1281,8 @@
       <c r="E6" s="23">
         <v>44571</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -1264,8 +1300,8 @@
       <c r="E7" s="23">
         <v>44574</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -1283,8 +1319,8 @@
       <c r="E8" s="23">
         <v>44578</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -1302,8 +1338,8 @@
       <c r="E9" s="23">
         <v>44581</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -1321,8 +1357,8 @@
       <c r="E10" s="23">
         <v>44585</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -1340,11 +1376,11 @@
       <c r="E11" s="23">
         <v>44587</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="72">
         <f>D11+D12+D13+D14+D15+D16+D17+D18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="75"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
@@ -1362,8 +1398,8 @@
       <c r="E12" s="23">
         <v>44592</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -1381,8 +1417,8 @@
       <c r="E13" s="23">
         <v>44595</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -1400,8 +1436,8 @@
       <c r="E14" s="23">
         <v>44599</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="60"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -1419,8 +1455,8 @@
       <c r="E15" s="23">
         <v>44603</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="60"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -1438,8 +1474,8 @@
       <c r="E16" s="23">
         <v>44606</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="60"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
@@ -1457,8 +1493,8 @@
       <c r="E17" s="23">
         <v>44609</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="60"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="76"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -1476,8 +1512,8 @@
       <c r="E18" s="23">
         <v>44613</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="61"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
@@ -1584,9 +1620,15 @@
       <c r="B24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="22">
+        <v>198780</v>
+      </c>
+      <c r="E24" s="23">
+        <v>44630</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
     </row>
@@ -1597,9 +1639,15 @@
       <c r="B25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="22">
+        <v>327340</v>
+      </c>
+      <c r="E25" s="23">
+        <v>44634</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="23"/>
     </row>
@@ -1683,17 +1731,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1705,7 +1753,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,43 +1762,43 @@
     <col min="2" max="2" width="19.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="41"/>
-    <col min="5" max="5" width="14" style="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="63" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="80" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -1765,14 +1813,14 @@
       <c r="D3" s="39">
         <v>942700</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="62">
         <v>44563</v>
       </c>
       <c r="F3" s="39">
         <f>D3</f>
         <v>942700</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="62">
         <v>44566</v>
       </c>
     </row>
@@ -1789,14 +1837,14 @@
       <c r="D4" s="39">
         <v>730780</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="62">
         <v>44569</v>
       </c>
       <c r="F4" s="39">
-        <f t="shared" ref="F4:F11" si="0">D4</f>
+        <f t="shared" ref="F4:F20" si="0">D4</f>
         <v>730780</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="62">
         <v>44573</v>
       </c>
     </row>
@@ -1813,14 +1861,14 @@
       <c r="D5" s="39">
         <v>726320</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="62">
         <v>44576</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" si="0"/>
         <v>726320</v>
       </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -1835,14 +1883,14 @@
       <c r="D6" s="39">
         <v>921600</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="62">
         <v>44583</v>
       </c>
       <c r="F6" s="39">
         <f t="shared" si="0"/>
         <v>921600</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="62">
         <v>44588</v>
       </c>
     </row>
@@ -1859,14 +1907,14 @@
       <c r="D7" s="39">
         <v>974120</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="62">
         <v>44590</v>
       </c>
       <c r="F7" s="39">
         <f t="shared" si="0"/>
         <v>974120</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="62">
         <v>44594</v>
       </c>
     </row>
@@ -1877,20 +1925,20 @@
       <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="60" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="41">
         <v>1023390</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="62">
         <v>44597</v>
       </c>
       <c r="F8" s="39">
         <f t="shared" si="0"/>
         <v>1023390</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="62">
         <v>44601</v>
       </c>
     </row>
@@ -1907,38 +1955,38 @@
       <c r="D9" s="39">
         <v>477570</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="62">
         <v>44604</v>
       </c>
       <c r="F9" s="39">
         <f t="shared" si="0"/>
         <v>477570</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="62">
         <v>44608</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+    <row r="10" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
         <v>8</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>1100450</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="51">
         <v>44611</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>1100450</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="51">
         <v>44613</v>
       </c>
     </row>
@@ -1955,14 +2003,14 @@
       <c r="D11" s="39">
         <v>1447360</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="62">
         <v>44624</v>
       </c>
       <c r="F11" s="39">
         <f t="shared" si="0"/>
         <v>1447360</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="62">
         <v>44624</v>
       </c>
     </row>
@@ -1973,11 +2021,20 @@
       <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="92"/>
+      <c r="C12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1581930</v>
+      </c>
+      <c r="E12" s="62">
+        <v>44632</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="0"/>
+        <v>1581930</v>
+      </c>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -1988,9 +2045,12 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="92"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -2001,9 +2061,12 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="92"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -2014,9 +2077,12 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="92"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -2027,9 +2093,12 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="92"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
@@ -2040,9 +2109,12 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="92"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -2053,9 +2125,12 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="92"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
@@ -2066,9 +2141,12 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
@@ -2079,9 +2157,12 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="92"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2103,7 +2184,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C25" sqref="C25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,34 +2200,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="28"/>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="72"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="55"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -2186,11 +2267,11 @@
       <c r="E4" s="12">
         <v>444500</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="85">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>2837300</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="75">
         <v>44587</v>
       </c>
     </row>
@@ -2210,8 +2291,8 @@
       <c r="E5" s="12">
         <v>345300</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -2229,8 +2310,8 @@
       <c r="E6" s="12">
         <v>489200</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -2248,8 +2329,8 @@
       <c r="E7" s="12">
         <v>389700</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -2267,8 +2348,8 @@
       <c r="E8" s="12">
         <v>438700</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -2286,8 +2367,8 @@
       <c r="E9" s="12">
         <v>272700</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -2305,8 +2386,8 @@
       <c r="E10" s="12">
         <v>457200</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -2324,11 +2405,11 @@
       <c r="E11" s="12">
         <v>513700</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="88">
         <f>E11+E12+E13+E14+E15+E16+E17+E18</f>
         <v>2755700</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="75">
         <v>44577</v>
       </c>
     </row>
@@ -2348,8 +2429,8 @@
       <c r="E12" s="12">
         <v>433400</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -2367,8 +2448,8 @@
       <c r="E13" s="33">
         <v>10000</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
@@ -2386,8 +2467,8 @@
       <c r="E14" s="27">
         <v>20000</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="60"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -2405,8 +2486,8 @@
       <c r="E15" s="22">
         <v>635100</v>
       </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="60"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -2424,8 +2505,8 @@
       <c r="E16" s="22">
         <v>419000</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="60"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
@@ -2443,8 +2524,8 @@
       <c r="E17" s="22">
         <v>234600</v>
       </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="60"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="76"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -2462,8 +2543,8 @@
       <c r="E18" s="22">
         <v>489900</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="61"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
@@ -2586,9 +2667,15 @@
       <c r="B25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44630</v>
+      </c>
+      <c r="E25" s="6">
+        <v>445200</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="23"/>
     </row>
@@ -2599,9 +2686,15 @@
       <c r="B26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44634</v>
+      </c>
+      <c r="E26" s="6">
+        <v>574900</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="23"/>
     </row>
@@ -2711,16 +2804,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2749,36 +2842,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="80" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
@@ -2796,10 +2889,10 @@
       <c r="E3" s="36">
         <v>44566</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="72">
         <v>500000</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="92">
         <v>44566</v>
       </c>
     </row>
@@ -2819,8 +2912,8 @@
       <c r="E4" s="36">
         <v>44566</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="80"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -2838,10 +2931,10 @@
       <c r="E5" s="36">
         <v>44572</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="72">
         <v>500000</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="92">
         <v>44573</v>
       </c>
     </row>
@@ -2861,8 +2954,8 @@
       <c r="E6" s="36">
         <v>44573</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="80"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -2880,10 +2973,10 @@
       <c r="E7" s="36">
         <v>44580</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="72">
         <v>500000</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="92">
         <v>44580</v>
       </c>
     </row>
@@ -2903,8 +2996,8 @@
       <c r="E8" s="36">
         <v>44580</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="80"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -2922,10 +3015,10 @@
       <c r="E9" s="36">
         <v>44589</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="72">
         <v>500000</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="92">
         <v>44592</v>
       </c>
     </row>
@@ -2945,8 +3038,8 @@
       <c r="E10" s="36">
         <v>44589</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -2964,10 +3057,10 @@
       <c r="E11" s="37">
         <v>44595</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="72">
         <v>500000</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="92">
         <v>44599</v>
       </c>
     </row>
@@ -2987,8 +3080,8 @@
       <c r="E12" s="37">
         <v>44599</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="94"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -3006,8 +3099,8 @@
       <c r="E13" s="37">
         <v>44599</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="80"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -3025,10 +3118,10 @@
       <c r="E14" s="37">
         <v>44606</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="72">
         <v>500000</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="92">
         <v>44608</v>
       </c>
     </row>
@@ -3048,8 +3141,8 @@
       <c r="E15" s="37">
         <v>44607</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="79"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="94"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -3067,8 +3160,8 @@
       <c r="E16" s="37">
         <v>44607</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="80"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
@@ -3086,10 +3179,10 @@
       <c r="E17" s="37">
         <v>44615</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="72">
         <v>500000</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="92">
         <v>44614</v>
       </c>
     </row>
@@ -3109,8 +3202,8 @@
       <c r="E18" s="37">
         <v>44615</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="80"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
@@ -3283,6 +3376,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F3:F4"/>
@@ -3291,19 +3397,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3314,7 +3407,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,65 +3415,65 @@
     <col min="1" max="2" width="6.140625" style="24"/>
     <col min="3" max="3" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="6.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="80" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="55">
         <v>265500</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="57">
         <v>44562</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="53">
         <f>D3</f>
         <v>265500</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="56">
         <v>44581</v>
       </c>
     </row>
@@ -3391,38 +3484,44 @@
       <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="55">
         <v>265500</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="57">
         <v>44581</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="53">
         <f t="shared" ref="F4:F6" si="0">D4</f>
         <v>265500</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="62">
         <v>44613</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="A5" s="52">
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="49">
+      <c r="C5" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="59">
+        <v>265500</v>
+      </c>
+      <c r="E5" s="63">
+        <v>44613</v>
+      </c>
+      <c r="F5" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="40"/>
+        <v>265500</v>
+      </c>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -3433,12 +3532,12 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="49">
+      <c r="E6" s="62"/>
+      <c r="F6" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3451,7 +3550,7 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3460,7 +3559,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,54 +3576,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51">
+      <c r="C3" s="48"/>
+      <c r="D3" s="49">
         <v>306000</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="50">
         <v>44562</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="85">
         <f>D3+D4+D5</f>
         <v>508000</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="70">
         <v>44579</v>
       </c>
     </row>
@@ -3535,17 +3634,17 @@
       <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>100000</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="50">
         <v>44567</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="95"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -3554,17 +3653,17 @@
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>102000</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="50">
         <v>44574</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="55"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="71"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -3573,20 +3672,20 @@
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>102000</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="50">
         <v>44579</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="85">
         <f>D7+D8+D9+D10+D6</f>
         <v>508000</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="75">
         <v>44607</v>
       </c>
     </row>
@@ -3597,17 +3696,17 @@
       <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>100000</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="50">
         <v>44585</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -3616,17 +3715,17 @@
       <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>102000</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="50">
         <v>44588</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -3635,17 +3734,17 @@
       <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>102000</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="50">
         <v>44592</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -3654,17 +3753,17 @@
       <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="48" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="39">
         <v>102000</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="51">
         <v>44595</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -3673,20 +3772,20 @@
       <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="59">
         <v>102000</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="61">
         <v>44603</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="72">
         <f>D15+D14+D13+D12+D11</f>
         <v>510000</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="75">
         <v>44624</v>
       </c>
     </row>
@@ -3697,17 +3796,17 @@
       <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="59">
         <v>102000</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="61">
         <v>44609</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -3716,17 +3815,17 @@
       <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="59">
         <v>102000</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="61">
         <v>44615</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -3744,8 +3843,8 @@
       <c r="E14" s="40">
         <v>44622</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="60"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -3763,8 +3862,8 @@
       <c r="E15" s="40">
         <v>44623</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -4006,43 +4105,44 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4054,11 +4154,11 @@
       <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
+        <v>44592</v>
+      </c>
+      <c r="E3" s="6">
         <v>191510.96</v>
-      </c>
-      <c r="E3" s="5">
-        <v>44592</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -4069,9 +4169,15 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44600</v>
+      </c>
+      <c r="E4" s="6">
+        <v>296841.98</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,8 +4188,8 @@
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
   </sheetData>
@@ -4092,8 +4198,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4104,7 +4210,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,40 +4226,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="96" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="86"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
@@ -4171,14 +4277,14 @@
       <c r="E3" s="46">
         <v>44546</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="85">
         <f>D9+D8+D7+D6+D5+D4+D3</f>
         <v>498500</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="70">
         <v>44602</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="96" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4198,9 +4304,9 @@
       <c r="E4" s="46">
         <v>44565</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
@@ -4218,9 +4324,9 @@
       <c r="E5" s="46">
         <v>44565</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -4238,9 +4344,9 @@
       <c r="E6" s="46">
         <v>44579</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
@@ -4258,9 +4364,9 @@
       <c r="E7" s="46">
         <v>44586</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -4278,9 +4384,9 @@
       <c r="E8" s="40">
         <v>44596</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
@@ -4298,9 +4404,9 @@
       <c r="E9" s="40">
         <v>44599</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -4322,7 +4428,7 @@
         <f>D10</f>
         <v>18000</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="75">
         <v>44589</v>
       </c>
       <c r="H10" s="20" t="s">
@@ -4349,7 +4455,7 @@
         <f t="shared" ref="F11:F12" si="0">D11</f>
         <v>18000</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="20" t="s">
         <v>102</v>
       </c>
@@ -4374,7 +4480,7 @@
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="20" t="s">
         <v>102</v>
       </c>
@@ -4406,9 +4512,15 @@
       <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="39">
+        <v>37500</v>
+      </c>
+      <c r="E14" s="40">
+        <v>44615</v>
+      </c>
       <c r="F14" s="39"/>
       <c r="G14" s="40"/>
       <c r="H14" s="20"/>
@@ -4709,11 +4821,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F3:F9"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="H1:H2"/>
@@ -4721,6 +4828,11 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083DF10E-A7E9-4F18-9807-A3B4A389568F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9803DDC8-BA81-4CCF-962C-D2FB93B3B4EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIME" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="PARADIS DU COEUR" sheetId="6" r:id="rId6"/>
     <sheet name="LIQUID" sheetId="7" r:id="rId7"/>
     <sheet name="KEYNES GROUP" sheetId="8" r:id="rId8"/>
+    <sheet name="MAPLECO S.A.R.L" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="126">
   <si>
     <r>
       <t>N</t>
@@ -321,9 +322,6 @@
     <t xml:space="preserve">SOLDE </t>
   </si>
   <si>
-    <t xml:space="preserve">PAYE LE 24/02/2022 VOIR HISTORIQUE </t>
-  </si>
-  <si>
     <t>TOTAL PAID</t>
   </si>
   <si>
@@ -418,6 +416,15 @@
   </si>
   <si>
     <t>SDC011000445/28022</t>
+  </si>
+  <si>
+    <t>1/16/2022(by cash)</t>
+  </si>
+  <si>
+    <t>MAPLECO S.A.R.L</t>
+  </si>
+  <si>
+    <t>SDC010011775/1073</t>
   </si>
 </sst>
 </file>
@@ -522,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,9 +564,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,6 +714,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,16 +783,22 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,22 +1163,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="25"/>
-    <col min="5" max="5" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="26" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24"/>
+    <col min="5" max="5" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>5</v>
@@ -1205,8 +1218,8 @@
       <c r="B3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>97</v>
+      <c r="C3" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="D3" s="9">
         <v>1435860</v>
@@ -1214,7 +1227,7 @@
       <c r="E3" s="13">
         <v>44562</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f>D3</f>
         <v>1435860</v>
       </c>
@@ -1223,19 +1236,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>283300</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>44564</v>
       </c>
       <c r="F4" s="72">
@@ -1247,487 +1260,486 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>119320</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>44567</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>307700</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>44571</v>
       </c>
       <c r="F6" s="73"/>
       <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>165620</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>44574</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>425200</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>44578</v>
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>19000</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>44581</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>224580</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>44585</v>
       </c>
       <c r="F10" s="74"/>
       <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>436940</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>44587</v>
       </c>
       <c r="F11" s="72">
         <f>D11+D12+D13+D14+D15+D16+D17+D18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="75"/>
+      <c r="G11" s="75">
+        <v>44617</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>147140</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>44592</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>371300</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>44595</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>191120</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>44599</v>
       </c>
       <c r="F14" s="73"/>
       <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>109280</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>44603</v>
       </c>
       <c r="F15" s="73"/>
       <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>335120</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>44606</v>
       </c>
       <c r="F16" s="73"/>
       <c r="G16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>227360</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>44609</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>154640</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>44613</v>
       </c>
       <c r="F18" s="74"/>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>16</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="26">
+        <v>170400</v>
+      </c>
+      <c r="E19" s="22">
+        <v>44616</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>17</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="27">
-        <v>170400</v>
-      </c>
-      <c r="E19" s="23">
-        <v>44616</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="D20" s="21">
+        <v>171280</v>
+      </c>
+      <c r="E20" s="22">
+        <v>44620</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>18</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="22">
-        <v>171280</v>
-      </c>
-      <c r="E20" s="23">
-        <v>44620</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>18</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="21">
+        <v>630340</v>
+      </c>
+      <c r="E21" s="22">
+        <v>44622</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="22">
-        <v>630340</v>
-      </c>
-      <c r="E21" s="23">
-        <v>44622</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>19</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="21">
+        <v>451400</v>
+      </c>
+      <c r="E22" s="22">
+        <v>44624</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="22">
-        <v>451400</v>
-      </c>
-      <c r="E22" s="23">
-        <v>44624</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>20</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="21">
+        <v>183640</v>
+      </c>
+      <c r="E23" s="22">
+        <v>44627</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>21</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="22">
-        <v>183640</v>
-      </c>
-      <c r="E23" s="23">
-        <v>44627</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>21</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="21">
+        <v>198780</v>
+      </c>
+      <c r="E24" s="22">
+        <v>44630</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>22</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="22">
-        <v>198780</v>
-      </c>
-      <c r="E24" s="23">
-        <v>44630</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>22</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="D25" s="21">
+        <v>327340</v>
+      </c>
+      <c r="E25" s="22">
+        <v>44634</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="22">
-        <v>327340</v>
-      </c>
-      <c r="E25" s="23">
-        <v>44634</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>23</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>24</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>24</v>
-      </c>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>25</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>25</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>26</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>26</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>27</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>27</v>
-      </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>28</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>28</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1753,19 +1765,19 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="19.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="41"/>
-    <col min="5" max="5" width="14" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="40"/>
+    <col min="5" max="5" width="14" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,7 +1797,7 @@
         <v>89</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>5</v>
@@ -1801,368 +1813,368 @@
       <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>942700</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="61">
         <v>44563</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <f>D3</f>
         <v>942700</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="61">
         <v>44566</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>730780</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <v>44569</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <f t="shared" ref="F4:F20" si="0">D4</f>
         <v>730780</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="61">
         <v>44573</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>726320</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="61">
         <v>44576</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f t="shared" si="0"/>
         <v>726320</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>921600</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="61">
         <v>44583</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
         <v>921600</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="61">
         <v>44588</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>974120</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="61">
         <v>44590</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
         <v>974120</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="61">
         <v>44594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>1023390</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="61">
         <v>44597</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <f t="shared" si="0"/>
         <v>1023390</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="61">
         <v>44601</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>477570</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="61">
         <v>44604</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <f t="shared" si="0"/>
         <v>477570</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="61">
         <v>44608</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+    <row r="10" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
         <v>8</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>1100450</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <v>44611</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>1100450</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <v>44613</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="C11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="38">
         <v>1447360</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="61">
         <v>44624</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <f t="shared" si="0"/>
         <v>1447360</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="61">
         <v>44624</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="39">
+      <c r="C12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="38">
         <v>1581930</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="61">
         <v>44632</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <f t="shared" si="0"/>
         <v>1581930</v>
       </c>
-      <c r="G12" s="62"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="39">
+      <c r="C13" s="19"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="39">
+      <c r="C14" s="19"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="62"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="39">
+      <c r="C15" s="19"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="39">
+      <c r="C16" s="19"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="39">
+      <c r="C17" s="19"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="39">
+      <c r="C18" s="19"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="39">
+      <c r="C19" s="19"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="39">
+      <c r="C20" s="19"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2183,20 +2195,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="25"/>
-    <col min="6" max="6" width="10.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="10.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,13 +2221,13 @@
       <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="93" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="70" t="s">
         <v>5</v>
       </c>
@@ -2224,38 +2236,38 @@
       <c r="A2" s="66"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
-      <c r="D2" s="91"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="83"/>
-      <c r="F2" s="29"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="C3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="16">
         <v>44562</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>2558000</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <f>E3</f>
         <v>2558000</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="64">
         <v>44565</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2276,10 +2288,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -2291,14 +2303,14 @@
       <c r="E5" s="12">
         <v>345300</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2310,14 +2322,14 @@
       <c r="E6" s="12">
         <v>489200</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2329,14 +2341,14 @@
       <c r="E7" s="12">
         <v>389700</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -2348,14 +2360,14 @@
       <c r="E8" s="12">
         <v>438700</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2367,14 +2379,14 @@
       <c r="E9" s="12">
         <v>272700</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -2389,286 +2401,290 @@
       <c r="F10" s="86"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="31">
+        <v>44594</v>
+      </c>
+      <c r="E11" s="32">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="87">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="31">
+        <v>44594</v>
+      </c>
+      <c r="E12" s="26">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="90"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D13" s="13">
         <v>44588</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E13" s="12">
         <v>513700</v>
       </c>
-      <c r="F11" s="88">
-        <f>E11+E12+E13+E14+E15+E16+E17+E18</f>
-        <v>2755700</v>
-      </c>
-      <c r="G11" s="75">
-        <v>44577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="F13" s="87">
+        <f>E13+E14+E15+E16+E17+E18</f>
+        <v>2725700</v>
+      </c>
+      <c r="G13" s="75">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D14" s="13">
         <v>44592</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E14" s="12">
         <v>433400</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="76"/>
-    </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>10</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="32">
-        <v>44594</v>
-      </c>
-      <c r="E13" s="33">
-        <v>10000</v>
-      </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="76"/>
-    </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>11</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="32">
-        <v>44594</v>
-      </c>
-      <c r="E14" s="27">
-        <v>20000</v>
-      </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>44595</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>635100</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>44599</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>419000</v>
       </c>
-      <c r="F16" s="89"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="76"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>44603</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>234600</v>
       </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="76"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>15</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>44606</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>489900</v>
       </c>
-      <c r="F18" s="90"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>16</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>44609</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>474700</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>17</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>44613</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>453900</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>18</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="22">
+        <v>44616</v>
+      </c>
+      <c r="E21" s="21">
+        <v>292700</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="23">
-        <v>44616</v>
-      </c>
-      <c r="E21" s="22">
-        <v>292700</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
+      <c r="D22" s="22">
+        <v>44620</v>
+      </c>
+      <c r="E22" s="21">
+        <v>638400</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>20</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="23">
-        <v>44620</v>
-      </c>
-      <c r="E22" s="22">
-        <v>638400</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>20</v>
-      </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="22">
+        <v>44622</v>
+      </c>
+      <c r="E23" s="21">
+        <v>153300</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="23">
-        <v>44622</v>
-      </c>
-      <c r="E23" s="22">
-        <v>153300</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>21</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="22">
+        <v>44627</v>
+      </c>
+      <c r="E24" s="21">
+        <v>671700</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>22</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="23">
-        <v>44627</v>
-      </c>
-      <c r="E24" s="22">
-        <v>671700</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>22</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>7</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5">
         <v>44630</v>
@@ -2676,18 +2692,18 @@
       <c r="E25" s="6">
         <v>445200</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="5">
         <v>44634</v>
@@ -2695,128 +2711,130 @@
       <c r="E26" s="6">
         <v>574900</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>24</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>25</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>27</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="19">
         <v>30</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>31</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="F13:F18"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2825,20 +2843,20 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A31"/>
+      <selection activeCell="D16" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="25"/>
-    <col min="5" max="5" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>5</v>
@@ -2874,505 +2892,505 @@
       <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>250000</v>
       </c>
-      <c r="E3" s="36">
-        <v>44566</v>
+      <c r="E3" s="35">
+        <v>44567</v>
       </c>
       <c r="F3" s="72">
         <v>500000</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="94">
         <v>44566</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>250000</v>
       </c>
-      <c r="E4" s="36">
-        <v>44566</v>
+      <c r="E4" s="35">
+        <v>44567</v>
       </c>
       <c r="F4" s="74"/>
-      <c r="G4" s="93"/>
+      <c r="G4" s="95"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>250000</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>44572</v>
       </c>
       <c r="F5" s="72">
         <v>500000</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="94">
         <v>44573</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>250000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>44573</v>
       </c>
       <c r="F6" s="74"/>
-      <c r="G6" s="93"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>250000</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>44580</v>
       </c>
       <c r="F7" s="72">
         <v>500000</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="94">
         <v>44580</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>250000</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>44580</v>
       </c>
       <c r="F8" s="74"/>
-      <c r="G8" s="93"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>250000</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>44589</v>
       </c>
       <c r="F9" s="72">
         <v>500000</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="94">
         <v>44592</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>250000</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>44589</v>
       </c>
       <c r="F10" s="74"/>
-      <c r="G10" s="93"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>200000</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>44595</v>
       </c>
       <c r="F11" s="72">
         <v>500000</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="94">
         <v>44599</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>150000</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>44599</v>
       </c>
       <c r="F12" s="73"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="96"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>150000</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>44599</v>
       </c>
       <c r="F13" s="74"/>
-      <c r="G13" s="93"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>150000</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>44606</v>
       </c>
       <c r="F14" s="72">
         <v>500000</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="94">
         <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>150000</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>44607</v>
       </c>
       <c r="F15" s="73"/>
-      <c r="G15" s="94"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>200000</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>44607</v>
       </c>
       <c r="F16" s="74"/>
-      <c r="G16" s="93"/>
+      <c r="G16" s="95"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="21">
         <v>250000</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>44615</v>
       </c>
       <c r="F17" s="72">
         <v>500000</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="94">
         <v>44614</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="21">
         <v>250000</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>44615</v>
       </c>
       <c r="F18" s="74"/>
-      <c r="G18" s="93"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="37"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="37"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="37"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="37"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="37"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="37"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>25</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="37"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>26</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="37"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="37"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="37"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>29</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="37"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3407,18 +3425,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.140625" style="24"/>
-    <col min="3" max="3" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="6.140625" style="24"/>
+    <col min="1" max="2" width="6.140625" style="23"/>
+    <col min="3" max="3" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="6.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3438,7 +3456,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>5</v>
@@ -3454,90 +3472,90 @@
       <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="54">
         <v>265500</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="56">
         <v>44562</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <f>D3</f>
         <v>265500</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="55">
         <v>44581</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <v>265500</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="56">
         <v>44581</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="52">
         <f t="shared" ref="F4:F6" si="0">D4</f>
         <v>265500</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="61">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="58">
+        <v>265500</v>
+      </c>
+      <c r="E5" s="62">
         <v>44613</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="59">
-        <v>265500</v>
-      </c>
-      <c r="E5" s="63">
-        <v>44613</v>
-      </c>
-      <c r="F5" s="53">
+      <c r="F5" s="52">
         <f t="shared" si="0"/>
         <v>265500</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="53">
+      <c r="C6" s="19"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="62"/>
+      <c r="G6" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3559,20 +3577,20 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="19.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="41"/>
-    <col min="5" max="5" width="10.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="40"/>
+    <col min="5" max="5" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3588,11 +3606,11 @@
       <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="93" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>5</v>
@@ -3603,20 +3621,20 @@
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
       <c r="D2" s="83"/>
-      <c r="E2" s="91"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="86"/>
       <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48">
         <v>306000</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>44562</v>
       </c>
       <c r="F3" s="85">
@@ -3628,57 +3646,57 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>100000</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>44567</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="95"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>102000</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>44574</v>
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="71"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>102000</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <v>44579</v>
       </c>
       <c r="F6" s="85">
@@ -3690,95 +3708,95 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>100000</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
         <v>44585</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>102000</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="49">
         <v>44588</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>102000</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <v>44592</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>102000</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <v>44595</v>
       </c>
       <c r="F10" s="86"/>
       <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="59">
+      <c r="C11" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="58">
         <v>102000</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="60">
         <v>44603</v>
       </c>
       <c r="F11" s="72">
@@ -3790,294 +3808,294 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="59">
+      <c r="C12" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="58">
         <v>102000</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="60">
         <v>44609</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="59">
+      <c r="C13" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="58">
         <v>102000</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="60">
         <v>44615</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="C14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="38">
         <v>102000</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="39">
         <v>44622</v>
       </c>
       <c r="F14" s="73"/>
       <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="C15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="38">
         <v>102000</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="39">
         <v>44623</v>
       </c>
       <c r="F15" s="74"/>
       <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="39">
+      <c r="C16" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="38">
         <v>2500</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="39">
         <v>44626</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>25</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>26</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>29</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4105,7 +4123,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,7 +4144,7 @@
       <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="93" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="83" t="s">
@@ -4140,7 +4158,7 @@
       <c r="A2" s="66"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
-      <c r="D2" s="91"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="83"/>
       <c r="F2" s="71"/>
     </row>
@@ -4158,9 +4176,11 @@
         <v>44592</v>
       </c>
       <c r="E3" s="6">
-        <v>191510.96</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>296842</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44587</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4170,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="5">
         <v>44600</v>
@@ -4178,7 +4198,9 @@
       <c r="E4" s="6">
         <v>296841.98</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>44620</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4209,20 +4231,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="19.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="41"/>
-    <col min="5" max="5" width="10.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="40"/>
+    <col min="5" max="5" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4238,17 +4260,17 @@
       <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="93" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>101</v>
+      <c r="H1" s="98" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4256,25 +4278,25 @@
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
       <c r="D2" s="83"/>
-      <c r="E2" s="91"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="86"/>
       <c r="G2" s="71"/>
-      <c r="H2" s="97"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="45">
+      <c r="C3" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="44">
         <v>20000</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>44546</v>
       </c>
       <c r="F3" s="85">
@@ -4284,540 +4306,540 @@
       <c r="G3" s="70">
         <v>44602</v>
       </c>
-      <c r="H3" s="96" t="s">
-        <v>103</v>
+      <c r="H3" s="98" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>52500</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>44565</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="98"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>169500</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>44565</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="98"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>49500</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>44579</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="98"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>140000</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>44586</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="98"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="100"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>17500</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>44596</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="98"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>49500</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>44599</v>
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="71"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>18000</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>44586</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f>D10</f>
         <v>18000</v>
       </c>
       <c r="G10" s="75">
         <v>44589</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>102</v>
+      <c r="H10" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>18000</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>44589</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <f t="shared" ref="F11:F12" si="0">D11</f>
         <v>18000</v>
       </c>
       <c r="G11" s="76"/>
-      <c r="H11" s="20" t="s">
-        <v>102</v>
+      <c r="H11" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>18000</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>44583</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="G12" s="77"/>
-      <c r="H12" s="20" t="s">
-        <v>102</v>
+      <c r="H12" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>140000</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="39">
         <v>44610</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="C14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="38">
         <v>37500</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="39">
         <v>44615</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="20"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="42">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="42">
         <v>19</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="A23" s="42">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="42">
         <v>23</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="42">
         <v>25</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>26</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="42">
         <v>27</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="42">
         <v>29</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>30</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="42">
         <v>31</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="20"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>32</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="42">
         <v>33</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4837,4 +4859,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739B16AC-4453-4621-927E-976B8B19E6EB}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="71"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44643</v>
+      </c>
+      <c r="E3" s="6">
+        <v>620200</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9803DDC8-BA81-4CCF-962C-D2FB93B3B4EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546C297F-F144-4483-93A9-F0828973AFE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIME" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="130">
   <si>
     <r>
       <t>N</t>
@@ -385,9 +385,6 @@
     <t>SDC002800324/7207</t>
   </si>
   <si>
-    <t>SDC007042825/1433</t>
-  </si>
-  <si>
     <t>SDC010014500/2349</t>
   </si>
   <si>
@@ -425,6 +422,21 @@
   </si>
   <si>
     <t>SDC010011775/1073</t>
+  </si>
+  <si>
+    <t>SDC007042825/1431</t>
+  </si>
+  <si>
+    <t>SDC007042825/1432</t>
+  </si>
+  <si>
+    <t>SDC007042825/1436</t>
+  </si>
+  <si>
+    <t>SDC007042825/1438</t>
+  </si>
+  <si>
+    <t>SDC007042825/1443</t>
   </si>
 </sst>
 </file>
@@ -451,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,6 +735,36 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,55 +780,28 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,18 +822,15 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,6 +841,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,36 +1209,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="71"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1251,11 +1278,11 @@
       <c r="E4" s="22">
         <v>44564</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="67">
         <f>D4+D5+D6+D7+D8+D9+D10</f>
         <v>1544720</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="70">
         <v>44588</v>
       </c>
     </row>
@@ -1275,8 +1302,8 @@
       <c r="E5" s="22">
         <v>44567</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="71"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -1294,8 +1321,8 @@
       <c r="E6" s="22">
         <v>44571</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="71"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -1313,8 +1340,8 @@
       <c r="E7" s="22">
         <v>44574</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -1332,8 +1359,8 @@
       <c r="E8" s="22">
         <v>44578</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="76"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -1351,8 +1378,8 @@
       <c r="E9" s="22">
         <v>44581</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="76"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -1370,8 +1397,8 @@
       <c r="E10" s="22">
         <v>44585</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="77"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -1389,11 +1416,11 @@
       <c r="E11" s="22">
         <v>44587</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="67">
         <f>D11+D12+D13+D14+D15+D16+D17+D18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="70">
         <v>44617</v>
       </c>
     </row>
@@ -1413,8 +1440,8 @@
       <c r="E12" s="22">
         <v>44592</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="76"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -1432,8 +1459,8 @@
       <c r="E13" s="22">
         <v>44595</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="76"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -1451,8 +1478,8 @@
       <c r="E14" s="22">
         <v>44599</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="76"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -1470,8 +1497,8 @@
       <c r="E15" s="22">
         <v>44603</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="76"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -1489,8 +1516,8 @@
       <c r="E16" s="22">
         <v>44606</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="76"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -1508,8 +1535,8 @@
       <c r="E17" s="22">
         <v>44609</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="76"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -1527,8 +1554,8 @@
       <c r="E18" s="22">
         <v>44613</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="77"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="72"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -1614,7 +1641,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="21">
         <v>183640</v>
@@ -1633,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="21">
         <v>198780</v>
@@ -1652,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="21">
         <v>327340</v>
@@ -1743,17 +1770,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1781,7 +1808,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -1804,7 +1831,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
       <c r="D2" s="83"/>
@@ -2034,7 +2061,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="38">
         <v>1581930</v>
@@ -2212,7 +2239,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -2221,25 +2248,25 @@
       <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="87" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="27"/>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
-      <c r="D2" s="93"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="83"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="71"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -2283,7 +2310,7 @@
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>2837300</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="70">
         <v>44587</v>
       </c>
     </row>
@@ -2303,8 +2330,8 @@
       <c r="E5" s="12">
         <v>345300</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="71"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -2322,8 +2349,8 @@
       <c r="E6" s="12">
         <v>489200</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="71"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -2341,8 +2368,8 @@
       <c r="E7" s="12">
         <v>389700</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -2360,8 +2387,8 @@
       <c r="E8" s="12">
         <v>438700</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="76"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -2379,8 +2406,8 @@
       <c r="E9" s="12">
         <v>272700</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="76"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -2399,7 +2426,7 @@
         <v>457200</v>
       </c>
       <c r="F10" s="86"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -2417,11 +2444,11 @@
       <c r="E11" s="32">
         <v>10000</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="88">
         <v>30000</v>
       </c>
-      <c r="G11" s="89" t="s">
-        <v>123</v>
+      <c r="G11" s="90" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2440,8 +2467,8 @@
       <c r="E12" s="26">
         <v>20000</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -2459,11 +2486,11 @@
       <c r="E13" s="12">
         <v>513700</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="88">
         <f>E13+E14+E15+E16+E17+E18</f>
         <v>2725700</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="70">
         <v>44608</v>
       </c>
     </row>
@@ -2483,8 +2510,8 @@
       <c r="E14" s="12">
         <v>433400</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="76"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -2502,8 +2529,8 @@
       <c r="E15" s="21">
         <v>635100</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="76"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -2521,8 +2548,8 @@
       <c r="E16" s="21">
         <v>419000</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="76"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -2540,8 +2567,8 @@
       <c r="E17" s="21">
         <v>234600</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="76"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -2559,8 +2586,8 @@
       <c r="E18" s="21">
         <v>489900</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="77"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="72"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -2665,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="22">
         <v>44627</v>
@@ -2684,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="5">
         <v>44630</v>
@@ -2703,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="5">
         <v>44634</v>
@@ -2820,18 +2847,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G10"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="G4:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2860,7 +2887,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -2869,7 +2896,7 @@
       <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="84" t="s">
@@ -2883,10 +2910,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
-      <c r="D2" s="79"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="84"/>
       <c r="F2" s="86"/>
       <c r="G2" s="81"/>
@@ -2907,7 +2934,7 @@
       <c r="E3" s="35">
         <v>44567</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="67">
         <v>500000</v>
       </c>
       <c r="G3" s="94">
@@ -2930,8 +2957,8 @@
       <c r="E4" s="35">
         <v>44567</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="95"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -2949,7 +2976,7 @@
       <c r="E5" s="35">
         <v>44572</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="67">
         <v>500000</v>
       </c>
       <c r="G5" s="94">
@@ -2972,8 +2999,8 @@
       <c r="E6" s="35">
         <v>44573</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="95"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -2991,7 +3018,7 @@
       <c r="E7" s="35">
         <v>44580</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="67">
         <v>500000</v>
       </c>
       <c r="G7" s="94">
@@ -3014,8 +3041,8 @@
       <c r="E8" s="35">
         <v>44580</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="95"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="96"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -3033,7 +3060,7 @@
       <c r="E9" s="35">
         <v>44589</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="67">
         <v>500000</v>
       </c>
       <c r="G9" s="94">
@@ -3056,8 +3083,8 @@
       <c r="E10" s="35">
         <v>44589</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="95"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="96"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -3075,7 +3102,7 @@
       <c r="E11" s="36">
         <v>44595</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="67">
         <v>500000</v>
       </c>
       <c r="G11" s="94">
@@ -3098,8 +3125,8 @@
       <c r="E12" s="36">
         <v>44599</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="96"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -3117,8 +3144,8 @@
       <c r="E13" s="36">
         <v>44599</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="95"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3136,7 +3163,7 @@
       <c r="E14" s="36">
         <v>44606</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="67">
         <v>500000</v>
       </c>
       <c r="G14" s="94">
@@ -3159,8 +3186,8 @@
       <c r="E15" s="36">
         <v>44607</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -3178,8 +3205,8 @@
       <c r="E16" s="36">
         <v>44607</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="95"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="96"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -3197,7 +3224,7 @@
       <c r="E17" s="36">
         <v>44615</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="67">
         <v>500000</v>
       </c>
       <c r="G17" s="94">
@@ -3220,8 +3247,8 @@
       <c r="E18" s="36">
         <v>44615</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="95"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3394,19 +3421,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F3:F4"/>
@@ -3415,6 +3429,19 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3440,7 +3467,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -3463,7 +3490,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
       <c r="D2" s="83"/>
@@ -3527,7 +3554,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="58">
         <v>265500</v>
@@ -3574,10 +3601,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,7 +3621,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -3606,24 +3633,24 @@
       <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="87" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
       <c r="D2" s="83"/>
-      <c r="E2" s="93"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="86"/>
-      <c r="G2" s="71"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
@@ -3641,7 +3668,7 @@
         <f>D3+D4+D5</f>
         <v>508000</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="65">
         <v>44579</v>
       </c>
     </row>
@@ -3661,7 +3688,7 @@
       <c r="E4" s="49">
         <v>44567</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,7 +3708,7 @@
         <v>44574</v>
       </c>
       <c r="F5" s="86"/>
-      <c r="G5" s="71"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -3703,7 +3730,7 @@
         <f>D7+D8+D9+D10+D6</f>
         <v>508000</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="70">
         <v>44607</v>
       </c>
     </row>
@@ -3723,8 +3750,8 @@
       <c r="E7" s="49">
         <v>44585</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -3742,8 +3769,8 @@
       <c r="E8" s="49">
         <v>44588</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="76"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -3761,8 +3788,8 @@
       <c r="E9" s="49">
         <v>44592</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="76"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -3781,7 +3808,7 @@
         <v>44595</v>
       </c>
       <c r="F10" s="86"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -3799,11 +3826,11 @@
       <c r="E11" s="60">
         <v>44603</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="67">
         <f>D15+D14+D13+D12+D11</f>
         <v>510000</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="70">
         <v>44624</v>
       </c>
     </row>
@@ -3823,8 +3850,8 @@
       <c r="E12" s="60">
         <v>44609</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="76"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -3842,8 +3869,8 @@
       <c r="E13" s="60">
         <v>44615</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="76"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3861,8 +3888,8 @@
       <c r="E14" s="39">
         <v>44622</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="76"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3880,83 +3907,112 @@
       <c r="E15" s="39">
         <v>44623</v>
       </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="77"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="38">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="39">
-        <v>44626</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>44625</v>
+      </c>
+      <c r="F16" s="67">
+        <f>D16+D17+D18+D19+D20</f>
+        <v>502000</v>
+      </c>
+      <c r="G16" s="101">
+        <v>44648</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="C17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>44626</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="C18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="6">
+        <v>102000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>44629</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="C19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>44633</v>
+      </c>
+      <c r="F19" s="68"/>
+      <c r="G19" s="102"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="C20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>44639</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>11</v>
@@ -3969,7 +4025,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>11</v>
@@ -3982,7 +4038,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>11</v>
@@ -3995,7 +4051,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>11</v>
@@ -4008,7 +4064,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>11</v>
@@ -4021,7 +4077,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>11</v>
@@ -4034,7 +4090,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>11</v>
@@ -4047,7 +4103,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>11</v>
@@ -4060,7 +4116,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>11</v>
@@ -4073,7 +4129,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>11</v>
@@ -4084,21 +4140,10 @@
       <c r="F30" s="38"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>29</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="G11:G15"/>
     <mergeCell ref="A1:A2"/>
@@ -4135,7 +4180,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -4144,23 +4189,23 @@
       <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="87" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
-      <c r="D2" s="93"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="83"/>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4190,7 +4235,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="5">
         <v>44600</v>
@@ -4248,7 +4293,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -4260,13 +4305,13 @@
       <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="87" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="65" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="98" t="s">
@@ -4274,13 +4319,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
       <c r="D2" s="83"/>
-      <c r="E2" s="93"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="86"/>
-      <c r="G2" s="71"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4303,7 +4348,7 @@
         <f>D9+D8+D7+D6+D5+D4+D3</f>
         <v>498500</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="65">
         <v>44602</v>
       </c>
       <c r="H3" s="98" t="s">
@@ -4326,7 +4371,7 @@
       <c r="E4" s="45">
         <v>44565</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="97"/>
       <c r="H4" s="100"/>
     </row>
@@ -4346,7 +4391,7 @@
       <c r="E5" s="45">
         <v>44565</v>
       </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="97"/>
       <c r="H5" s="100"/>
     </row>
@@ -4366,7 +4411,7 @@
       <c r="E6" s="45">
         <v>44579</v>
       </c>
-      <c r="F6" s="92"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="97"/>
       <c r="H6" s="100"/>
     </row>
@@ -4386,7 +4431,7 @@
       <c r="E7" s="45">
         <v>44586</v>
       </c>
-      <c r="F7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="97"/>
       <c r="H7" s="100"/>
     </row>
@@ -4406,7 +4451,7 @@
       <c r="E8" s="39">
         <v>44596</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="97"/>
       <c r="H8" s="100"/>
     </row>
@@ -4427,7 +4472,7 @@
         <v>44599</v>
       </c>
       <c r="F9" s="86"/>
-      <c r="G9" s="71"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4450,7 +4495,7 @@
         <f>D10</f>
         <v>18000</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="70">
         <v>44589</v>
       </c>
       <c r="H10" s="19" t="s">
@@ -4477,7 +4522,7 @@
         <f t="shared" ref="F11:F12" si="0">D11</f>
         <v>18000</v>
       </c>
-      <c r="G11" s="76"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="19" t="s">
         <v>101</v>
       </c>
@@ -4502,7 +4547,7 @@
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G12" s="77"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="19" t="s">
         <v>101</v>
       </c>
@@ -4535,7 +4580,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="38">
         <v>37500</v>
@@ -4843,6 +4888,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F3:F9"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="H1:H2"/>
@@ -4850,11 +4900,6 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4865,7 +4910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739B16AC-4453-4621-927E-976B8B19E6EB}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -4878,7 +4923,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
@@ -4887,33 +4932,33 @@
       <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="87" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
-      <c r="D2" s="93"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="83"/>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D3" s="5">
         <v>44643</v>
@@ -4928,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -4940,7 +4985,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -4949,12 +4994,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546C297F-F144-4483-93A9-F0828973AFE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EC580-F7EC-41E7-9656-E1570570C042}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIME" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="136">
   <si>
     <r>
       <t>N</t>
@@ -438,6 +438,24 @@
   <si>
     <t>SDC007042825/1443</t>
   </si>
+  <si>
+    <t>SDC010014500/2559</t>
+  </si>
+  <si>
+    <t>SDC010014500/2697</t>
+  </si>
+  <si>
+    <t>SDC919914500/2779</t>
+  </si>
+  <si>
+    <t>SDC910014500/2628</t>
+  </si>
+  <si>
+    <t>SDC010014500/2285</t>
+  </si>
+  <si>
+    <t>NTAGO ARISHYURWA</t>
+  </si>
 </sst>
 </file>
 
@@ -447,7 +465,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +475,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -547,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,6 +761,27 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,70 +812,64 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,13 +884,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F18"/>
     </sheetView>
   </sheetViews>
@@ -1209,36 +1250,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1278,11 +1319,11 @@
       <c r="E4" s="22">
         <v>44564</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="74">
         <f>D4+D5+D6+D7+D8+D9+D10</f>
         <v>1544720</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="77">
         <v>44588</v>
       </c>
     </row>
@@ -1302,8 +1343,8 @@
       <c r="E5" s="22">
         <v>44567</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="71"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -1321,8 +1362,8 @@
       <c r="E6" s="22">
         <v>44571</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -1340,8 +1381,8 @@
       <c r="E7" s="22">
         <v>44574</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -1359,8 +1400,8 @@
       <c r="E8" s="22">
         <v>44578</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -1378,8 +1419,8 @@
       <c r="E9" s="22">
         <v>44581</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -1397,8 +1438,8 @@
       <c r="E10" s="22">
         <v>44585</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -1416,11 +1457,11 @@
       <c r="E11" s="22">
         <v>44587</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="74">
         <f>D11+D12+D13+D14+D15+D16+D17+D18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="77">
         <v>44617</v>
       </c>
     </row>
@@ -1440,8 +1481,8 @@
       <c r="E12" s="22">
         <v>44592</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="71"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -1459,8 +1500,8 @@
       <c r="E13" s="22">
         <v>44595</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="71"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -1478,8 +1519,8 @@
       <c r="E14" s="22">
         <v>44599</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="71"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -1497,8 +1538,8 @@
       <c r="E15" s="22">
         <v>44603</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="71"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -1516,8 +1557,8 @@
       <c r="E16" s="22">
         <v>44606</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="71"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -1535,8 +1576,8 @@
       <c r="E17" s="22">
         <v>44609</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="71"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="78"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -1554,8 +1595,8 @@
       <c r="E18" s="22">
         <v>44613</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="79"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -1770,17 +1811,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1808,36 +1849,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="82" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="81"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
@@ -2220,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,42 +2275,44 @@
     <col min="4" max="4" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="24"/>
     <col min="6" max="6" width="10.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="27"/>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="83"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="66"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
       <c r="B3" s="14" t="s">
         <v>88</v>
       </c>
@@ -2292,7 +2335,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>7</v>
@@ -2306,17 +2349,17 @@
       <c r="E4" s="12">
         <v>444500</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="87">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>2837300</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="77">
         <v>44587</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>2</v>
+      <c r="A5" s="65">
+        <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>7</v>
@@ -2330,12 +2373,12 @@
       <c r="E5" s="12">
         <v>345300</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="71"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>7</v>
@@ -2349,12 +2392,12 @@
       <c r="E6" s="12">
         <v>489200</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>4</v>
+      <c r="A7" s="65">
+        <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
@@ -2368,12 +2411,12 @@
       <c r="E7" s="12">
         <v>389700</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>7</v>
@@ -2387,12 +2430,12 @@
       <c r="E8" s="12">
         <v>438700</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>6</v>
+      <c r="A9" s="65">
+        <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>7</v>
@@ -2406,12 +2449,12 @@
       <c r="E9" s="12">
         <v>272700</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>7</v>
@@ -2425,12 +2468,12 @@
       <c r="E10" s="12">
         <v>457200</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <v>10</v>
+      <c r="A11" s="65">
+        <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>7</v>
@@ -2444,16 +2487,16 @@
       <c r="E11" s="32">
         <v>10000</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="89">
         <v>30000</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="91" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
-        <v>11</v>
+      <c r="A12" s="19">
+        <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>7</v>
@@ -2467,12 +2510,12 @@
       <c r="E12" s="26">
         <v>20000</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="91"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>8</v>
+      <c r="A13" s="65">
+        <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>7</v>
@@ -2486,17 +2529,17 @@
       <c r="E13" s="12">
         <v>513700</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="89">
         <f>E13+E14+E15+E16+E17+E18</f>
         <v>2725700</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="77">
         <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>7</v>
@@ -2510,12 +2553,12 @@
       <c r="E14" s="12">
         <v>433400</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="71"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>12</v>
+      <c r="A15" s="65">
+        <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>7</v>
@@ -2529,12 +2572,12 @@
       <c r="E15" s="21">
         <v>635100</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="71"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>7</v>
@@ -2548,12 +2591,12 @@
       <c r="E16" s="21">
         <v>419000</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="71"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>14</v>
+      <c r="A17" s="65">
+        <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>7</v>
@@ -2567,12 +2610,12 @@
       <c r="E17" s="21">
         <v>234600</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="71"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="78"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>7</v>
@@ -2586,12 +2629,12 @@
       <c r="E18" s="21">
         <v>489900</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="79"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>16</v>
+      <c r="A19" s="65">
+        <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>7</v>
@@ -2605,12 +2648,17 @@
       <c r="E19" s="21">
         <v>474700</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="74">
+        <f>E25+E24+E23+E22+E21+E20+E19</f>
+        <v>3317100</v>
+      </c>
+      <c r="G19" s="77">
+        <v>44630</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>7</v>
@@ -2624,12 +2672,12 @@
       <c r="E20" s="21">
         <v>453900</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>18</v>
+      <c r="A21" s="65">
+        <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>7</v>
@@ -2643,12 +2691,12 @@
       <c r="E21" s="21">
         <v>292700</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>7</v>
@@ -2660,14 +2708,14 @@
         <v>44620</v>
       </c>
       <c r="E22" s="21">
-        <v>638400</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+        <v>636400</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>20</v>
+      <c r="A23" s="65">
+        <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>7</v>
@@ -2681,184 +2729,184 @@
       <c r="E23" s="21">
         <v>153300</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D24" s="22">
-        <v>44627</v>
+        <v>44623</v>
       </c>
       <c r="E24" s="21">
-        <v>671700</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+        <v>634400</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>22</v>
+      <c r="A25" s="65">
+        <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="5">
-        <v>44630</v>
-      </c>
-      <c r="E25" s="6">
-        <v>445200</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="C25" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="22">
+        <v>44627</v>
+      </c>
+      <c r="E25" s="66">
+        <v>671700</v>
+      </c>
+      <c r="F25" s="76"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="5">
-        <v>44634</v>
+        <v>44630</v>
       </c>
       <c r="E26" s="6">
-        <v>574900</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+        <v>445200</v>
+      </c>
+      <c r="F26" s="74">
+        <f>E31+E30+E29+E28+E27+E26</f>
+        <v>3139000</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>24</v>
+      <c r="A27" s="65">
+        <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="C27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44634</v>
+      </c>
+      <c r="E27" s="6">
+        <v>574900</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="107"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="C28" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="22">
+        <v>44637</v>
+      </c>
+      <c r="E28" s="21">
+        <v>502300</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="107"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <v>26</v>
+      <c r="A29" s="65">
+        <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="22">
+        <v>44641</v>
+      </c>
+      <c r="E29" s="21">
+        <v>605600</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="107"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="22">
+        <v>44644</v>
+      </c>
+      <c r="E30" s="21">
+        <v>264000</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>28</v>
+      <c r="A31" s="65">
+        <v>29</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>29</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>30</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>31</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="C31" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="22">
+        <v>44648</v>
+      </c>
+      <c r="E31" s="21">
+        <v>747000</v>
+      </c>
+      <c r="F31" s="76"/>
+      <c r="G31" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G13:G18"/>
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2887,36 +2935,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="82" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="81"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
@@ -2934,10 +2982,10 @@
       <c r="E3" s="35">
         <v>44567</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="74">
         <v>500000</v>
       </c>
-      <c r="G3" s="94">
+      <c r="G3" s="96">
         <v>44566</v>
       </c>
     </row>
@@ -2957,8 +3005,8 @@
       <c r="E4" s="35">
         <v>44567</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="96"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -2976,10 +3024,10 @@
       <c r="E5" s="35">
         <v>44572</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="74">
         <v>500000</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="96">
         <v>44573</v>
       </c>
     </row>
@@ -2999,8 +3047,8 @@
       <c r="E6" s="35">
         <v>44573</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -3018,10 +3066,10 @@
       <c r="E7" s="35">
         <v>44580</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="74">
         <v>500000</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="96">
         <v>44580</v>
       </c>
     </row>
@@ -3041,8 +3089,8 @@
       <c r="E8" s="35">
         <v>44580</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="96"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -3060,10 +3108,10 @@
       <c r="E9" s="35">
         <v>44589</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="74">
         <v>500000</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="96">
         <v>44592</v>
       </c>
     </row>
@@ -3083,8 +3131,8 @@
       <c r="E10" s="35">
         <v>44589</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="96"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -3102,10 +3150,10 @@
       <c r="E11" s="36">
         <v>44595</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="74">
         <v>500000</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="96">
         <v>44599</v>
       </c>
     </row>
@@ -3125,8 +3173,8 @@
       <c r="E12" s="36">
         <v>44599</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="95"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -3144,8 +3192,8 @@
       <c r="E13" s="36">
         <v>44599</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3163,10 +3211,10 @@
       <c r="E14" s="36">
         <v>44606</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="74">
         <v>500000</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="96">
         <v>44608</v>
       </c>
     </row>
@@ -3186,8 +3234,8 @@
       <c r="E15" s="36">
         <v>44607</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="95"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -3205,8 +3253,8 @@
       <c r="E16" s="36">
         <v>44607</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -3224,10 +3272,10 @@
       <c r="E17" s="36">
         <v>44615</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="74">
         <v>500000</v>
       </c>
-      <c r="G17" s="94">
+      <c r="G17" s="96">
         <v>44614</v>
       </c>
     </row>
@@ -3247,8 +3295,8 @@
       <c r="E18" s="36">
         <v>44615</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="96"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="97"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3421,6 +3469,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F3:F4"/>
@@ -3429,19 +3490,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3467,36 +3515,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="82" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="81"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
@@ -3603,7 +3651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3621,36 +3669,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
@@ -3664,11 +3712,11 @@
       <c r="E3" s="49">
         <v>44562</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="87">
         <f>D3+D4+D5</f>
         <v>508000</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="72">
         <v>44579</v>
       </c>
     </row>
@@ -3688,8 +3736,8 @@
       <c r="E4" s="49">
         <v>44567</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="97"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -3707,8 +3755,8 @@
       <c r="E5" s="49">
         <v>44574</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="66"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -3726,11 +3774,11 @@
       <c r="E6" s="49">
         <v>44579</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="87">
         <f>D7+D8+D9+D10+D6</f>
         <v>508000</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="77">
         <v>44607</v>
       </c>
     </row>
@@ -3750,8 +3798,8 @@
       <c r="E7" s="49">
         <v>44585</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -3769,8 +3817,8 @@
       <c r="E8" s="49">
         <v>44588</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -3788,8 +3836,8 @@
       <c r="E9" s="49">
         <v>44592</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -3807,8 +3855,8 @@
       <c r="E10" s="50">
         <v>44595</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -3826,11 +3874,11 @@
       <c r="E11" s="60">
         <v>44603</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="74">
         <f>D15+D14+D13+D12+D11</f>
         <v>510000</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="77">
         <v>44624</v>
       </c>
     </row>
@@ -3850,8 +3898,8 @@
       <c r="E12" s="60">
         <v>44609</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="71"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -3869,8 +3917,8 @@
       <c r="E13" s="60">
         <v>44615</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="71"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3888,8 +3936,8 @@
       <c r="E14" s="39">
         <v>44622</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="71"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3907,8 +3955,8 @@
       <c r="E15" s="39">
         <v>44623</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -3926,11 +3974,11 @@
       <c r="E16" s="5">
         <v>44625</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="74">
         <f>D16+D17+D18+D19+D20</f>
         <v>502000</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="99">
         <v>44648</v>
       </c>
     </row>
@@ -3950,8 +3998,8 @@
       <c r="E17" s="5">
         <v>44626</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="102"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="100"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -3969,8 +4017,8 @@
       <c r="E18" s="5">
         <v>44629</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="102"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3988,8 +4036,8 @@
       <c r="E19" s="5">
         <v>44633</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="102"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -4007,8 +4055,8 @@
       <c r="E20" s="5">
         <v>44639</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="103"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -4168,7 +4216,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4180,32 +4228,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4293,40 +4341,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="103" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="99"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
@@ -4344,14 +4392,14 @@
       <c r="E3" s="45">
         <v>44546</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="87">
         <f>D9+D8+D7+D6+D5+D4+D3</f>
         <v>498500</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="72">
         <v>44602</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="103" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4371,9 +4419,9 @@
       <c r="E4" s="45">
         <v>44565</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -4391,9 +4439,9 @@
       <c r="E5" s="45">
         <v>44565</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="100"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -4411,9 +4459,9 @@
       <c r="E6" s="45">
         <v>44579</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="100"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="105"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
@@ -4431,9 +4479,9 @@
       <c r="E7" s="45">
         <v>44586</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="100"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -4451,9 +4499,9 @@
       <c r="E8" s="39">
         <v>44596</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="100"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="105"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4471,9 +4519,9 @@
       <c r="E9" s="39">
         <v>44599</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="99"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -4495,7 +4543,7 @@
         <f>D10</f>
         <v>18000</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="77">
         <v>44589</v>
       </c>
       <c r="H10" s="19" t="s">
@@ -4522,7 +4570,7 @@
         <f t="shared" ref="F11:F12" si="0">D11</f>
         <v>18000</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="19" t="s">
         <v>101</v>
       </c>
@@ -4547,7 +4595,7 @@
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="19" t="s">
         <v>101</v>
       </c>
@@ -4888,11 +4936,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F3:F9"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="H1:H2"/>
@@ -4900,6 +4943,11 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4923,32 +4971,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EC580-F7EC-41E7-9656-E1570570C042}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE93E7D-351F-4B48-B357-12C7277BA9A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIME" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="LIQUID" sheetId="7" r:id="rId7"/>
     <sheet name="KEYNES GROUP" sheetId="8" r:id="rId8"/>
     <sheet name="MAPLECO S.A.R.L" sheetId="9" r:id="rId9"/>
+    <sheet name="NIMEN GENERAL BUSINESS LTD" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="138">
   <si>
     <r>
       <t>N</t>
@@ -455,6 +456,12 @@
   </si>
   <si>
     <t>NTAGO ARISHYURWA</t>
+  </si>
+  <si>
+    <t>NIMEN GENERAL BUSINESS LTD</t>
+  </si>
+  <si>
+    <t>SDC010024405/165</t>
   </si>
 </sst>
 </file>
@@ -573,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,6 +840,18 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,9 +870,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,14 +900,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,6 +1838,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87892A2-C09F-4C2D-B02C-B83B8EF2456E}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44648</v>
+      </c>
+      <c r="E3" s="6">
+        <v>757700</v>
+      </c>
+      <c r="F3" s="109">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
@@ -2263,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -2289,7 +2400,7 @@
       <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="89" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="85" t="s">
@@ -2304,7 +2415,7 @@
       <c r="A2" s="68"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
-      <c r="D2" s="95"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="85"/>
       <c r="F2" s="28"/>
       <c r="G2" s="73"/>
@@ -2373,7 +2484,7 @@
       <c r="E5" s="12">
         <v>345300</v>
       </c>
-      <c r="F5" s="94"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2392,7 +2503,7 @@
       <c r="E6" s="12">
         <v>489200</v>
       </c>
-      <c r="F6" s="94"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2411,7 +2522,7 @@
       <c r="E7" s="12">
         <v>389700</v>
       </c>
-      <c r="F7" s="94"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2430,7 +2541,7 @@
       <c r="E8" s="12">
         <v>438700</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2560,7 @@
       <c r="E9" s="12">
         <v>272700</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2487,10 +2598,10 @@
       <c r="E11" s="32">
         <v>10000</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="93">
         <v>30000</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="95" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2510,8 +2621,8 @@
       <c r="E12" s="26">
         <v>20000</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="92"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="96"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
@@ -2529,7 +2640,7 @@
       <c r="E13" s="12">
         <v>513700</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="93">
         <f>E13+E14+E15+E16+E17+E18</f>
         <v>2725700</v>
       </c>
@@ -2553,7 +2664,7 @@
       <c r="E14" s="12">
         <v>433400</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2572,7 +2683,7 @@
       <c r="E15" s="21">
         <v>635100</v>
       </c>
-      <c r="F15" s="93"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2591,7 +2702,7 @@
       <c r="E16" s="21">
         <v>419000</v>
       </c>
-      <c r="F16" s="93"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,7 +2721,7 @@
       <c r="E17" s="21">
         <v>234600</v>
       </c>
-      <c r="F17" s="93"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="78"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2629,7 +2740,7 @@
       <c r="E18" s="21">
         <v>489900</v>
       </c>
-      <c r="F18" s="90"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="79"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2790,7 +2901,7 @@
         <f>E31+E30+E29+E28+E27+E26</f>
         <v>3139000</v>
       </c>
-      <c r="G26" s="106" t="s">
+      <c r="G26" s="90" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2811,7 +2922,7 @@
         <v>574900</v>
       </c>
       <c r="F27" s="75"/>
-      <c r="G27" s="107"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
@@ -2830,7 +2941,7 @@
         <v>502300</v>
       </c>
       <c r="F28" s="75"/>
-      <c r="G28" s="107"/>
+      <c r="G28" s="91"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
@@ -2849,7 +2960,7 @@
         <v>605600</v>
       </c>
       <c r="F29" s="75"/>
-      <c r="G29" s="107"/>
+      <c r="G29" s="91"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -2868,7 +2979,7 @@
         <v>264000</v>
       </c>
       <c r="F30" s="75"/>
-      <c r="G30" s="107"/>
+      <c r="G30" s="91"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
@@ -2887,7 +2998,7 @@
         <v>747000</v>
       </c>
       <c r="F31" s="76"/>
-      <c r="G31" s="108"/>
+      <c r="G31" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2896,17 +3007,17 @@
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="G26:G31"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G13:G18"/>
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2985,7 +3096,7 @@
       <c r="F3" s="74">
         <v>500000</v>
       </c>
-      <c r="G3" s="96">
+      <c r="G3" s="99">
         <v>44566</v>
       </c>
     </row>
@@ -3006,7 +3117,7 @@
         <v>44567</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="G4" s="97"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -3027,7 +3138,7 @@
       <c r="F5" s="74">
         <v>500000</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="99">
         <v>44573</v>
       </c>
     </row>
@@ -3048,7 +3159,7 @@
         <v>44573</v>
       </c>
       <c r="F6" s="76"/>
-      <c r="G6" s="97"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -3069,7 +3180,7 @@
       <c r="F7" s="74">
         <v>500000</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="99">
         <v>44580</v>
       </c>
     </row>
@@ -3090,7 +3201,7 @@
         <v>44580</v>
       </c>
       <c r="F8" s="76"/>
-      <c r="G8" s="97"/>
+      <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -3111,7 +3222,7 @@
       <c r="F9" s="74">
         <v>500000</v>
       </c>
-      <c r="G9" s="96">
+      <c r="G9" s="99">
         <v>44592</v>
       </c>
     </row>
@@ -3132,7 +3243,7 @@
         <v>44589</v>
       </c>
       <c r="F10" s="76"/>
-      <c r="G10" s="97"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -3153,7 +3264,7 @@
       <c r="F11" s="74">
         <v>500000</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="99">
         <v>44599</v>
       </c>
     </row>
@@ -3174,7 +3285,7 @@
         <v>44599</v>
       </c>
       <c r="F12" s="75"/>
-      <c r="G12" s="98"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -3193,7 +3304,7 @@
         <v>44599</v>
       </c>
       <c r="F13" s="76"/>
-      <c r="G13" s="97"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3214,7 +3325,7 @@
       <c r="F14" s="74">
         <v>500000</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="99">
         <v>44608</v>
       </c>
     </row>
@@ -3235,7 +3346,7 @@
         <v>44607</v>
       </c>
       <c r="F15" s="75"/>
-      <c r="G15" s="98"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -3254,7 +3365,7 @@
         <v>44607</v>
       </c>
       <c r="F16" s="76"/>
-      <c r="G16" s="97"/>
+      <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -3275,7 +3386,7 @@
       <c r="F17" s="74">
         <v>500000</v>
       </c>
-      <c r="G17" s="96">
+      <c r="G17" s="99">
         <v>44614</v>
       </c>
     </row>
@@ -3296,7 +3407,7 @@
         <v>44615</v>
       </c>
       <c r="F18" s="76"/>
-      <c r="G18" s="97"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3681,7 +3792,7 @@
       <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="89" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="87" t="s">
@@ -3696,7 +3807,7 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="85"/>
-      <c r="E2" s="95"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="88"/>
       <c r="G2" s="73"/>
     </row>
@@ -3736,8 +3847,8 @@
       <c r="E4" s="49">
         <v>44567</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="105"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -3798,7 +3909,7 @@
       <c r="E7" s="49">
         <v>44585</v>
       </c>
-      <c r="F7" s="94"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3817,7 +3928,7 @@
       <c r="E8" s="49">
         <v>44588</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3836,7 +3947,7 @@
       <c r="E9" s="49">
         <v>44592</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3978,7 +4089,7 @@
         <f>D16+D17+D18+D19+D20</f>
         <v>502000</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="102">
         <v>44648</v>
       </c>
     </row>
@@ -3999,7 +4110,7 @@
         <v>44626</v>
       </c>
       <c r="F17" s="75"/>
-      <c r="G17" s="100"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -4018,7 +4129,7 @@
         <v>44629</v>
       </c>
       <c r="F18" s="75"/>
-      <c r="G18" s="100"/>
+      <c r="G18" s="103"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -4037,7 +4148,7 @@
         <v>44633</v>
       </c>
       <c r="F19" s="75"/>
-      <c r="G19" s="100"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -4056,7 +4167,7 @@
         <v>44639</v>
       </c>
       <c r="F20" s="76"/>
-      <c r="G20" s="101"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -4237,7 +4348,7 @@
       <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="89" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="85" t="s">
@@ -4251,7 +4362,7 @@
       <c r="A2" s="68"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
-      <c r="D2" s="95"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="85"/>
       <c r="F2" s="73"/>
     </row>
@@ -4325,7 +4436,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4353,7 +4464,7 @@
       <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="89" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="87" t="s">
@@ -4362,7 +4473,7 @@
       <c r="G1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="106" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4371,10 +4482,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="85"/>
-      <c r="E2" s="95"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="88"/>
       <c r="G2" s="73"/>
-      <c r="H2" s="104"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
@@ -4399,7 +4510,7 @@
       <c r="G3" s="72">
         <v>44602</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="106" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4419,9 +4530,9 @@
       <c r="E4" s="45">
         <v>44565</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="105"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="108"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -4439,9 +4550,9 @@
       <c r="E5" s="45">
         <v>44565</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="105"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -4459,9 +4570,9 @@
       <c r="E6" s="45">
         <v>44579</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="105"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
@@ -4479,9 +4590,9 @@
       <c r="E7" s="45">
         <v>44586</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="105"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -4499,9 +4610,9 @@
       <c r="E8" s="39">
         <v>44596</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="105"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -4521,7 +4632,7 @@
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="104"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -4959,7 +5070,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,7 +5091,7 @@
       <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="89" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="85" t="s">
@@ -4994,7 +5105,7 @@
       <c r="A2" s="68"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
-      <c r="D2" s="95"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="85"/>
       <c r="F2" s="73"/>
     </row>
@@ -5014,7 +5125,9 @@
       <c r="E3" s="6">
         <v>620200</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="109">
+        <v>44643</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">

--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE93E7D-351F-4B48-B357-12C7277BA9A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA6103-D625-44F8-8F49-F0EA3102AA52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIME" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="143">
   <si>
     <r>
       <t>N</t>
@@ -462,6 +462,21 @@
   </si>
   <si>
     <t>SDC010024405/165</t>
+  </si>
+  <si>
+    <t>SDC002800324/7339</t>
+  </si>
+  <si>
+    <t>SDC002800324/7388</t>
+  </si>
+  <si>
+    <t>SDC002800324/7422</t>
+  </si>
+  <si>
+    <t>SDC002800324/7449</t>
+  </si>
+  <si>
+    <t>SDC002800324/7475</t>
   </si>
 </sst>
 </file>
@@ -580,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,6 +618,165 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,270 +789,117 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,9 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,595 +1261,625 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="24"/>
-    <col min="5" max="5" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="20"/>
+    <col min="5" max="5" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="65">
         <v>1435860</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="66">
         <v>44562</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="67">
         <f>D3</f>
         <v>1435860</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="66">
         <v>44571</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>283300</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>44564</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="71">
         <f>D4+D5+D6+D7+D8+D9+D10</f>
         <v>1544720</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="74">
         <v>44588</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>119320</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>44567</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="78"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>307700</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>44571</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>165620</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <v>44574</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>425200</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>44578</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="78"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>19000</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>44581</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="78"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>224580</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>44585</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="79"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>436940</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>44587</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="71">
         <f>D11+D12+D13+D14+D15+D16+D17+D18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="74">
         <v>44617</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>147140</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>44592</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="78"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>371300</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>44595</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="78"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>191120</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>44599</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="78"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>109280</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>44603</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>335120</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>44606</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="78"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>227360</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <v>44609</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="78"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>154640</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <v>44613</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="79"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="76"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <v>170400</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <v>44616</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>171280</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <v>44620</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>630340</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <v>44622</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>451400</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="18">
         <v>44624</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <v>183640</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="18">
         <v>44627</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>198780</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="18">
         <v>44630</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <v>327340</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="18">
         <v>44634</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="C26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="17">
+        <v>218000</v>
+      </c>
+      <c r="E26" s="18">
+        <v>44637</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="C27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="17">
+        <v>205310</v>
+      </c>
+      <c r="E27" s="18">
+        <v>44641</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="C28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="17">
+        <v>319340</v>
+      </c>
+      <c r="E28" s="18">
+        <v>44644</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="17">
+        <v>384100</v>
+      </c>
+      <c r="E29" s="18">
+        <v>44648</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="17">
+        <v>296100</v>
+      </c>
+      <c r="E30" s="18">
+        <v>44651</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="15">
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1842,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87892A2-C09F-4C2D-B02C-B83B8EF2456E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1855,32 +1903,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="73"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1898,7 +1946,7 @@
       <c r="E3" s="6">
         <v>757700</v>
       </c>
-      <c r="F3" s="109">
+      <c r="F3" s="68">
         <v>44648</v>
       </c>
     </row>
@@ -1928,12 +1976,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1949,411 +1997,411 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="40"/>
-    <col min="5" max="5" width="14" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="36"/>
+    <col min="5" max="5" width="14" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="83"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="34">
         <v>942700</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="57">
         <v>44563</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="34">
         <f>D3</f>
         <v>942700</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="57">
         <v>44566</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="34">
         <v>730780</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="57">
         <v>44569</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="34">
         <f t="shared" ref="F4:F20" si="0">D4</f>
         <v>730780</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="57">
         <v>44573</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="34">
         <v>726320</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="57">
         <v>44576</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="34">
         <f t="shared" si="0"/>
         <v>726320</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="34">
         <v>921600</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="57">
         <v>44583</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="34">
         <f t="shared" si="0"/>
         <v>921600</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="57">
         <v>44588</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="34">
         <v>974120</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="57">
         <v>44590</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="34">
         <f t="shared" si="0"/>
         <v>974120</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="57">
         <v>44594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="36">
         <v>1023390</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="57">
         <v>44597</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="34">
         <f t="shared" si="0"/>
         <v>1023390</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="57">
         <v>44601</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="34">
         <v>477570</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="57">
         <v>44604</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="34">
         <f t="shared" si="0"/>
         <v>477570</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="57">
         <v>44608</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="44">
         <v>1100450</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="46">
         <v>44611</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="44">
         <f t="shared" si="0"/>
         <v>1100450</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="46">
         <v>44613</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="34">
         <v>1447360</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="57">
         <v>44624</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="34">
         <f t="shared" si="0"/>
         <v>1447360</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="57">
         <v>44624</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="34">
         <v>1581930</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="57">
         <v>44632</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>1581930</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="38">
+      <c r="C13" s="15"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="38">
+      <c r="C14" s="15"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="38">
+      <c r="C15" s="15"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="38">
+      <c r="C16" s="15"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="38">
+      <c r="C17" s="15"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="38">
+      <c r="C18" s="15"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="38">
+      <c r="C19" s="15"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="61"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="38">
+      <c r="C20" s="15"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2380,512 +2428,512 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="10.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="10.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>44562</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>2558000</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="24">
         <f>E3</f>
         <v>2558000</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="60">
         <v>44565</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>44564</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>444500</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="89">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>2837300</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="74">
         <v>44587</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
+      <c r="A5" s="61">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>44567</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>345300</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="78"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>44571</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>489200</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="61">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>44574</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>389700</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>44578</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>438700</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="78"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
+      <c r="A9" s="61">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>44581</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>272700</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="78"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>44585</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>457200</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="79"/>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="F10" s="90"/>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="27">
         <v>44594</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="28">
         <v>10000</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="94">
         <v>30000</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="96" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+    <row r="12" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="27">
         <v>44594</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <v>20000</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="96"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
+      <c r="A13" s="61">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>44588</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>513700</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="94">
         <f>E13+E14+E15+E16+E17+E18</f>
         <v>2725700</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="74">
         <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>44592</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>433400</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="78"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="61">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="18">
         <v>44595</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>635100</v>
       </c>
-      <c r="F15" s="97"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="18">
         <v>44599</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>419000</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="78"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="65">
+      <c r="A17" s="61">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="18">
         <v>44603</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>234600</v>
       </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="78"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="18">
         <v>44606</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>489900</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="79"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="76"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
+      <c r="A19" s="61">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="18">
         <v>44609</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>474700</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="71">
         <f>E25+E24+E23+E22+E21+E20+E19</f>
         <v>3317100</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="74">
         <v>44630</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="18">
         <v>44613</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>453900</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="78"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="65">
+      <c r="A21" s="61">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="18">
         <v>44616</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="17">
         <v>292700</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="78"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="75"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="18">
         <v>44620</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>636400</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="78"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
+      <c r="A23" s="61">
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="18">
         <v>44622</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="17">
         <v>153300</v>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="78"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="18">
         <v>44623</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>634400</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="78"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="65">
+      <c r="A25" s="61">
         <v>23</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="18">
         <v>44627</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="62">
         <v>671700</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="79"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2897,19 +2945,19 @@
       <c r="E26" s="6">
         <v>445200</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="71">
         <f>E31+E30+E29+E28+E27+E26</f>
         <v>3139000</v>
       </c>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="91" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="65">
+      <c r="A27" s="61">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2921,87 +2969,92 @@
       <c r="E27" s="6">
         <v>574900</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="91"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="18">
         <v>44637</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="17">
         <v>502300</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="91"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
+      <c r="A29" s="61">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="18">
         <v>44641</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="17">
         <v>605600</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="91"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="18">
         <v>44644</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="17">
         <v>264000</v>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="91"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="92"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+      <c r="A31" s="61">
         <v>29</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="18">
         <v>44648</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="17">
         <v>747000</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="92"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="G19:G25"/>
     <mergeCell ref="F26:F31"/>
@@ -3013,11 +3066,6 @@
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3028,571 +3076,558 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D14:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="24"/>
-    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="20"/>
+    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="83"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>250000</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="31">
         <v>44567</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="71">
         <v>500000</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="101">
         <v>44566</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>250000</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="31">
         <v>44567</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>250000</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="31">
         <v>44572</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="71">
         <v>500000</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="101">
         <v>44573</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>250000</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="31">
         <v>44573</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="100"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>250000</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>44580</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="71">
         <v>500000</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="101">
         <v>44580</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>250000</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="31">
         <v>44580</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="100"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>250000</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="31">
         <v>44589</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="71">
         <v>500000</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="101">
         <v>44592</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>250000</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="31">
         <v>44589</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="100"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="103"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>200000</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="32">
         <v>44595</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="71">
         <v>500000</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="101">
         <v>44599</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>150000</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="32">
         <v>44599</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="101"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>150000</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <v>44599</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="100"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="103"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>150000</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="32">
         <v>44606</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="71">
         <v>500000</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="101">
         <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>150000</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="32">
         <v>44607</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="101"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="102"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>200000</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="32">
         <v>44607</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="100"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>250000</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="32">
         <v>44615</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="71">
         <v>500000</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="101">
         <v>44614</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>250000</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="32">
         <v>44615</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="100"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="103"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="36"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="36"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="36"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="36"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="36"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="36"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="36"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="36"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="36"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="36"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="36"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="36"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F3:F4"/>
@@ -3601,6 +3636,19 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3616,132 +3664,132 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.140625" style="23"/>
-    <col min="3" max="3" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="6.140625" style="23"/>
+    <col min="1" max="2" width="6.140625" style="19"/>
+    <col min="3" max="3" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="6.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="83"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="50">
         <v>265500</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="52">
         <v>44562</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="48">
         <f>D3</f>
         <v>265500</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="51">
         <v>44581</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="50">
         <v>265500</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="52">
         <v>44581</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="48">
         <f t="shared" ref="F4:F6" si="0">D4</f>
         <v>265500</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="57">
         <v>44614</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="54">
         <v>265500</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="58">
         <v>44613</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="48">
         <f t="shared" si="0"/>
         <v>265500</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="52">
+      <c r="C6" s="15"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3768,312 +3816,312 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="40"/>
-    <col min="5" max="5" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="36"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48">
+      <c r="C3" s="43"/>
+      <c r="D3" s="44">
         <v>306000</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="45">
         <v>44562</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="89">
         <f>D3+D4+D5</f>
         <v>508000</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="69">
         <v>44579</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="44">
         <v>100000</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="45">
         <v>44567</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="105"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="107"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="44">
         <v>102000</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="45">
         <v>44574</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="73"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="44">
         <v>102000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="45">
         <v>44579</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="89">
         <f>D7+D8+D9+D10+D6</f>
         <v>508000</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="74">
         <v>44607</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="44">
         <v>100000</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="45">
         <v>44585</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="44">
         <v>102000</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="45">
         <v>44588</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="78"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="44">
         <v>102000</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="45">
         <v>44592</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="78"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="34">
         <v>102000</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="46">
         <v>44595</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="79"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="54">
         <v>102000</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="56">
         <v>44603</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="71">
         <f>D15+D14+D13+D12+D11</f>
         <v>510000</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="74">
         <v>44624</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="54">
         <v>102000</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="56">
         <v>44609</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="78"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="54">
         <v>102000</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="56">
         <v>44615</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="78"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="34">
         <v>102000</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="35">
         <v>44622</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="78"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="34">
         <v>102000</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="35">
         <v>44623</v>
       </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="79"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4085,19 +4133,19 @@
       <c r="E16" s="5">
         <v>44625</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="71">
         <f>D16+D17+D18+D19+D20</f>
         <v>502000</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="104">
         <v>44648</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4109,14 +4157,14 @@
       <c r="E17" s="5">
         <v>44626</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="103"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="105"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4128,14 +4176,14 @@
       <c r="E18" s="5">
         <v>44629</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="103"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4147,14 +4195,14 @@
       <c r="E19" s="5">
         <v>44633</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="103"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="105"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -4166,138 +4214,138 @@
       <c r="E20" s="5">
         <v>44639</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="104"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="106"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4339,32 +4387,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="73"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4441,612 +4489,617 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="40"/>
-    <col min="5" max="5" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="36"/>
+    <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="108" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="107"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="40">
         <v>20000</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="41">
         <v>44546</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="89">
         <f>D9+D8+D7+D6+D5+D4+D3</f>
         <v>498500</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="69">
         <v>44602</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="108" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="40">
         <v>52500</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="41">
         <v>44565</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="108"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="40">
         <v>169500</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="41">
         <v>44565</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="108"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <v>49500</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="41">
         <v>44579</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="108"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="40">
         <v>140000</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <v>44586</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="108"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <v>17500</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <v>44596</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="108"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="110"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="34">
         <v>49500</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="35">
         <v>44599</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="107"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="34">
         <v>18000</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="41">
         <v>44586</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="40">
         <f>D10</f>
         <v>18000</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="74">
         <v>44589</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="34">
         <v>18000</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="41">
         <v>44589</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="40">
         <f t="shared" ref="F11:F12" si="0">D11</f>
         <v>18000</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="75"/>
+      <c r="H11" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="34">
         <v>18000</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="41">
         <v>44583</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="76"/>
+      <c r="H12" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="34">
         <v>140000</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="35">
         <v>44610</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="34">
         <v>37500</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="35">
         <v>44615</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="19"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="19"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
+      <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
+      <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="19"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="42">
+      <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="19"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="A31" s="38">
         <v>29</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="15">
         <v>30</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="19"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
+      <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
+      <c r="A35" s="38">
         <v>33</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="19"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F3:F9"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="H1:H2"/>
@@ -5054,11 +5107,6 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5082,32 +5130,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="73"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -5125,7 +5173,7 @@
       <c r="E3" s="6">
         <v>620200</v>
       </c>
-      <c r="F3" s="109">
+      <c r="F3" s="68">
         <v>44643</v>
       </c>
     </row>

--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA6103-D625-44F8-8F49-F0EA3102AA52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC08F0-805D-4CB4-908F-78811B4390E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIME" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="170">
   <si>
     <r>
       <t>N</t>
@@ -350,15 +350,6 @@
     <t>SOLDE</t>
   </si>
   <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>BY CASH</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>SDC007042825/1413</t>
   </si>
   <si>
@@ -455,9 +446,6 @@
     <t>SDC010014500/2285</t>
   </si>
   <si>
-    <t>NTAGO ARISHYURWA</t>
-  </si>
-  <si>
     <t>NIMEN GENERAL BUSINESS LTD</t>
   </si>
   <si>
@@ -477,6 +465,99 @@
   </si>
   <si>
     <t>SDC002800324/7475</t>
+  </si>
+  <si>
+    <t>SDC002800324/7489</t>
+  </si>
+  <si>
+    <t>SDC002800324/7511</t>
+  </si>
+  <si>
+    <t>SDC007063634/57</t>
+  </si>
+  <si>
+    <t>SDC007063634/58</t>
+  </si>
+  <si>
+    <t>SDC007069932/274583</t>
+  </si>
+  <si>
+    <t>SDC007069932/274584</t>
+  </si>
+  <si>
+    <t>SDC007057826/11206</t>
+  </si>
+  <si>
+    <t>SDC007069932/301543</t>
+  </si>
+  <si>
+    <t>SDC007069932/305336</t>
+  </si>
+  <si>
+    <t>SDC007069932/305335</t>
+  </si>
+  <si>
+    <t>SDC007057826/11187</t>
+  </si>
+  <si>
+    <t>SDC007003860/14111</t>
+  </si>
+  <si>
+    <t>SDC010019219/131</t>
+  </si>
+  <si>
+    <t>SDC010019219/139</t>
+  </si>
+  <si>
+    <t>SDC010019219/144</t>
+  </si>
+  <si>
+    <t>SDC010019219/143</t>
+  </si>
+  <si>
+    <t>SDC010019219/142</t>
+  </si>
+  <si>
+    <t>SDC010019219/141</t>
+  </si>
+  <si>
+    <t>SDC010019219/140</t>
+  </si>
+  <si>
+    <t>1/28/2022 by cash</t>
+  </si>
+  <si>
+    <t>SDC002800324/7545</t>
+  </si>
+  <si>
+    <t>SDC002800324/7563</t>
+  </si>
+  <si>
+    <t>SDC007063634/61</t>
+  </si>
+  <si>
+    <t>SDC010014500/2843</t>
+  </si>
+  <si>
+    <t>SDC010014500/2844</t>
+  </si>
+  <si>
+    <t>SDC010014500/2940</t>
+  </si>
+  <si>
+    <t>SDC010014500/3026</t>
+  </si>
+  <si>
+    <t>SDC010014500/3078</t>
+  </si>
+  <si>
+    <t>SDC011000445/33720</t>
+  </si>
+  <si>
+    <t>SDC002800324/7589</t>
+  </si>
+  <si>
+    <t>SDC010014500/3152</t>
   </si>
 </sst>
 </file>
@@ -531,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -591,11 +672,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,28 +1021,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,149 +1078,236 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,85 +1666,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="70"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="91"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="70">
         <v>1435860</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="71">
         <v>44562</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="70">
         <f>D3</f>
         <v>1435860</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="72">
         <v>44571</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="73">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="75">
         <v>283300</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="80">
         <v>44564</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="84">
         <f>D4+D5+D6+D7+D8+D9+D10</f>
         <v>1544720</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="87">
         <v>44588</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="76">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1368,14 +1756,14 @@
       <c r="D5" s="17">
         <v>119320</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="81">
         <v>44567</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="76">
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1387,14 +1775,14 @@
       <c r="D6" s="17">
         <v>307700</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="81">
         <v>44571</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="75"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="76">
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -1406,14 +1794,14 @@
       <c r="D7" s="17">
         <v>165620</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="81">
         <v>44574</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="75"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="76">
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -1425,14 +1813,14 @@
       <c r="D8" s="17">
         <v>425200</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="81">
         <v>44578</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="75"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="76">
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -1444,57 +1832,57 @@
       <c r="D9" s="17">
         <v>19000</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="81">
         <v>44581</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="75"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="F9" s="85"/>
+      <c r="G9" s="88"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="79">
         <v>224580</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="82">
         <v>44585</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="76"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="73">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="75">
         <v>436940</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="80">
         <v>44587</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="84">
         <f>D11+D12+D13+D14+D15+D16+D17+D18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="87">
         <v>44617</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="76">
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1506,14 +1894,14 @@
       <c r="D12" s="17">
         <v>147140</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="81">
         <v>44592</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="76">
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1525,14 +1913,14 @@
       <c r="D13" s="17">
         <v>371300</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="81">
         <v>44595</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="75"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="76">
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1544,14 +1932,14 @@
       <c r="D14" s="17">
         <v>191120</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="81">
         <v>44599</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="75"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="76">
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1563,14 +1951,14 @@
       <c r="D15" s="17">
         <v>109280</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="81">
         <v>44603</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="76">
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1582,14 +1970,14 @@
       <c r="D16" s="17">
         <v>335120</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="81">
         <v>44606</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="76">
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1601,52 +1989,57 @@
       <c r="D17" s="17">
         <v>227360</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="81">
         <v>44609</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="75"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="F17" s="85"/>
+      <c r="G17" s="88"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="77">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="79">
         <v>154640</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="82">
         <v>44613</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="76"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="89"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="73">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="83">
         <v>170400</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="80">
         <v>44616</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="84">
+        <f>D19+D20+D21+D22+D23+D24+D25+D26+D27+D28+D29+D30+D31</f>
+        <v>3594030</v>
+      </c>
+      <c r="G19" s="87">
+        <v>44655</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="76">
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -1658,222 +2051,358 @@
       <c r="D20" s="17">
         <v>171280</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="81">
         <v>44620</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="76">
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="17">
         <v>630340</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="81">
         <v>44622</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="76">
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="17">
         <v>451400</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="81">
         <v>44624</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="76">
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="17">
         <v>183640</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="81">
         <v>44627</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="76">
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D24" s="17">
         <v>198780</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="81">
         <v>44630</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="76">
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" s="17">
         <v>327340</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="81">
         <v>44634</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="76">
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D26" s="17">
         <v>218000</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="81">
         <v>44637</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="76">
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D27" s="17">
         <v>205310</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="81">
         <v>44641</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="76">
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D28" s="17">
         <v>319340</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="81">
         <v>44644</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="76">
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D29" s="17">
         <v>384100</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="81">
         <v>44648</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="76">
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D30" s="17">
         <v>296100</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="81">
         <v>44651</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="F30" s="85"/>
+      <c r="G30" s="88"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="79">
+        <v>38000</v>
+      </c>
+      <c r="E31" s="82">
+        <v>44652</v>
+      </c>
+      <c r="F31" s="86"/>
+      <c r="G31" s="89"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="58">
+        <v>29</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="65">
+        <v>193400</v>
+      </c>
+      <c r="E32" s="66">
+        <v>44655</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>30</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="17">
+        <v>73000</v>
+      </c>
+      <c r="E33" s="18">
+        <v>44659</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>31</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="17">
+        <v>346250</v>
+      </c>
+      <c r="E34" s="18">
+        <v>44662</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>32</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="17">
+        <v>96000</v>
+      </c>
+      <c r="E35" s="18">
+        <v>44665</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>33</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>34</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>35</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>36</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F19:F31"/>
+    <mergeCell ref="G19:G31"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
@@ -1903,42 +2432,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="90" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="118"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="5">
         <v>44648</v>
@@ -1946,7 +2475,7 @@
       <c r="E3" s="6">
         <v>757700</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="57">
         <v>44648</v>
       </c>
     </row>
@@ -1955,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1967,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -1992,7 +2521,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,43 +2530,43 @@
     <col min="2" max="2" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="36"/>
-    <col min="5" max="5" width="14" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="101" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="85"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -2052,14 +2581,14 @@
       <c r="D3" s="34">
         <v>942700</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="51">
         <v>44563</v>
       </c>
       <c r="F3" s="34">
         <f>D3</f>
         <v>942700</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="51">
         <v>44566</v>
       </c>
     </row>
@@ -2076,14 +2605,14 @@
       <c r="D4" s="34">
         <v>730780</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="51">
         <v>44569</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" ref="F4:F20" si="0">D4</f>
         <v>730780</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="51">
         <v>44573</v>
       </c>
     </row>
@@ -2100,14 +2629,14 @@
       <c r="D5" s="34">
         <v>726320</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="51">
         <v>44576</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
         <v>726320</v>
       </c>
-      <c r="G5" s="57"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -2122,14 +2651,14 @@
       <c r="D6" s="34">
         <v>921600</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="51">
         <v>44583</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
         <v>921600</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="51">
         <v>44588</v>
       </c>
     </row>
@@ -2146,14 +2675,14 @@
       <c r="D7" s="34">
         <v>974120</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="51">
         <v>44590</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
         <v>974120</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="51">
         <v>44594</v>
       </c>
     </row>
@@ -2164,20 +2693,20 @@
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="49" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="36">
         <v>1023390</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="51">
         <v>44597</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
         <v>1023390</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="51">
         <v>44601</v>
       </c>
     </row>
@@ -2194,38 +2723,38 @@
       <c r="D9" s="34">
         <v>477570</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="51">
         <v>44604</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
         <v>477570</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="51">
         <v>44608</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+    <row r="10" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="39">
         <v>1100450</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="40">
         <v>44611</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="39">
         <f t="shared" si="0"/>
         <v>1100450</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="40">
         <v>44613</v>
       </c>
     </row>
@@ -2237,19 +2766,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="34">
         <v>1447360</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="51">
         <v>44624</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
         <v>1447360</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="51">
         <v>44624</v>
       </c>
     </row>
@@ -2261,19 +2790,21 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" s="34">
         <v>1581930</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="51">
         <v>44632</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>1581930</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="51">
+        <v>44635</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -2282,14 +2813,22 @@
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="57"/>
+      <c r="C13" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="34">
+        <v>1065680</v>
+      </c>
+      <c r="E13" s="51">
+        <v>44639</v>
+      </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="57"/>
+        <v>1065680</v>
+      </c>
+      <c r="G13" s="51">
+        <v>44642</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
@@ -2298,14 +2837,22 @@
       <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="34">
+        <v>875040</v>
+      </c>
+      <c r="E14" s="51">
+        <v>44646</v>
+      </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="57"/>
+        <v>875040</v>
+      </c>
+      <c r="G14" s="51">
+        <v>44648</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -2314,14 +2861,22 @@
       <c r="B15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="57"/>
+      <c r="C15" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1243500</v>
+      </c>
+      <c r="E15" s="51">
+        <v>44652</v>
+      </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="57"/>
+        <v>1243500</v>
+      </c>
+      <c r="G15" s="51">
+        <v>44662</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -2332,12 +2887,12 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="57"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -2348,12 +2903,12 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="57"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="57"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -2364,12 +2919,12 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="57"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="57"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -2380,12 +2935,12 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="57"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="57"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -2396,12 +2951,12 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="57"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="G20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2420,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,34 +2994,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="105" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23"/>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="90" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="70"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2488,7 +3043,7 @@
         <f>E3</f>
         <v>2558000</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="54">
         <v>44565</v>
       </c>
     </row>
@@ -2508,16 +3063,16 @@
       <c r="E4" s="9">
         <v>444500</v>
       </c>
-      <c r="F4" s="89">
+      <c r="F4" s="107">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>2837300</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="112">
         <v>44587</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="61">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -2532,8 +3087,8 @@
       <c r="E5" s="9">
         <v>345300</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -2551,11 +3106,11 @@
       <c r="E6" s="9">
         <v>489200</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="75"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2570,8 +3125,8 @@
       <c r="E7" s="9">
         <v>389700</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="75"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="113"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -2589,11 +3144,11 @@
       <c r="E8" s="9">
         <v>438700</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="75"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2608,8 +3163,8 @@
       <c r="E9" s="9">
         <v>272700</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="75"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -2627,11 +3182,11 @@
       <c r="E10" s="9">
         <v>457200</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="76"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="114"/>
     </row>
     <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
+      <c r="A11" s="55">
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -2646,11 +3201,11 @@
       <c r="E11" s="28">
         <v>10000</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="119">
         <v>30000</v>
       </c>
-      <c r="G11" s="96" t="s">
-        <v>122</v>
+      <c r="G11" s="121" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -2669,11 +3224,11 @@
       <c r="E12" s="22">
         <v>20000</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="97"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="122"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="61">
+      <c r="A13" s="55">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2688,11 +3243,11 @@
       <c r="E13" s="9">
         <v>513700</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="119">
         <f>E13+E14+E15+E16+E17+E18</f>
         <v>2725700</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="112">
         <v>44608</v>
       </c>
     </row>
@@ -2712,11 +3267,11 @@
       <c r="E14" s="9">
         <v>433400</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="75"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="61">
+      <c r="A15" s="55">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2731,8 +3286,8 @@
       <c r="E15" s="17">
         <v>635100</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -2750,11 +3305,11 @@
       <c r="E16" s="17">
         <v>419000</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="61">
+      <c r="A17" s="55">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2769,8 +3324,8 @@
       <c r="E17" s="17">
         <v>234600</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="75"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -2788,11 +3343,11 @@
       <c r="E18" s="17">
         <v>489900</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="76"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="114"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="61">
+      <c r="A19" s="55">
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2807,11 +3362,11 @@
       <c r="E19" s="17">
         <v>474700</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="109">
         <f>E25+E24+E23+E22+E21+E20+E19</f>
         <v>3317100</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="112">
         <v>44630</v>
       </c>
     </row>
@@ -2831,11 +3386,11 @@
       <c r="E20" s="17">
         <v>453900</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="113"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="61">
+      <c r="A21" s="55">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2850,8 +3405,8 @@
       <c r="E21" s="17">
         <v>292700</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="75"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -2869,18 +3424,18 @@
       <c r="E22" s="17">
         <v>636400</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="61">
+      <c r="A23" s="55">
         <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" s="18">
         <v>44622</v>
@@ -2888,8 +3443,8 @@
       <c r="E23" s="17">
         <v>153300</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -2899,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" s="18">
         <v>44623</v>
@@ -2907,27 +3462,27 @@
       <c r="E24" s="17">
         <v>634400</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="61">
+      <c r="A25" s="55">
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25" s="18">
         <v>44627</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="56">
         <v>671700</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="76"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="114"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -2937,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D26" s="5">
         <v>44630</v>
@@ -2945,23 +3500,23 @@
       <c r="E26" s="6">
         <v>445200</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="109">
         <f>E31+E30+E29+E28+E27+E26</f>
         <v>3139000</v>
       </c>
-      <c r="G26" s="91" t="s">
-        <v>135</v>
+      <c r="G26" s="115">
+        <v>44652</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="61">
+      <c r="A27" s="55">
         <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" s="5">
         <v>44634</v>
@@ -2969,8 +3524,8 @@
       <c r="E27" s="6">
         <v>574900</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="92"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="116"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -2980,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28" s="18">
         <v>44637</v>
@@ -2988,18 +3543,18 @@
       <c r="E28" s="17">
         <v>502300</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="92"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="116"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="61">
+      <c r="A29" s="55">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D29" s="18">
         <v>44641</v>
@@ -3007,8 +3562,8 @@
       <c r="E29" s="17">
         <v>605600</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="92"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="116"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -3018,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" s="18">
         <v>44644</v>
@@ -3026,18 +3581,18 @@
       <c r="E30" s="17">
         <v>264000</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="92"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="61">
+      <c r="A31" s="55">
         <v>29</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31" s="18">
         <v>44648</v>
@@ -3045,8 +3600,205 @@
       <c r="E31" s="17">
         <v>747000</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="93"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="117"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44651</v>
+      </c>
+      <c r="E32" s="6">
+        <v>577500</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="59">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44651</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4800</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>32</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="18">
+        <v>44655</v>
+      </c>
+      <c r="E34" s="17">
+        <v>534300</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="59">
+        <v>33</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="18">
+        <v>44659</v>
+      </c>
+      <c r="E35" s="17">
+        <v>462400</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>34</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="18">
+        <v>44662</v>
+      </c>
+      <c r="E36" s="17">
+        <v>306600</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="59">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="18">
+        <v>44665</v>
+      </c>
+      <c r="E37" s="17">
+        <v>359000</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>36</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="59">
+        <v>37</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>38</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="59">
+        <v>39</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>40</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3076,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D19:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,43 +3839,43 @@
     <col min="3" max="3" width="20.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="20"/>
     <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="101" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="85"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -3141,10 +3893,10 @@
       <c r="E3" s="31">
         <v>44567</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="109">
         <v>500000</v>
       </c>
-      <c r="G3" s="101">
+      <c r="G3" s="126">
         <v>44566</v>
       </c>
     </row>
@@ -3164,8 +3916,8 @@
       <c r="E4" s="31">
         <v>44567</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="103"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="127"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -3183,10 +3935,10 @@
       <c r="E5" s="31">
         <v>44572</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="109">
         <v>500000</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="126">
         <v>44573</v>
       </c>
     </row>
@@ -3206,8 +3958,8 @@
       <c r="E6" s="31">
         <v>44573</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="127"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -3225,10 +3977,10 @@
       <c r="E7" s="31">
         <v>44580</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="109">
         <v>500000</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="126">
         <v>44580</v>
       </c>
     </row>
@@ -3248,8 +4000,8 @@
       <c r="E8" s="31">
         <v>44580</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="103"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="127"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -3267,10 +4019,10 @@
       <c r="E9" s="31">
         <v>44589</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="109">
         <v>500000</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="126">
         <v>44592</v>
       </c>
     </row>
@@ -3290,8 +4042,8 @@
       <c r="E10" s="31">
         <v>44589</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="103"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="127"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -3309,10 +4061,10 @@
       <c r="E11" s="32">
         <v>44595</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="109">
         <v>500000</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="126">
         <v>44599</v>
       </c>
     </row>
@@ -3332,8 +4084,8 @@
       <c r="E12" s="32">
         <v>44599</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="102"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="128"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -3351,8 +4103,8 @@
       <c r="E13" s="32">
         <v>44599</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="103"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="127"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
@@ -3370,10 +4122,10 @@
       <c r="E14" s="32">
         <v>44606</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="109">
         <v>500000</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="126">
         <v>44608</v>
       </c>
     </row>
@@ -3393,8 +4145,8 @@
       <c r="E15" s="32">
         <v>44607</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="102"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="128"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -3412,8 +4164,8 @@
       <c r="E16" s="32">
         <v>44607</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="103"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="127"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -3431,10 +4183,10 @@
       <c r="E17" s="32">
         <v>44615</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="109">
         <v>500000</v>
       </c>
-      <c r="G17" s="101">
+      <c r="G17" s="126">
         <v>44614</v>
       </c>
     </row>
@@ -3454,8 +4206,8 @@
       <c r="E18" s="32">
         <v>44615</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="103"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="127"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -3464,11 +4216,22 @@
       <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="17">
+        <v>250000</v>
+      </c>
+      <c r="E19" s="32">
+        <v>44622</v>
+      </c>
+      <c r="F19" s="109">
+        <f>D20+D19</f>
+        <v>500000</v>
+      </c>
+      <c r="G19" s="126">
+        <v>44622</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -3477,11 +4240,17 @@
       <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="17">
+        <v>250000</v>
+      </c>
+      <c r="E20" s="32">
+        <v>44622</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="127"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -3490,11 +4259,22 @@
       <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="32"/>
+      <c r="C21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="17">
+        <v>500000</v>
+      </c>
+      <c r="E21" s="32">
+        <v>44651</v>
+      </c>
+      <c r="F21" s="34">
+        <f>D21</f>
+        <v>500000</v>
+      </c>
+      <c r="G21" s="51">
+        <v>44630</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -3503,11 +4283,21 @@
       <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="17">
+        <v>200000</v>
+      </c>
+      <c r="E22" s="32">
+        <v>44639</v>
+      </c>
+      <c r="F22" s="109">
+        <v>500000</v>
+      </c>
+      <c r="G22" s="126">
+        <v>44643</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -3516,11 +4306,17 @@
       <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="32"/>
+      <c r="C23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="17">
+        <v>150000</v>
+      </c>
+      <c r="E23" s="32">
+        <v>44641</v>
+      </c>
+      <c r="F23" s="110"/>
+      <c r="G23" s="128"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -3529,11 +4325,17 @@
       <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="17">
+        <v>150000</v>
+      </c>
+      <c r="E24" s="32">
+        <v>44641</v>
+      </c>
+      <c r="F24" s="111"/>
+      <c r="G24" s="127"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -3542,11 +4344,22 @@
       <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="17">
+        <v>500000</v>
+      </c>
+      <c r="E25" s="32">
+        <v>44651</v>
+      </c>
+      <c r="F25" s="34">
+        <f>D25</f>
+        <v>500000</v>
+      </c>
+      <c r="G25" s="51">
+        <v>44648</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -3558,8 +4371,8 @@
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -3571,8 +4384,8 @@
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -3584,8 +4397,8 @@
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="32"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -3597,8 +4410,8 @@
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="32"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -3610,8 +4423,8 @@
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="32"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -3623,11 +4436,11 @@
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="32"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F3:F4"/>
@@ -3643,6 +4456,10 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="F14:F16"/>
@@ -3659,7 +4476,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,65 +4484,65 @@
     <col min="1" max="2" width="6.140625" style="19"/>
     <col min="3" max="3" width="19.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="6.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="101" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="85"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="44">
         <v>265500</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="46">
         <v>44562</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="42">
         <f>D3</f>
         <v>265500</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="45">
         <v>44581</v>
       </c>
     </row>
@@ -3736,44 +4553,46 @@
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="44">
         <v>265500</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="46">
         <v>44581</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="42">
         <f t="shared" ref="F4:F6" si="0">D4</f>
         <v>265500</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="51">
         <v>44614</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="54">
+      <c r="C5" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="48">
         <v>265500</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="52">
         <v>44613</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="42">
         <f t="shared" si="0"/>
         <v>265500</v>
       </c>
-      <c r="G5" s="57"/>
+      <c r="G5" s="51">
+        <v>44635</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -3782,14 +4601,22 @@
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="48">
+      <c r="C6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="48">
+        <v>265500</v>
+      </c>
+      <c r="E6" s="51">
+        <v>44638</v>
+      </c>
+      <c r="F6" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="57"/>
+        <v>265500</v>
+      </c>
+      <c r="G6" s="51">
+        <v>44662</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3811,7 +4638,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,54 +4655,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="90" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="70"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44">
+      <c r="C3" s="60"/>
+      <c r="D3" s="61">
         <v>306000</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="63">
         <v>44562</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="107">
         <f>D3+D4+D5</f>
         <v>508000</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="90">
         <v>44579</v>
       </c>
     </row>
@@ -3886,17 +4713,17 @@
       <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="61">
         <v>100000</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="63">
         <v>44567</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="107"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="91"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -3905,17 +4732,17 @@
       <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="61">
         <v>102000</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="63">
         <v>44574</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="70"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="118"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -3924,20 +4751,20 @@
       <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="61">
         <v>102000</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="63">
         <v>44579</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="107">
         <f>D7+D8+D9+D10+D6</f>
         <v>508000</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="112">
         <v>44607</v>
       </c>
     </row>
@@ -3948,17 +4775,17 @@
       <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="61">
         <v>100000</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="63">
         <v>44585</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="75"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="113"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -3967,17 +4794,17 @@
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="61">
         <v>102000</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="63">
         <v>44588</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="75"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -3986,17 +4813,17 @@
       <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="61">
         <v>102000</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="63">
         <v>44592</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="75"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -4005,17 +4832,17 @@
       <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="60" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="34">
         <v>102000</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="62">
         <v>44595</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="76"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="114"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -4024,20 +4851,20 @@
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="54">
+      <c r="C11" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="48">
         <v>102000</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="50">
         <v>44603</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="109">
         <f>D15+D14+D13+D12+D11</f>
         <v>510000</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="112">
         <v>44624</v>
       </c>
     </row>
@@ -4048,17 +4875,17 @@
       <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="54">
+      <c r="C12" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="48">
         <v>102000</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="50">
         <v>44609</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -4067,17 +4894,17 @@
       <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="54">
+      <c r="C13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="48">
         <v>102000</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="50">
         <v>44615</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="75"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
@@ -4087,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" s="34">
         <v>102000</v>
@@ -4095,8 +4922,8 @@
       <c r="E14" s="35">
         <v>44622</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="75"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -4106,7 +4933,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D15" s="34">
         <v>102000</v>
@@ -4114,8 +4941,8 @@
       <c r="E15" s="35">
         <v>44623</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="76"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="114"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -4124,20 +4951,20 @@
       <c r="B16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="48">
         <v>100000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="50">
         <v>44625</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="109">
         <f>D16+D17+D18+D19+D20</f>
         <v>502000</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="130">
         <v>44648</v>
       </c>
     </row>
@@ -4148,17 +4975,17 @@
       <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="48">
         <v>100000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="50">
         <v>44626</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="105"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="131"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -4167,17 +4994,17 @@
       <c r="B18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="48">
         <v>102000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="50">
         <v>44629</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="105"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="131"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -4186,17 +5013,17 @@
       <c r="B19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="48">
         <v>100000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="50">
         <v>44633</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="105"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="131"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -4205,17 +5032,17 @@
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="48">
         <v>100000</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="50">
         <v>44639</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="106"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="132"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -4375,44 +5202,47 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="133"/>
+    <col min="2" max="2" width="19.7109375" style="133" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="133" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="133" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="133"/>
+    <col min="6" max="6" width="10.7109375" style="133" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="90" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="118"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4421,13 +5251,13 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="50">
         <v>44592</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="48">
         <v>296842</v>
       </c>
       <c r="F3" s="3">
@@ -4441,13 +5271,13 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="50">
         <v>44600</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="48">
         <v>296841.98</v>
       </c>
       <c r="F4" s="3">
@@ -4461,10 +5291,18 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44629</v>
+      </c>
+      <c r="E5" s="2">
+        <v>296841.98</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44662</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4481,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F13" sqref="F13:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,161 +5333,150 @@
     <col min="4" max="4" width="9.140625" style="36"/>
     <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="108" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="109"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="61">
         <v>20000</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="63">
         <v>44546</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="107">
         <f>D9+D8+D7+D6+D5+D4+D3</f>
         <v>498500</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="90">
         <v>44602</v>
       </c>
-      <c r="H3" s="108" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="61">
         <v>52500</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="63">
         <v>44565</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="110"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="F4" s="124"/>
+      <c r="G4" s="91"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="61">
         <v>169500</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="63">
         <v>44565</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="110"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="124"/>
+      <c r="G5" s="91"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="61">
         <v>49500</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="63">
         <v>44579</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="110"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="F6" s="124"/>
+      <c r="G6" s="91"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="61">
         <v>140000</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="63">
         <v>44586</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="110"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="124"/>
+      <c r="G7" s="91"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="34">
@@ -4658,18 +5485,17 @@
       <c r="E8" s="35">
         <v>44596</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="110"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="F8" s="124"/>
+      <c r="G8" s="91"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="60" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="34">
@@ -4678,89 +5504,79 @@
       <c r="E9" s="35">
         <v>44599</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="109"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="108"/>
+      <c r="G9" s="118"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="60" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="34">
         <v>18000</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="63">
         <v>44586</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="61">
         <f>D10</f>
         <v>18000</v>
       </c>
-      <c r="G10" s="74">
-        <v>44589</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="G10" s="112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="34">
         <v>18000</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="63">
         <v>44589</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="61">
         <f t="shared" ref="F11:F12" si="0">D11</f>
         <v>18000</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="113"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="60" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="34">
         <v>18000</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="63">
         <v>44583</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="61">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="G12" s="114"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -4775,131 +5591,169 @@
       <c r="E13" s="35">
         <v>44610</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="F13" s="109">
+        <f>D18+D17+D16+D15+D14+D13</f>
+        <v>545000</v>
+      </c>
+      <c r="G13" s="112">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="C14" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="61">
         <v>37500</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="63">
         <v>44615</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>13</v>
+      <c r="F14" s="110"/>
+      <c r="G14" s="113"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>14</v>
+      <c r="C15" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="48">
+        <v>157500</v>
+      </c>
+      <c r="E15" s="50">
+        <v>44649</v>
+      </c>
+      <c r="F15" s="110"/>
+      <c r="G15" s="113"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="59">
+        <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>15</v>
+      <c r="C16" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="48">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="50">
+        <v>44649</v>
+      </c>
+      <c r="F16" s="110"/>
+      <c r="G16" s="113"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>18</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>16</v>
+      <c r="C17" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="48">
+        <v>50000</v>
+      </c>
+      <c r="E17" s="50">
+        <v>44649</v>
+      </c>
+      <c r="F17" s="110"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="59">
+        <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>17</v>
+      <c r="C18" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="48">
+        <v>140000</v>
+      </c>
+      <c r="E18" s="50">
+        <v>44649</v>
+      </c>
+      <c r="F18" s="111"/>
+      <c r="G18" s="114"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
+        <v>13</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="C19" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="48">
+        <v>18000</v>
+      </c>
+      <c r="E19" s="50">
+        <v>44642</v>
+      </c>
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="C20" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="48">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="50">
+        <v>44648</v>
+      </c>
       <c r="F20" s="34"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>19</v>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <v>15</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="C21" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="48">
+        <v>32500</v>
+      </c>
+      <c r="E21" s="50">
+        <v>44649</v>
+      </c>
       <c r="F21" s="34"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>20</v>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="59">
+        <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>16</v>
@@ -4909,11 +5763,10 @@
       <c r="E22" s="35"/>
       <c r="F22" s="34"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>21</v>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>16</v>
@@ -4923,11 +5776,10 @@
       <c r="E23" s="35"/>
       <c r="F23" s="34"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>22</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="59">
+        <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>16</v>
@@ -4937,11 +5789,10 @@
       <c r="E24" s="35"/>
       <c r="F24" s="34"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>23</v>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>16</v>
@@ -4951,11 +5802,10 @@
       <c r="E25" s="35"/>
       <c r="F25" s="34"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>24</v>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
+        <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>16</v>
@@ -4965,11 +5815,10 @@
       <c r="E26" s="35"/>
       <c r="F26" s="34"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>25</v>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>16</v>
@@ -4979,11 +5828,10 @@
       <c r="E27" s="35"/>
       <c r="F27" s="34"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>26</v>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
+        <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>16</v>
@@ -4993,11 +5841,10 @@
       <c r="E28" s="35"/>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
-        <v>27</v>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>16</v>
@@ -5007,11 +5854,10 @@
       <c r="E29" s="35"/>
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>28</v>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="59">
+        <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>16</v>
@@ -5021,11 +5867,10 @@
       <c r="E30" s="35"/>
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
-        <v>29</v>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>16</v>
@@ -5035,11 +5880,10 @@
       <c r="E31" s="35"/>
       <c r="F31" s="34"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>30</v>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="59">
+        <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>16</v>
@@ -5049,11 +5893,10 @@
       <c r="E32" s="35"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
-        <v>31</v>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>16</v>
@@ -5063,11 +5906,10 @@
       <c r="E33" s="35"/>
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>32</v>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="59">
+        <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>16</v>
@@ -5077,36 +5919,21 @@
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
-        <v>33</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="G13:G18"/>
     <mergeCell ref="F3:F9"/>
     <mergeCell ref="G3:G9"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H3:H9"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5130,42 +5957,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="90" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="118"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3" s="5">
         <v>44643</v>
@@ -5173,7 +6000,7 @@
       <c r="E3" s="6">
         <v>620200</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="57">
         <v>44643</v>
       </c>
     </row>
@@ -5182,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -5194,7 +6021,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>

--- a/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
+++ b/Fivetofive Hotel/FOURNISSEURS 2022 five.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DAA4F-7B87-4B5E-9C7F-DED1E6142BCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E256205-A93E-495C-9FA1-BD27CDCD43F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIME" sheetId="1" r:id="rId1"/>
-    <sheet name="MUKAMUGEMA" sheetId="3" r:id="rId2"/>
-    <sheet name="BISANGWA" sheetId="2" r:id="rId3"/>
+    <sheet name="BISANGWA" sheetId="2" r:id="rId2"/>
+    <sheet name="MUKAMUGEMA" sheetId="3" r:id="rId3"/>
     <sheet name="KABANDA" sheetId="4" r:id="rId4"/>
     <sheet name="RGL" sheetId="5" r:id="rId5"/>
     <sheet name="PARADIS DU COEUR" sheetId="6" r:id="rId6"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="327">
   <si>
     <r>
       <t>N</t>
@@ -946,6 +946,93 @@
   </si>
   <si>
     <t>SDC007003860/15005</t>
+  </si>
+  <si>
+    <t>SDC010014500/4888</t>
+  </si>
+  <si>
+    <t>SDC002800324/8303</t>
+  </si>
+  <si>
+    <t>SDC007063634/120</t>
+  </si>
+  <si>
+    <t>SDC007063634/122</t>
+  </si>
+  <si>
+    <t>SDC007063634/124</t>
+  </si>
+  <si>
+    <t>SDC010014500/4973</t>
+  </si>
+  <si>
+    <t>SDC002800324/8332</t>
+  </si>
+  <si>
+    <t>SDC010014500/5045</t>
+  </si>
+  <si>
+    <t>SDC002800324/8371</t>
+  </si>
+  <si>
+    <t>SDC010014500/5140</t>
+  </si>
+  <si>
+    <t>SDC002800324/8416</t>
+  </si>
+  <si>
+    <t>SDC002800324/8427</t>
+  </si>
+  <si>
+    <t>SDC010037435/143</t>
+  </si>
+  <si>
+    <t>SDC010037435/144</t>
+  </si>
+  <si>
+    <t>SDC010037435/149</t>
+  </si>
+  <si>
+    <t>SDC010037435/148</t>
+  </si>
+  <si>
+    <t>SDC007042825/1518</t>
+  </si>
+  <si>
+    <t>SDC007042825/1534</t>
+  </si>
+  <si>
+    <t>SDC007063634/114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SDC010014500/5234</t>
+  </si>
+  <si>
+    <t>SDC002800324/8439</t>
+  </si>
+  <si>
+    <t>SDC010014500/5314</t>
+  </si>
+  <si>
+    <t>SDC002800324/8467</t>
+  </si>
+  <si>
+    <t>SDC010014500/5400</t>
+  </si>
+  <si>
+    <t>SDC002800324/8492</t>
+  </si>
+  <si>
+    <t>SDC010014500/5462</t>
+  </si>
+  <si>
+    <t>SDC002800324/8519</t>
+  </si>
+  <si>
+    <t>SDC007063634/126</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1510,9 +1597,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1521,7 +1610,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1534,7 +1647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1940,9 +2053,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1955,9 +2065,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1972,9 +2079,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2026,12 +2130,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2039,16 +2137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2078,13 +2167,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2114,7 +2197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2132,7 +2215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2142,6 +2225,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,6 +2281,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2178,175 +2319,157 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2379,11 +2502,21 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2723,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F77" sqref="F76:H77"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,36 +2875,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="227" t="s">
+      <c r="B1" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="227" t="s">
+      <c r="C1" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="231" t="s">
+      <c r="D1" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="229" t="s">
+      <c r="E1" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="237" t="s">
+      <c r="G1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="226"/>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="238"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="234"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="143">
@@ -2813,11 +2946,11 @@
       <c r="E4" s="43">
         <v>283300</v>
       </c>
-      <c r="F4" s="221">
+      <c r="F4" s="227">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>1544720</v>
       </c>
-      <c r="G4" s="223">
+      <c r="G4" s="229">
         <v>44588</v>
       </c>
     </row>
@@ -2837,8 +2970,8 @@
       <c r="E5" s="11">
         <v>119320</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="224"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="230"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
@@ -2856,8 +2989,8 @@
       <c r="E6" s="11">
         <v>307700</v>
       </c>
-      <c r="F6" s="222"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="141">
@@ -2875,8 +3008,8 @@
       <c r="E7" s="11">
         <v>165620</v>
       </c>
-      <c r="F7" s="222"/>
-      <c r="G7" s="224"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="230"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
@@ -2894,8 +3027,8 @@
       <c r="E8" s="11">
         <v>425200</v>
       </c>
-      <c r="F8" s="222"/>
-      <c r="G8" s="224"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="230"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="141">
@@ -2913,8 +3046,8 @@
       <c r="E9" s="11">
         <v>19000</v>
       </c>
-      <c r="F9" s="222"/>
-      <c r="G9" s="224"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="230"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45">
@@ -2932,8 +3065,8 @@
       <c r="E10" s="47">
         <v>224580</v>
       </c>
-      <c r="F10" s="235"/>
-      <c r="G10" s="236"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
@@ -2951,11 +3084,11 @@
       <c r="E11" s="43">
         <v>436940</v>
       </c>
-      <c r="F11" s="221">
+      <c r="F11" s="227">
         <f>E11+E12+E13+E14+E15+E16+E17+E18</f>
         <v>1972900</v>
       </c>
-      <c r="G11" s="223">
+      <c r="G11" s="229">
         <v>44617</v>
       </c>
     </row>
@@ -2975,8 +3108,8 @@
       <c r="E12" s="11">
         <v>147140</v>
       </c>
-      <c r="F12" s="222"/>
-      <c r="G12" s="224"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="230"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="141">
@@ -2994,8 +3127,8 @@
       <c r="E13" s="11">
         <v>371300</v>
       </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="224"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="230"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
@@ -3013,8 +3146,8 @@
       <c r="E14" s="11">
         <v>191120</v>
       </c>
-      <c r="F14" s="222"/>
-      <c r="G14" s="224"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="230"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="141">
@@ -3032,8 +3165,8 @@
       <c r="E15" s="11">
         <v>109280</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="224"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="230"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
@@ -3051,8 +3184,8 @@
       <c r="E16" s="11">
         <v>335120</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="224"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="230"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="141">
@@ -3070,8 +3203,8 @@
       <c r="E17" s="11">
         <v>227360</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="224"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="230"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45">
@@ -3089,8 +3222,8 @@
       <c r="E18" s="47">
         <v>154640</v>
       </c>
-      <c r="F18" s="235"/>
-      <c r="G18" s="236"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="232"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
@@ -3108,11 +3241,11 @@
       <c r="E19" s="51">
         <v>170400</v>
       </c>
-      <c r="F19" s="221">
+      <c r="F19" s="227">
         <f>E19+E20+E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31</f>
         <v>3594030</v>
       </c>
-      <c r="G19" s="223">
+      <c r="G19" s="229">
         <v>44655</v>
       </c>
     </row>
@@ -3132,8 +3265,8 @@
       <c r="E20" s="11">
         <v>171280</v>
       </c>
-      <c r="F20" s="222"/>
-      <c r="G20" s="224"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="230"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="141">
@@ -3151,8 +3284,8 @@
       <c r="E21" s="11">
         <v>630340</v>
       </c>
-      <c r="F21" s="222"/>
-      <c r="G21" s="224"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="230"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
@@ -3170,8 +3303,8 @@
       <c r="E22" s="11">
         <v>451400</v>
       </c>
-      <c r="F22" s="222"/>
-      <c r="G22" s="224"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="230"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="141">
@@ -3189,8 +3322,8 @@
       <c r="E23" s="11">
         <v>183640</v>
       </c>
-      <c r="F23" s="222"/>
-      <c r="G23" s="224"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="230"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
@@ -3208,8 +3341,8 @@
       <c r="E24" s="11">
         <v>198780</v>
       </c>
-      <c r="F24" s="222"/>
-      <c r="G24" s="224"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="230"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="141">
@@ -3227,8 +3360,8 @@
       <c r="E25" s="11">
         <v>327340</v>
       </c>
-      <c r="F25" s="222"/>
-      <c r="G25" s="224"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="230"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="44">
@@ -3246,8 +3379,8 @@
       <c r="E26" s="11">
         <v>218000</v>
       </c>
-      <c r="F26" s="222"/>
-      <c r="G26" s="224"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="230"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="141">
@@ -3265,8 +3398,8 @@
       <c r="E27" s="11">
         <v>205310</v>
       </c>
-      <c r="F27" s="222"/>
-      <c r="G27" s="224"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="230"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
@@ -3284,8 +3417,8 @@
       <c r="E28" s="11">
         <v>319340</v>
       </c>
-      <c r="F28" s="222"/>
-      <c r="G28" s="224"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="230"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="141">
@@ -3303,8 +3436,8 @@
       <c r="E29" s="11">
         <v>384100</v>
       </c>
-      <c r="F29" s="222"/>
-      <c r="G29" s="224"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="230"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
@@ -3322,8 +3455,8 @@
       <c r="E30" s="11">
         <v>296100</v>
       </c>
-      <c r="F30" s="222"/>
-      <c r="G30" s="224"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="230"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="144">
@@ -3341,8 +3474,8 @@
       <c r="E31" s="47">
         <v>38000</v>
       </c>
-      <c r="F31" s="235"/>
-      <c r="G31" s="224"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="230"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
@@ -3360,11 +3493,11 @@
       <c r="E32" s="43">
         <v>193400</v>
       </c>
-      <c r="F32" s="221">
+      <c r="F32" s="227">
         <f>E46+E45+E44+E43+E42+E41+E40+E39+E38+E37+E36+E35+E34+E33+E32</f>
         <v>2812700</v>
       </c>
-      <c r="G32" s="223">
+      <c r="G32" s="229">
         <v>44694</v>
       </c>
     </row>
@@ -3384,8 +3517,8 @@
       <c r="E33" s="11">
         <v>73000</v>
       </c>
-      <c r="F33" s="222"/>
-      <c r="G33" s="224"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="230"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
@@ -3403,8 +3536,8 @@
       <c r="E34" s="11">
         <v>346250</v>
       </c>
-      <c r="F34" s="222"/>
-      <c r="G34" s="224"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="230"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="141">
@@ -3422,8 +3555,8 @@
       <c r="E35" s="11">
         <v>96000</v>
       </c>
-      <c r="F35" s="222"/>
-      <c r="G35" s="224"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="230"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="44">
@@ -3441,8 +3574,8 @@
       <c r="E36" s="11">
         <v>35000</v>
       </c>
-      <c r="F36" s="222"/>
-      <c r="G36" s="224"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="230"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="141">
@@ -3460,8 +3593,8 @@
       <c r="E37" s="11">
         <v>9000</v>
       </c>
-      <c r="F37" s="222"/>
-      <c r="G37" s="224"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="230"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="44">
@@ -3479,8 +3612,8 @@
       <c r="E38" s="11">
         <v>331500</v>
       </c>
-      <c r="F38" s="222"/>
-      <c r="G38" s="224"/>
+      <c r="F38" s="228"/>
+      <c r="G38" s="230"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="141">
@@ -3498,8 +3631,8 @@
       <c r="E39" s="11">
         <v>9600</v>
       </c>
-      <c r="F39" s="222"/>
-      <c r="G39" s="224"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="230"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="44">
@@ -3517,8 +3650,8 @@
       <c r="E40" s="11">
         <v>108000</v>
       </c>
-      <c r="F40" s="222"/>
-      <c r="G40" s="224"/>
+      <c r="F40" s="228"/>
+      <c r="G40" s="230"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="141">
@@ -3536,8 +3669,8 @@
       <c r="E41" s="11">
         <v>10400</v>
       </c>
-      <c r="F41" s="222"/>
-      <c r="G41" s="224"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="230"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -3555,8 +3688,8 @@
       <c r="E42" s="11">
         <v>180000</v>
       </c>
-      <c r="F42" s="222"/>
-      <c r="G42" s="224"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="230"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="141">
@@ -3574,8 +3707,8 @@
       <c r="E43" s="11">
         <v>364050</v>
       </c>
-      <c r="F43" s="222"/>
-      <c r="G43" s="224"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="230"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
@@ -3593,8 +3726,8 @@
       <c r="E44" s="11">
         <v>345100</v>
       </c>
-      <c r="F44" s="222"/>
-      <c r="G44" s="224"/>
+      <c r="F44" s="228"/>
+      <c r="G44" s="230"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="141">
@@ -3612,8 +3745,8 @@
       <c r="E45" s="11">
         <v>408400</v>
       </c>
-      <c r="F45" s="222"/>
-      <c r="G45" s="224"/>
+      <c r="F45" s="228"/>
+      <c r="G45" s="230"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
@@ -3631,8 +3764,8 @@
       <c r="E46" s="47">
         <v>303000</v>
       </c>
-      <c r="F46" s="235"/>
-      <c r="G46" s="236"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="232"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="56">
@@ -3650,11 +3783,13 @@
       <c r="E47" s="106">
         <v>129000</v>
       </c>
-      <c r="F47" s="221">
+      <c r="F47" s="227">
         <f>E47+E48+E49+E50+E51+E52+E53+E54+E55+E56+E57+E58+E59+E60</f>
         <v>3063535</v>
       </c>
-      <c r="G47" s="223"/>
+      <c r="G47" s="229">
+        <v>44725</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="44">
@@ -3672,10 +3807,10 @@
       <c r="E48" s="102">
         <v>294100</v>
       </c>
-      <c r="F48" s="222"/>
-      <c r="G48" s="224"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="228"/>
+      <c r="G48" s="230"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="141">
         <v>47</v>
       </c>
@@ -3691,10 +3826,10 @@
       <c r="E49" s="102">
         <v>5200</v>
       </c>
-      <c r="F49" s="222"/>
-      <c r="G49" s="224"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="228"/>
+      <c r="G49" s="230"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
         <v>48</v>
       </c>
@@ -3710,10 +3845,10 @@
       <c r="E50" s="102">
         <v>126485</v>
       </c>
-      <c r="F50" s="222"/>
-      <c r="G50" s="224"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="228"/>
+      <c r="G50" s="230"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="141">
         <v>49</v>
       </c>
@@ -3729,10 +3864,10 @@
       <c r="E51" s="102">
         <v>182700</v>
       </c>
-      <c r="F51" s="222"/>
-      <c r="G51" s="224"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="228"/>
+      <c r="G51" s="230"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="44">
         <v>50</v>
       </c>
@@ -3748,10 +3883,10 @@
       <c r="E52" s="102">
         <v>71200</v>
       </c>
-      <c r="F52" s="222"/>
-      <c r="G52" s="224"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="228"/>
+      <c r="G52" s="230"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="44">
         <v>51</v>
       </c>
@@ -3767,10 +3902,10 @@
       <c r="E53" s="102">
         <v>130600</v>
       </c>
-      <c r="F53" s="222"/>
-      <c r="G53" s="224"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="228"/>
+      <c r="G53" s="230"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="141">
         <v>52</v>
       </c>
@@ -3786,17 +3921,17 @@
       <c r="E54" s="134">
         <v>80300</v>
       </c>
-      <c r="F54" s="222"/>
-      <c r="G54" s="224"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="228"/>
+      <c r="G54" s="230"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="44">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="183" t="s">
+      <c r="C55" s="178" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="80">
@@ -3805,105 +3940,105 @@
       <c r="E55" s="134">
         <v>43600</v>
       </c>
-      <c r="F55" s="222"/>
-      <c r="G55" s="224"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="228"/>
+      <c r="G55" s="230"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="44">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="177" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="181" t="s">
+      <c r="D56" s="176" t="s">
         <v>233</v>
       </c>
       <c r="E56" s="102">
         <v>196000</v>
       </c>
-      <c r="F56" s="222"/>
-      <c r="G56" s="224"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="228"/>
+      <c r="G56" s="230"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="141">
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="182" t="s">
+      <c r="C57" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="181" t="s">
+      <c r="D57" s="176" t="s">
         <v>235</v>
       </c>
       <c r="E57" s="102">
         <v>480300</v>
       </c>
-      <c r="F57" s="222"/>
-      <c r="G57" s="224"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" s="228"/>
+      <c r="G57" s="230"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="44">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="182" t="s">
+      <c r="C58" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="D58" s="181" t="s">
+      <c r="D58" s="176" t="s">
         <v>237</v>
       </c>
       <c r="E58" s="102">
         <v>703510</v>
       </c>
-      <c r="F58" s="222"/>
-      <c r="G58" s="224"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="228"/>
+      <c r="G58" s="230"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="44">
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="182" t="s">
+      <c r="C59" s="177" t="s">
         <v>238</v>
       </c>
-      <c r="D59" s="181" t="s">
+      <c r="D59" s="176" t="s">
         <v>239</v>
       </c>
       <c r="E59" s="102">
         <v>363260</v>
       </c>
-      <c r="F59" s="222"/>
-      <c r="G59" s="224"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="228"/>
+      <c r="G59" s="230"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="141">
         <v>58</v>
       </c>
       <c r="B60" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="182" t="s">
+      <c r="C60" s="177" t="s">
         <v>240</v>
       </c>
-      <c r="D60" s="220" t="s">
+      <c r="D60" s="210" t="s">
         <v>239</v>
       </c>
       <c r="E60" s="126">
         <v>257280</v>
       </c>
-      <c r="F60" s="222"/>
-      <c r="G60" s="224"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="228"/>
+      <c r="G60" s="230"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="56">
         <v>59</v>
       </c>
@@ -3919,14 +4054,14 @@
       <c r="E61" s="133">
         <v>456620</v>
       </c>
-      <c r="F61" s="221">
+      <c r="F61" s="227">
         <v>1796820</v>
       </c>
-      <c r="G61" s="223">
+      <c r="G61" s="229">
         <v>44746</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="44">
         <v>60</v>
       </c>
@@ -3942,10 +4077,10 @@
       <c r="E62" s="102">
         <v>116000</v>
       </c>
-      <c r="F62" s="222"/>
-      <c r="G62" s="224"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="228"/>
+      <c r="G62" s="230"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="141">
         <v>61</v>
       </c>
@@ -3961,10 +4096,10 @@
       <c r="E63" s="102">
         <v>229800</v>
       </c>
-      <c r="F63" s="222"/>
-      <c r="G63" s="224"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="228"/>
+      <c r="G63" s="230"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="44">
         <v>62</v>
       </c>
@@ -3980,8 +4115,11 @@
       <c r="E64" s="134">
         <v>352550</v>
       </c>
-      <c r="F64" s="222"/>
-      <c r="G64" s="224"/>
+      <c r="F64" s="228"/>
+      <c r="G64" s="230"/>
+      <c r="I64" s="8" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="141">
@@ -3999,8 +4137,8 @@
       <c r="E65" s="102">
         <v>167500</v>
       </c>
-      <c r="F65" s="222"/>
-      <c r="G65" s="224"/>
+      <c r="F65" s="228"/>
+      <c r="G65" s="230"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="44">
@@ -4018,8 +4156,8 @@
       <c r="E66" s="102">
         <v>24300</v>
       </c>
-      <c r="F66" s="222"/>
-      <c r="G66" s="224"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="230"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="141">
@@ -4037,8 +4175,8 @@
       <c r="E67" s="102">
         <v>79000</v>
       </c>
-      <c r="F67" s="222"/>
-      <c r="G67" s="224"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="230"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="44">
@@ -4056,8 +4194,8 @@
       <c r="E68" s="134">
         <v>17550</v>
       </c>
-      <c r="F68" s="222"/>
-      <c r="G68" s="224"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="230"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="141">
@@ -4075,8 +4213,8 @@
       <c r="E69" s="102">
         <v>29000</v>
       </c>
-      <c r="F69" s="222"/>
-      <c r="G69" s="224"/>
+      <c r="F69" s="228"/>
+      <c r="G69" s="230"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
@@ -4094,147 +4232,206 @@
       <c r="E70" s="103">
         <v>324500</v>
       </c>
-      <c r="F70" s="235"/>
-      <c r="G70" s="236"/>
+      <c r="F70" s="231"/>
+      <c r="G70" s="232"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="201">
+      <c r="A71" s="41">
         <v>69</v>
       </c>
-      <c r="B71" s="300" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="300" t="s">
+      <c r="B71" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="301">
+      <c r="D71" s="104">
         <v>44743</v>
       </c>
-      <c r="E71" s="136">
+      <c r="E71" s="43">
         <v>621450</v>
       </c>
-      <c r="F71" s="199"/>
-      <c r="G71" s="156"/>
+      <c r="F71" s="305">
+        <f>E71+E72+E73+E74+E75+E76</f>
+        <v>1824920</v>
+      </c>
+      <c r="G71" s="307">
+        <v>44770</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="200">
+      <c r="A72" s="44">
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
+      <c r="C72" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="80">
+        <v>44746</v>
+      </c>
+      <c r="E72" s="135">
+        <v>449100</v>
+      </c>
+      <c r="F72" s="291"/>
+      <c r="G72" s="308"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="200">
+      <c r="A73" s="44">
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
+      <c r="C73" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" s="80">
+        <v>44749</v>
+      </c>
+      <c r="E73" s="135">
+        <v>273850</v>
+      </c>
+      <c r="F73" s="291"/>
+      <c r="G73" s="308"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="200">
+      <c r="A74" s="44">
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
+      <c r="C74" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="D74" s="218">
+        <v>44753</v>
+      </c>
+      <c r="E74" s="135">
+        <v>140460</v>
+      </c>
+      <c r="F74" s="291"/>
+      <c r="G74" s="308"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="200">
+      <c r="A75" s="123">
         <v>73</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="200">
+      <c r="B75" s="216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="188" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="189">
+        <v>44756</v>
+      </c>
+      <c r="E75" s="190">
+        <v>23600</v>
+      </c>
+      <c r="F75" s="291"/>
+      <c r="G75" s="308"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45">
         <v>74</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
+      <c r="B76" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="127" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="128">
+        <v>44757</v>
+      </c>
+      <c r="E76" s="304">
+        <v>316460</v>
+      </c>
+      <c r="F76" s="306"/>
+      <c r="G76" s="309"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="200">
+      <c r="A77" s="223">
         <v>75</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
+      <c r="B77" s="216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="188" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="189">
+        <v>44760</v>
+      </c>
+      <c r="E77" s="190">
+        <v>240400</v>
+      </c>
+      <c r="F77" s="222"/>
+      <c r="G77" s="154"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="200">
+      <c r="A78" s="191">
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="11"/>
+      <c r="C78" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" s="80">
+        <v>44763</v>
+      </c>
+      <c r="E78" s="135">
+        <v>348605</v>
+      </c>
       <c r="F78" s="21"/>
       <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="200">
+      <c r="A79" s="191">
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="11"/>
+      <c r="C79" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="80">
+        <v>44767</v>
+      </c>
+      <c r="E79" s="135">
+        <v>361500</v>
+      </c>
       <c r="F79" s="21"/>
       <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="200">
+      <c r="A80" s="191">
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="11"/>
+      <c r="C80" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="D80" s="80">
+        <v>44770</v>
+      </c>
+      <c r="E80" s="135">
+        <v>284016</v>
+      </c>
       <c r="F80" s="21"/>
       <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="200">
+      <c r="A81" s="191">
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -4247,7 +4444,7 @@
       <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="200">
+      <c r="A82" s="191">
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4260,7 +4457,7 @@
       <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="200">
+      <c r="A83" s="191">
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
@@ -4273,7 +4470,7 @@
       <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="200">
+      <c r="A84" s="191">
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -4286,7 +4483,7 @@
       <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="200">
+      <c r="A85" s="191">
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
@@ -4299,7 +4496,7 @@
       <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="200">
+      <c r="A86" s="191">
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -4312,7 +4509,7 @@
       <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="200">
+      <c r="A87" s="191">
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -4325,7 +4522,7 @@
       <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="200">
+      <c r="A88" s="191">
         <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -4338,7 +4535,7 @@
       <c r="G88" s="22"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="200">
+      <c r="A89" s="191">
         <v>87</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -4351,7 +4548,7 @@
       <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="200">
+      <c r="A90" s="191">
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -4364,7 +4561,7 @@
       <c r="G90" s="22"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="200">
+      <c r="A91" s="191">
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
@@ -4377,7 +4574,7 @@
       <c r="G91" s="22"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="200">
+      <c r="A92" s="191">
         <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -4390,7 +4587,7 @@
       <c r="G92" s="22"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="200">
+      <c r="A93" s="191">
         <v>91</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -4403,7 +4600,7 @@
       <c r="G93" s="22"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="200">
+      <c r="A94" s="191">
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -4416,7 +4613,7 @@
       <c r="G94" s="22"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="200">
+      <c r="A95" s="191">
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
@@ -4429,7 +4626,7 @@
       <c r="G95" s="22"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="200">
+      <c r="A96" s="191">
         <v>94</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -4442,7 +4639,7 @@
       <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="200">
+      <c r="A97" s="191">
         <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -4455,7 +4652,7 @@
       <c r="G97" s="22"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="200">
+      <c r="A98" s="191">
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -4468,7 +4665,7 @@
       <c r="G98" s="22"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="200">
+      <c r="A99" s="191">
         <v>97</v>
       </c>
       <c r="B99" s="10" t="s">
@@ -4481,7 +4678,7 @@
       <c r="G99" s="22"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="200">
+      <c r="A100" s="191">
         <v>98</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -4494,7 +4691,7 @@
       <c r="G100" s="22"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="200">
+      <c r="A101" s="191">
         <v>99</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -4507,7 +4704,7 @@
       <c r="G101" s="22"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="200">
+      <c r="A102" s="191">
         <v>100</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -4520,7 +4717,7 @@
       <c r="G102" s="22"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="200">
+      <c r="A103" s="191">
         <v>101</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -4533,7 +4730,7 @@
       <c r="G103" s="22"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="200">
+      <c r="A104" s="191">
         <v>102</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -4546,7 +4743,7 @@
       <c r="G104" s="22"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="200">
+      <c r="A105" s="191">
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
@@ -4559,7 +4756,7 @@
       <c r="G105" s="22"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="200">
+      <c r="A106" s="191">
         <v>104</v>
       </c>
       <c r="B106" s="10" t="s">
@@ -4572,7 +4769,7 @@
       <c r="G106" s="22"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="200">
+      <c r="A107" s="191">
         <v>105</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -4585,7 +4782,7 @@
       <c r="G107" s="22"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="200">
+      <c r="A108" s="191">
         <v>106</v>
       </c>
       <c r="B108" s="10" t="s">
@@ -4598,12 +4795,11 @@
       <c r="G108" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="G4:G10"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
+  <mergeCells count="21">
     <mergeCell ref="F61:F70"/>
     <mergeCell ref="G61:G70"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="G71:G76"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4618,6 +4814,9 @@
     <mergeCell ref="G19:G31"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4641,32 +4840,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="299"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4742,32 +4941,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="299"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4846,32 +5045,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="299"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4950,36 +5149,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="249" t="s">
+      <c r="G1" s="264" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="250"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="280"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -5000,7 +5199,7 @@
       <c r="F3" s="116">
         <v>44691</v>
       </c>
-      <c r="G3" s="181" t="s">
+      <c r="G3" s="176" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5015,7 +5214,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="181"/>
+      <c r="G4" s="176"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -5028,7 +5227,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="181"/>
+      <c r="G5" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5061,36 +5260,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="249" t="s">
+      <c r="G1" s="264" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="250"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="280"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -5111,7 +5310,7 @@
       <c r="F3" s="116">
         <v>44726</v>
       </c>
-      <c r="G3" s="181" t="s">
+      <c r="G3" s="176" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5126,7 +5325,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="181"/>
+      <c r="G4" s="176"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -5139,7 +5338,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="181"/>
+      <c r="G5" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5156,18 +5355,1609 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="6" max="6" width="10.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="13"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="263" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="262" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="251" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="264" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="236"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="265"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="82">
+        <v>44562</v>
+      </c>
+      <c r="E3" s="91">
+        <v>2558000</v>
+      </c>
+      <c r="F3" s="92">
+        <f>E3</f>
+        <v>2558000</v>
+      </c>
+      <c r="G3" s="157">
+        <v>44565</v>
+      </c>
+      <c r="H3" s="158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="84">
+        <v>44564</v>
+      </c>
+      <c r="E4" s="88">
+        <v>444500</v>
+      </c>
+      <c r="F4" s="258">
+        <f>E4+E5+E6+E7+E8+E9+E10</f>
+        <v>2837300</v>
+      </c>
+      <c r="G4" s="243">
+        <v>44587</v>
+      </c>
+      <c r="H4" s="266" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="85">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="54">
+        <v>44567</v>
+      </c>
+      <c r="E5" s="89">
+        <v>345300</v>
+      </c>
+      <c r="F5" s="259"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="267"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="54">
+        <v>44571</v>
+      </c>
+      <c r="E6" s="89">
+        <v>489200</v>
+      </c>
+      <c r="F6" s="259"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="267"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="85">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="54">
+        <v>44574</v>
+      </c>
+      <c r="E7" s="89">
+        <v>389700</v>
+      </c>
+      <c r="F7" s="259"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="267"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="54">
+        <v>44578</v>
+      </c>
+      <c r="E8" s="89">
+        <v>438700</v>
+      </c>
+      <c r="F8" s="259"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="267"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="85">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="54">
+        <v>44581</v>
+      </c>
+      <c r="E9" s="89">
+        <v>272700</v>
+      </c>
+      <c r="F9" s="259"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="267"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="87">
+        <v>44585</v>
+      </c>
+      <c r="E10" s="90">
+        <v>457200</v>
+      </c>
+      <c r="F10" s="260"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="268"/>
+    </row>
+    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>9</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="95">
+        <v>44594</v>
+      </c>
+      <c r="E11" s="99">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="253">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="269"/>
+    </row>
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="98">
+        <v>44594</v>
+      </c>
+      <c r="E12" s="100">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="254"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="270"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
+        <v>11</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="84">
+        <v>44588</v>
+      </c>
+      <c r="E13" s="88">
+        <v>513700</v>
+      </c>
+      <c r="F13" s="253">
+        <f>E13+E14+E15+E16+E17+E18</f>
+        <v>2725700</v>
+      </c>
+      <c r="G13" s="243">
+        <v>44608</v>
+      </c>
+      <c r="H13" s="266" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="54">
+        <v>44592</v>
+      </c>
+      <c r="E14" s="89">
+        <v>433400</v>
+      </c>
+      <c r="F14" s="257"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="267"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="85">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44595</v>
+      </c>
+      <c r="E15" s="102">
+        <v>635100</v>
+      </c>
+      <c r="F15" s="257"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="267"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44599</v>
+      </c>
+      <c r="E16" s="102">
+        <v>419000</v>
+      </c>
+      <c r="F16" s="257"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="267"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="85">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44603</v>
+      </c>
+      <c r="E17" s="102">
+        <v>234600</v>
+      </c>
+      <c r="F17" s="257"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="267"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45">
+        <v>16</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="101">
+        <v>44606</v>
+      </c>
+      <c r="E18" s="103">
+        <v>489900</v>
+      </c>
+      <c r="F18" s="254"/>
+      <c r="G18" s="245"/>
+      <c r="H18" s="268"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
+        <v>17</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="104">
+        <v>44609</v>
+      </c>
+      <c r="E19" s="106">
+        <v>474700</v>
+      </c>
+      <c r="F19" s="227">
+        <f>E25+E24+E23+E22+E21+E20+E19</f>
+        <v>3317100</v>
+      </c>
+      <c r="G19" s="243">
+        <v>44630</v>
+      </c>
+      <c r="H19" s="266" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44613</v>
+      </c>
+      <c r="E20" s="102">
+        <v>453900</v>
+      </c>
+      <c r="F20" s="228"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="267"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="85">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="12">
+        <v>44616</v>
+      </c>
+      <c r="E21" s="102">
+        <v>292700</v>
+      </c>
+      <c r="F21" s="228"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="267"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="12">
+        <v>44620</v>
+      </c>
+      <c r="E22" s="102">
+        <v>636400</v>
+      </c>
+      <c r="F22" s="228"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="267"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="85">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="12">
+        <v>44622</v>
+      </c>
+      <c r="E23" s="102">
+        <v>153300</v>
+      </c>
+      <c r="F23" s="228"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="267"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44623</v>
+      </c>
+      <c r="E24" s="102">
+        <v>634400</v>
+      </c>
+      <c r="F24" s="228"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="267"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="105">
+        <v>23</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="101">
+        <v>44627</v>
+      </c>
+      <c r="E25" s="90">
+        <v>671700</v>
+      </c>
+      <c r="F25" s="231"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="268"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
+        <v>24</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="78">
+        <v>44630</v>
+      </c>
+      <c r="E26" s="107">
+        <v>445200</v>
+      </c>
+      <c r="F26" s="227">
+        <f>E31+E30+E29+E28+E27+E26</f>
+        <v>3139000</v>
+      </c>
+      <c r="G26" s="246">
+        <v>44652</v>
+      </c>
+      <c r="H26" s="266" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="85">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44634</v>
+      </c>
+      <c r="E27" s="108">
+        <v>574900</v>
+      </c>
+      <c r="F27" s="228"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="267"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="12">
+        <v>44637</v>
+      </c>
+      <c r="E28" s="102">
+        <v>502300</v>
+      </c>
+      <c r="F28" s="228"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="267"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="85">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="12">
+        <v>44641</v>
+      </c>
+      <c r="E29" s="102">
+        <v>605600</v>
+      </c>
+      <c r="F29" s="228"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="267"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="12">
+        <v>44644</v>
+      </c>
+      <c r="E30" s="102">
+        <v>264000</v>
+      </c>
+      <c r="F30" s="228"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="267"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="124">
+        <v>29</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="125">
+        <v>44648</v>
+      </c>
+      <c r="E31" s="126">
+        <v>747000</v>
+      </c>
+      <c r="F31" s="228"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="268"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="41">
+        <v>30</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="78">
+        <v>44651</v>
+      </c>
+      <c r="E32" s="107">
+        <v>577500</v>
+      </c>
+      <c r="F32" s="227">
+        <f>E39+E38+E37+E36+E35+E34+E33+E32</f>
+        <v>3369400</v>
+      </c>
+      <c r="G32" s="248">
+        <v>44677</v>
+      </c>
+      <c r="H32" s="266" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="85">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44651</v>
+      </c>
+      <c r="E33" s="108">
+        <v>4800</v>
+      </c>
+      <c r="F33" s="228"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="267"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="44">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="12">
+        <v>44655</v>
+      </c>
+      <c r="E34" s="102">
+        <v>534300</v>
+      </c>
+      <c r="F34" s="228"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="267"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="85">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="12">
+        <v>44659</v>
+      </c>
+      <c r="E35" s="102">
+        <v>462400</v>
+      </c>
+      <c r="F35" s="228"/>
+      <c r="G35" s="249"/>
+      <c r="H35" s="267"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="123">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="12">
+        <v>44662</v>
+      </c>
+      <c r="E36" s="102">
+        <v>306600</v>
+      </c>
+      <c r="F36" s="228"/>
+      <c r="G36" s="249"/>
+      <c r="H36" s="267"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="85">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44665</v>
+      </c>
+      <c r="E37" s="102">
+        <v>359000</v>
+      </c>
+      <c r="F37" s="228"/>
+      <c r="G37" s="249"/>
+      <c r="H37" s="267"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="44">
+        <v>36</v>
+      </c>
+      <c r="B38" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="114">
+        <v>44669</v>
+      </c>
+      <c r="E38" s="115">
+        <v>467400</v>
+      </c>
+      <c r="F38" s="228"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="267"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="105">
+        <v>37</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="128">
+        <v>44672</v>
+      </c>
+      <c r="E39" s="129">
+        <v>657400</v>
+      </c>
+      <c r="F39" s="228"/>
+      <c r="G39" s="250"/>
+      <c r="H39" s="268"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="41">
+        <v>38</v>
+      </c>
+      <c r="B40" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="132">
+        <v>44676</v>
+      </c>
+      <c r="E40" s="133">
+        <v>572400</v>
+      </c>
+      <c r="F40" s="227">
+        <f>E45+E44+E43+E42+E41+E40</f>
+        <v>3335600</v>
+      </c>
+      <c r="G40" s="277">
+        <v>44694</v>
+      </c>
+      <c r="H40" s="266" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="85">
+        <v>39</v>
+      </c>
+      <c r="B41" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="80">
+        <v>44679</v>
+      </c>
+      <c r="E41" s="134">
+        <v>433900</v>
+      </c>
+      <c r="F41" s="228"/>
+      <c r="G41" s="278"/>
+      <c r="H41" s="267"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
+        <v>40</v>
+      </c>
+      <c r="B42" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="12">
+        <v>44683</v>
+      </c>
+      <c r="E42" s="102">
+        <v>645500</v>
+      </c>
+      <c r="F42" s="228"/>
+      <c r="G42" s="278"/>
+      <c r="H42" s="267"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="124">
+        <v>41</v>
+      </c>
+      <c r="B43" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="122" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="125">
+        <v>44686</v>
+      </c>
+      <c r="E43" s="126">
+        <v>597000</v>
+      </c>
+      <c r="F43" s="228"/>
+      <c r="G43" s="278"/>
+      <c r="H43" s="267"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="80">
+        <v>44690</v>
+      </c>
+      <c r="E44" s="134">
+        <v>634900</v>
+      </c>
+      <c r="F44" s="228"/>
+      <c r="G44" s="278"/>
+      <c r="H44" s="267"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="105">
+        <v>43</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="128">
+        <v>44693</v>
+      </c>
+      <c r="E45" s="129">
+        <v>451900</v>
+      </c>
+      <c r="F45" s="231"/>
+      <c r="G45" s="279"/>
+      <c r="H45" s="268"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="41">
+        <v>44</v>
+      </c>
+      <c r="B46" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="104">
+        <v>44697</v>
+      </c>
+      <c r="E46" s="106">
+        <v>652800</v>
+      </c>
+      <c r="F46" s="227">
+        <f>E46+E47+E48+E49+E50+E51+E52</f>
+        <v>3918500</v>
+      </c>
+      <c r="G46" s="271">
+        <v>44719</v>
+      </c>
+      <c r="H46" s="274" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="124">
+        <v>45</v>
+      </c>
+      <c r="B47" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="80">
+        <v>44701</v>
+      </c>
+      <c r="E47" s="134">
+        <v>470500</v>
+      </c>
+      <c r="F47" s="228"/>
+      <c r="G47" s="272"/>
+      <c r="H47" s="275"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="147">
+        <v>46</v>
+      </c>
+      <c r="B48" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="114">
+        <v>44704</v>
+      </c>
+      <c r="E48" s="115">
+        <v>524300</v>
+      </c>
+      <c r="F48" s="228"/>
+      <c r="G48" s="272"/>
+      <c r="H48" s="275"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="44">
+        <v>47</v>
+      </c>
+      <c r="B49" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="80">
+        <v>44707</v>
+      </c>
+      <c r="E49" s="134">
+        <v>441000</v>
+      </c>
+      <c r="F49" s="228"/>
+      <c r="G49" s="272"/>
+      <c r="H49" s="275"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="124">
+        <v>48</v>
+      </c>
+      <c r="B50" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44711</v>
+      </c>
+      <c r="E50" s="102">
+        <v>686100</v>
+      </c>
+      <c r="F50" s="228"/>
+      <c r="G50" s="272"/>
+      <c r="H50" s="275"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="147">
+        <v>49</v>
+      </c>
+      <c r="B51" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="80">
+        <v>44714</v>
+      </c>
+      <c r="E51" s="134">
+        <v>492600</v>
+      </c>
+      <c r="F51" s="228"/>
+      <c r="G51" s="272"/>
+      <c r="H51" s="275"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="45">
+        <v>50</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="127" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="128">
+        <v>44718</v>
+      </c>
+      <c r="E52" s="129">
+        <v>651200</v>
+      </c>
+      <c r="F52" s="231"/>
+      <c r="G52" s="273"/>
+      <c r="H52" s="276"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="56">
+        <v>51</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="131" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="132">
+        <v>44721</v>
+      </c>
+      <c r="E53" s="133">
+        <v>726600</v>
+      </c>
+      <c r="F53" s="227">
+        <v>4998600</v>
+      </c>
+      <c r="G53" s="271">
+        <v>44747</v>
+      </c>
+      <c r="H53" s="274" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="141">
+        <v>52</v>
+      </c>
+      <c r="B54" s="213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="80">
+        <v>44725</v>
+      </c>
+      <c r="E54" s="134">
+        <v>716000</v>
+      </c>
+      <c r="F54" s="228"/>
+      <c r="G54" s="272"/>
+      <c r="H54" s="275"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="141">
+        <v>53</v>
+      </c>
+      <c r="B55" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="D55" s="80">
+        <v>44728</v>
+      </c>
+      <c r="E55" s="134">
+        <v>1032900</v>
+      </c>
+      <c r="F55" s="228"/>
+      <c r="G55" s="272"/>
+      <c r="H55" s="275"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="141">
+        <v>54</v>
+      </c>
+      <c r="B56" s="213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="80">
+        <v>44729</v>
+      </c>
+      <c r="E56" s="134">
+        <v>946100</v>
+      </c>
+      <c r="F56" s="228"/>
+      <c r="G56" s="272"/>
+      <c r="H56" s="275"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="85">
+        <v>55</v>
+      </c>
+      <c r="B57" s="215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="80">
+        <v>44740</v>
+      </c>
+      <c r="E57" s="134">
+        <v>545600</v>
+      </c>
+      <c r="F57" s="228"/>
+      <c r="G57" s="272"/>
+      <c r="H57" s="275"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="141">
+        <v>56</v>
+      </c>
+      <c r="B58" s="213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="12">
+        <v>44743</v>
+      </c>
+      <c r="E58" s="102">
+        <v>552100</v>
+      </c>
+      <c r="F58" s="228"/>
+      <c r="G58" s="272"/>
+      <c r="H58" s="275"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="144">
+        <v>57</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="128">
+        <v>44746</v>
+      </c>
+      <c r="E59" s="129">
+        <v>479300</v>
+      </c>
+      <c r="F59" s="231"/>
+      <c r="G59" s="273"/>
+      <c r="H59" s="276"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="56">
+        <v>58</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="131" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" s="132">
+        <v>44749</v>
+      </c>
+      <c r="E60" s="133">
+        <v>524600</v>
+      </c>
+      <c r="F60" s="227">
+        <f>E60+E61+E62</f>
+        <v>1517300</v>
+      </c>
+      <c r="G60" s="271">
+        <v>44770</v>
+      </c>
+      <c r="H60" s="274"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="85">
+        <v>59</v>
+      </c>
+      <c r="B61" s="223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="218">
+        <v>44753</v>
+      </c>
+      <c r="E61" s="134">
+        <v>589300</v>
+      </c>
+      <c r="F61" s="228"/>
+      <c r="G61" s="272"/>
+      <c r="H61" s="275"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="144">
+        <v>60</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="128">
+        <v>44756</v>
+      </c>
+      <c r="E62" s="129">
+        <v>403400</v>
+      </c>
+      <c r="F62" s="231"/>
+      <c r="G62" s="273"/>
+      <c r="H62" s="276"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="224">
+        <v>61</v>
+      </c>
+      <c r="B63" s="221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="188" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" s="189">
+        <v>44760</v>
+      </c>
+      <c r="E63" s="190">
+        <v>762100</v>
+      </c>
+      <c r="F63" s="136"/>
+      <c r="G63" s="217"/>
+      <c r="H63" s="223"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="183">
+        <v>62</v>
+      </c>
+      <c r="B64" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="80">
+        <v>44763</v>
+      </c>
+      <c r="E64" s="135">
+        <v>747300</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="181"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="182">
+        <v>63</v>
+      </c>
+      <c r="B65" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="80">
+        <v>44767</v>
+      </c>
+      <c r="E65" s="135">
+        <v>655400</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="181"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="183">
+        <v>64</v>
+      </c>
+      <c r="B66" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="80">
+        <v>44770</v>
+      </c>
+      <c r="E66" s="135">
+        <v>556300</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="181"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="183">
+        <v>65</v>
+      </c>
+      <c r="B67" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="181"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="183">
+        <v>66</v>
+      </c>
+      <c r="B68" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="181"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="182">
+        <v>67</v>
+      </c>
+      <c r="B69" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="181"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="183">
+        <v>68</v>
+      </c>
+      <c r="B70" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="181"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="183">
+        <v>69</v>
+      </c>
+      <c r="B71" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="181"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="183">
+        <v>70</v>
+      </c>
+      <c r="B72" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="181"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="182">
+        <v>71</v>
+      </c>
+      <c r="B73" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="181"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="183">
+        <v>72</v>
+      </c>
+      <c r="B74" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="181"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="183">
+        <v>73</v>
+      </c>
+      <c r="B75" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="181"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="183">
+        <v>74</v>
+      </c>
+      <c r="B76" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="181"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="H53:H59"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="H32:H39"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="G46:G52"/>
+    <mergeCell ref="H46:H52"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G32:G39"/>
+    <mergeCell ref="F32:F39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="176" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="173" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="23"/>
     <col min="5" max="5" width="14" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -5176,40 +6966,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="246" t="s">
+      <c r="C1" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="247" t="s">
+      <c r="D1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="248" t="s">
+      <c r="E1" s="290" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="254" t="s">
+      <c r="G1" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="249" t="s">
+      <c r="H1" s="264" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="250"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="280"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -5218,7 +7008,7 @@
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="170" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="21">
@@ -5234,7 +7024,7 @@
       <c r="G3" s="36">
         <v>44566</v>
       </c>
-      <c r="H3" s="249" t="s">
+      <c r="H3" s="264" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5245,7 +7035,7 @@
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="170" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="21">
@@ -5261,7 +7051,7 @@
       <c r="G4" s="36">
         <v>44573</v>
       </c>
-      <c r="H4" s="251"/>
+      <c r="H4" s="265"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -5270,7 +7060,7 @@
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="170" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="21">
@@ -5286,7 +7076,7 @@
       <c r="G5" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="251"/>
+      <c r="H5" s="265"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -5295,7 +7085,7 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="170" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="21">
@@ -5311,7 +7101,7 @@
       <c r="G6" s="36">
         <v>44588</v>
       </c>
-      <c r="H6" s="251"/>
+      <c r="H6" s="265"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -5320,7 +7110,7 @@
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="170" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="21">
@@ -5336,7 +7126,7 @@
       <c r="G7" s="36">
         <v>44594</v>
       </c>
-      <c r="H7" s="251"/>
+      <c r="H7" s="265"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -5345,7 +7135,7 @@
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="171" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="23">
@@ -5361,7 +7151,7 @@
       <c r="G8" s="36">
         <v>44601</v>
       </c>
-      <c r="H8" s="251"/>
+      <c r="H8" s="265"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -5370,7 +7160,7 @@
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="170" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="21">
@@ -5386,7 +7176,7 @@
       <c r="G9" s="36">
         <v>44608</v>
       </c>
-      <c r="H9" s="251"/>
+      <c r="H9" s="265"/>
     </row>
     <row r="10" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
@@ -5395,7 +7185,7 @@
       <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="172" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="26">
@@ -5411,7 +7201,7 @@
       <c r="G10" s="27">
         <v>44613</v>
       </c>
-      <c r="H10" s="251"/>
+      <c r="H10" s="265"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -5420,7 +7210,7 @@
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="170" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="21">
@@ -5436,7 +7226,7 @@
       <c r="G11" s="36">
         <v>44624</v>
       </c>
-      <c r="H11" s="251"/>
+      <c r="H11" s="265"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -5445,7 +7235,7 @@
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="170" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="21">
@@ -5461,7 +7251,7 @@
       <c r="G12" s="36">
         <v>44635</v>
       </c>
-      <c r="H12" s="251"/>
+      <c r="H12" s="265"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -5470,7 +7260,7 @@
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="173" t="s">
+      <c r="C13" s="170" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="21">
@@ -5486,7 +7276,7 @@
       <c r="G13" s="36">
         <v>44642</v>
       </c>
-      <c r="H13" s="251"/>
+      <c r="H13" s="265"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -5495,7 +7285,7 @@
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="170" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="21">
@@ -5511,7 +7301,7 @@
       <c r="G14" s="36">
         <v>44648</v>
       </c>
-      <c r="H14" s="251"/>
+      <c r="H14" s="265"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -5520,7 +7310,7 @@
       <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="170" t="s">
         <v>154</v>
       </c>
       <c r="D15" s="21">
@@ -5536,7 +7326,7 @@
       <c r="G15" s="36">
         <v>44662</v>
       </c>
-      <c r="H15" s="251"/>
+      <c r="H15" s="265"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -5545,7 +7335,7 @@
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="170" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="21">
@@ -5554,14 +7344,14 @@
       <c r="E16" s="36">
         <v>44660</v>
       </c>
-      <c r="F16" s="239">
+      <c r="F16" s="281">
         <f>D16+D17</f>
         <v>1612040</v>
       </c>
-      <c r="G16" s="252">
+      <c r="G16" s="283">
         <v>44670</v>
       </c>
-      <c r="H16" s="251"/>
+      <c r="H16" s="265"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -5570,7 +7360,7 @@
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="170" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="21">
@@ -5579,9 +7369,9 @@
       <c r="E17" s="36">
         <v>44667</v>
       </c>
-      <c r="F17" s="241"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="250"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="284"/>
+      <c r="H17" s="280"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -5590,7 +7380,7 @@
       <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="173" t="s">
+      <c r="C18" s="170" t="s">
         <v>192</v>
       </c>
       <c r="D18" s="21">
@@ -5617,7 +7407,7 @@
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="170" t="s">
         <v>190</v>
       </c>
       <c r="D19" s="21">
@@ -5644,7 +7434,7 @@
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="170" t="s">
         <v>209</v>
       </c>
       <c r="D20" s="21">
@@ -5653,14 +7443,14 @@
       <c r="E20" s="36">
         <v>44687</v>
       </c>
-      <c r="F20" s="239">
+      <c r="F20" s="281">
         <f>D22+D24+D23+D25+D26+D21+D20+130</f>
         <v>1370310</v>
       </c>
-      <c r="G20" s="242">
+      <c r="G20" s="292">
         <v>44694</v>
       </c>
-      <c r="H20" s="243" t="s">
+      <c r="H20" s="293" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5671,7 +7461,7 @@
       <c r="B21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="170" t="s">
         <v>210</v>
       </c>
       <c r="D21" s="21">
@@ -5680,9 +7470,9 @@
       <c r="E21" s="36">
         <v>44687</v>
       </c>
-      <c r="F21" s="240"/>
-      <c r="G21" s="242"/>
-      <c r="H21" s="243"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="293"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -5691,7 +7481,7 @@
       <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="170" t="s">
         <v>211</v>
       </c>
       <c r="D22" s="21">
@@ -5700,9 +7490,9 @@
       <c r="E22" s="36">
         <v>44687</v>
       </c>
-      <c r="F22" s="240"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="243"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="293"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -5711,7 +7501,7 @@
       <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="173" t="s">
+      <c r="C23" s="170" t="s">
         <v>212</v>
       </c>
       <c r="D23" s="21">
@@ -5720,9 +7510,9 @@
       <c r="E23" s="36">
         <v>44687</v>
       </c>
-      <c r="F23" s="240"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="243"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="293"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -5731,7 +7521,7 @@
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="173" t="s">
+      <c r="C24" s="170" t="s">
         <v>213</v>
       </c>
       <c r="D24" s="21">
@@ -5740,18 +7530,18 @@
       <c r="E24" s="36">
         <v>44687</v>
       </c>
-      <c r="F24" s="240"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="243"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="293"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="151">
+      <c r="A25" s="150">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="173" t="s">
+      <c r="C25" s="170" t="s">
         <v>214</v>
       </c>
       <c r="D25" s="21">
@@ -5760,18 +7550,18 @@
       <c r="E25" s="36">
         <v>44687</v>
       </c>
-      <c r="F25" s="240"/>
-      <c r="G25" s="242"/>
-      <c r="H25" s="243"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="293"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="151">
+      <c r="A26" s="150">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="170" t="s">
         <v>215</v>
       </c>
       <c r="D26" s="21">
@@ -5780,190 +7570,261 @@
       <c r="E26" s="36">
         <v>44687</v>
       </c>
-      <c r="F26" s="241"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="243"/>
+      <c r="F26" s="282"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="293"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="180">
+      <c r="A27" s="175">
         <v>25</v>
       </c>
-      <c r="B27" s="151" t="s">
+      <c r="B27" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="173" t="s">
+      <c r="C27" s="170" t="s">
         <v>263</v>
       </c>
       <c r="D27" s="21">
         <v>1003810</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>44704</v>
       </c>
       <c r="F27" s="21">
         <f>D27</f>
         <v>1003810</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>44708</v>
       </c>
-      <c r="H27" s="151" t="s">
+      <c r="H27" s="150" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="180">
+      <c r="A28" s="175">
         <v>26</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="173" t="s">
+      <c r="C28" s="170" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="21">
         <v>1194090</v>
       </c>
-      <c r="E28" s="157">
+      <c r="E28" s="155">
         <v>44695</v>
       </c>
       <c r="F28" s="21">
         <f>D28</f>
         <v>1194090</v>
       </c>
-      <c r="G28" s="157">
+      <c r="G28" s="155">
         <v>44701</v>
       </c>
-      <c r="H28" s="158" t="s">
+      <c r="H28" s="156" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="180">
+      <c r="A29" s="175">
         <v>27</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="170" t="s">
         <v>262</v>
       </c>
       <c r="D29" s="21">
         <v>1130870</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>44711</v>
       </c>
       <c r="F29" s="21">
         <f>D29</f>
         <v>1130870</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>44719</v>
       </c>
-      <c r="H29" s="151" t="s">
+      <c r="H29" s="150" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="180">
-        <v>28</v>
-      </c>
-      <c r="B30" s="151" t="s">
+      <c r="A30" s="213"/>
+      <c r="B30" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="173" t="s">
-        <v>296</v>
+      <c r="C30" s="170" t="s">
+        <v>316</v>
       </c>
       <c r="D30" s="21">
-        <v>1501490</v>
-      </c>
-      <c r="E30" s="150">
-        <v>44723</v>
+        <v>1577060</v>
+      </c>
+      <c r="E30" s="212">
+        <v>44718</v>
       </c>
       <c r="F30" s="21">
         <f>D30</f>
+        <v>1577060</v>
+      </c>
+      <c r="G30" s="212">
+        <v>44722</v>
+      </c>
+      <c r="H30" s="213" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="175">
+        <v>28</v>
+      </c>
+      <c r="B31" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="170" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="21">
         <v>1501490</v>
       </c>
-      <c r="G30" s="150">
+      <c r="E31" s="149">
+        <v>44723</v>
+      </c>
+      <c r="F31" s="21">
+        <f>D31</f>
+        <v>1501490</v>
+      </c>
+      <c r="G31" s="149">
         <v>44728</v>
       </c>
-      <c r="H30" s="151" t="s">
+      <c r="H31" s="150" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="180">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="175">
         <v>29</v>
       </c>
-      <c r="B31" s="151" t="s">
+      <c r="B32" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="151"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="180">
+      <c r="C32" s="170" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="21">
+        <v>776150</v>
+      </c>
+      <c r="E32" s="149">
+        <v>44739</v>
+      </c>
+      <c r="F32" s="281">
+        <v>2013150</v>
+      </c>
+      <c r="G32" s="283">
+        <v>44747</v>
+      </c>
+      <c r="H32" s="264" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="175">
         <v>30</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B33" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="151"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="180">
+      <c r="C33" s="170" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1237000</v>
+      </c>
+      <c r="E33" s="149">
+        <v>44746</v>
+      </c>
+      <c r="F33" s="282"/>
+      <c r="G33" s="284"/>
+      <c r="H33" s="280"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="175">
         <v>31</v>
       </c>
-      <c r="B33" s="151" t="s">
+      <c r="B34" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="151"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="180">
+      <c r="C34" s="170" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1363500</v>
+      </c>
+      <c r="E34" s="149">
+        <v>44751</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1363500</v>
+      </c>
+      <c r="G34" s="149">
+        <v>44757</v>
+      </c>
+      <c r="H34" s="150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="175">
         <v>32</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B35" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="173"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="180">
+      <c r="C35" s="170" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1266800</v>
+      </c>
+      <c r="E35" s="149">
+        <v>44757</v>
+      </c>
+      <c r="F35" s="21">
+        <f>D35</f>
+        <v>1266800</v>
+      </c>
+      <c r="G35" s="149">
+        <v>44762</v>
+      </c>
+      <c r="H35" s="150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="175">
         <v>33</v>
       </c>
-      <c r="B35" s="151" t="s">
+      <c r="B36" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="173"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="F20:F26"/>
     <mergeCell ref="G20:G26"/>
     <mergeCell ref="H20:H26"/>
@@ -5981,1532 +7842,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E58" sqref="E53:E58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="14"/>
-    <col min="6" max="6" width="10.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="13"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="245" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="245" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="271" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="247" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="272" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="249" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="226"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="251"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="82">
-        <v>44562</v>
-      </c>
-      <c r="E3" s="91">
-        <v>2558000</v>
-      </c>
-      <c r="F3" s="92">
-        <f>E3</f>
-        <v>2558000</v>
-      </c>
-      <c r="G3" s="159">
-        <v>44565</v>
-      </c>
-      <c r="H3" s="161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
-        <v>2</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="84">
-        <v>44564</v>
-      </c>
-      <c r="E4" s="88">
-        <v>444500</v>
-      </c>
-      <c r="F4" s="282">
-        <f>E4+E5+E6+E7+E8+E9+E10</f>
-        <v>2837300</v>
-      </c>
-      <c r="G4" s="278">
-        <v>44587</v>
-      </c>
-      <c r="H4" s="257" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="85">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="54">
-        <v>44567</v>
-      </c>
-      <c r="E5" s="89">
-        <v>345300</v>
-      </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="258"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="54">
-        <v>44571</v>
-      </c>
-      <c r="E6" s="89">
-        <v>489200</v>
-      </c>
-      <c r="F6" s="283"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="258"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="85">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="54">
-        <v>44574</v>
-      </c>
-      <c r="E7" s="89">
-        <v>389700</v>
-      </c>
-      <c r="F7" s="283"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="258"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="54">
-        <v>44578</v>
-      </c>
-      <c r="E8" s="89">
-        <v>438700</v>
-      </c>
-      <c r="F8" s="283"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="258"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="85">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="54">
-        <v>44581</v>
-      </c>
-      <c r="E9" s="89">
-        <v>272700</v>
-      </c>
-      <c r="F9" s="283"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="258"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
-        <v>8</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="87">
-        <v>44585</v>
-      </c>
-      <c r="E10" s="90">
-        <v>457200</v>
-      </c>
-      <c r="F10" s="284"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="259"/>
-    </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
-        <v>9</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="95">
-        <v>44594</v>
-      </c>
-      <c r="E11" s="99">
-        <v>10000</v>
-      </c>
-      <c r="F11" s="274">
-        <v>30000</v>
-      </c>
-      <c r="G11" s="276" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="269"/>
-    </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
-        <v>10</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="98">
-        <v>44594</v>
-      </c>
-      <c r="E12" s="100">
-        <v>20000</v>
-      </c>
-      <c r="F12" s="275"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="270"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
-        <v>11</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="84">
-        <v>44588</v>
-      </c>
-      <c r="E13" s="88">
-        <v>513700</v>
-      </c>
-      <c r="F13" s="274">
-        <f>E13+E14+E15+E16+E17+E18</f>
-        <v>2725700</v>
-      </c>
-      <c r="G13" s="278">
-        <v>44608</v>
-      </c>
-      <c r="H13" s="257" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="54">
-        <v>44592</v>
-      </c>
-      <c r="E14" s="89">
-        <v>433400</v>
-      </c>
-      <c r="F14" s="281"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="258"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="85">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="12">
-        <v>44595</v>
-      </c>
-      <c r="E15" s="102">
-        <v>635100</v>
-      </c>
-      <c r="F15" s="281"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="258"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="12">
-        <v>44599</v>
-      </c>
-      <c r="E16" s="102">
-        <v>419000</v>
-      </c>
-      <c r="F16" s="281"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="258"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="85">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="12">
-        <v>44603</v>
-      </c>
-      <c r="E17" s="102">
-        <v>234600</v>
-      </c>
-      <c r="F17" s="281"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="258"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>16</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="101">
-        <v>44606</v>
-      </c>
-      <c r="E18" s="103">
-        <v>489900</v>
-      </c>
-      <c r="F18" s="275"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="259"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
-        <v>17</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="104">
-        <v>44609</v>
-      </c>
-      <c r="E19" s="106">
-        <v>474700</v>
-      </c>
-      <c r="F19" s="221">
-        <f>E25+E24+E23+E22+E21+E20+E19</f>
-        <v>3317100</v>
-      </c>
-      <c r="G19" s="278">
-        <v>44630</v>
-      </c>
-      <c r="H19" s="257" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="12">
-        <v>44613</v>
-      </c>
-      <c r="E20" s="102">
-        <v>453900</v>
-      </c>
-      <c r="F20" s="222"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="258"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="85">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="12">
-        <v>44616</v>
-      </c>
-      <c r="E21" s="102">
-        <v>292700</v>
-      </c>
-      <c r="F21" s="222"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="258"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="12">
-        <v>44620</v>
-      </c>
-      <c r="E22" s="102">
-        <v>636400</v>
-      </c>
-      <c r="F22" s="222"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="258"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="85">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="12">
-        <v>44622</v>
-      </c>
-      <c r="E23" s="102">
-        <v>153300</v>
-      </c>
-      <c r="F23" s="222"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="258"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="12">
-        <v>44623</v>
-      </c>
-      <c r="E24" s="102">
-        <v>634400</v>
-      </c>
-      <c r="F24" s="222"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="258"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="105">
-        <v>23</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="101">
-        <v>44627</v>
-      </c>
-      <c r="E25" s="90">
-        <v>671700</v>
-      </c>
-      <c r="F25" s="235"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="259"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
-        <v>24</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="78">
-        <v>44630</v>
-      </c>
-      <c r="E26" s="107">
-        <v>445200</v>
-      </c>
-      <c r="F26" s="221">
-        <f>E31+E30+E29+E28+E27+E26</f>
-        <v>3139000</v>
-      </c>
-      <c r="G26" s="285">
-        <v>44652</v>
-      </c>
-      <c r="H26" s="257" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="85">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="5">
-        <v>44634</v>
-      </c>
-      <c r="E27" s="108">
-        <v>574900</v>
-      </c>
-      <c r="F27" s="222"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="258"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="12">
-        <v>44637</v>
-      </c>
-      <c r="E28" s="102">
-        <v>502300</v>
-      </c>
-      <c r="F28" s="222"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="258"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="85">
-        <v>27</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="12">
-        <v>44641</v>
-      </c>
-      <c r="E29" s="102">
-        <v>605600</v>
-      </c>
-      <c r="F29" s="222"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="258"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="12">
-        <v>44644</v>
-      </c>
-      <c r="E30" s="102">
-        <v>264000</v>
-      </c>
-      <c r="F30" s="222"/>
-      <c r="G30" s="286"/>
-      <c r="H30" s="258"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124">
-        <v>29</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="125">
-        <v>44648</v>
-      </c>
-      <c r="E31" s="126">
-        <v>747000</v>
-      </c>
-      <c r="F31" s="222"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="259"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
-        <v>30</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="78">
-        <v>44651</v>
-      </c>
-      <c r="E32" s="107">
-        <v>577500</v>
-      </c>
-      <c r="F32" s="221">
-        <f>E39+E38+E37+E36+E35+E34+E33+E32</f>
-        <v>3369400</v>
-      </c>
-      <c r="G32" s="287">
-        <v>44677</v>
-      </c>
-      <c r="H32" s="257" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="85">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="5">
-        <v>44651</v>
-      </c>
-      <c r="E33" s="108">
-        <v>4800</v>
-      </c>
-      <c r="F33" s="222"/>
-      <c r="G33" s="288"/>
-      <c r="H33" s="258"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="12">
-        <v>44655</v>
-      </c>
-      <c r="E34" s="102">
-        <v>534300</v>
-      </c>
-      <c r="F34" s="222"/>
-      <c r="G34" s="288"/>
-      <c r="H34" s="258"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="85">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="12">
-        <v>44659</v>
-      </c>
-      <c r="E35" s="102">
-        <v>462400</v>
-      </c>
-      <c r="F35" s="222"/>
-      <c r="G35" s="288"/>
-      <c r="H35" s="258"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="123">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="12">
-        <v>44662</v>
-      </c>
-      <c r="E36" s="102">
-        <v>306600</v>
-      </c>
-      <c r="F36" s="222"/>
-      <c r="G36" s="288"/>
-      <c r="H36" s="258"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="85">
-        <v>35</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="12">
-        <v>44665</v>
-      </c>
-      <c r="E37" s="102">
-        <v>359000</v>
-      </c>
-      <c r="F37" s="222"/>
-      <c r="G37" s="288"/>
-      <c r="H37" s="258"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="44">
-        <v>36</v>
-      </c>
-      <c r="B38" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="113" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="114">
-        <v>44669</v>
-      </c>
-      <c r="E38" s="115">
-        <v>467400</v>
-      </c>
-      <c r="F38" s="222"/>
-      <c r="G38" s="288"/>
-      <c r="H38" s="258"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="105">
-        <v>37</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="128">
-        <v>44672</v>
-      </c>
-      <c r="E39" s="129">
-        <v>657400</v>
-      </c>
-      <c r="F39" s="222"/>
-      <c r="G39" s="289"/>
-      <c r="H39" s="259"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="41">
-        <v>38</v>
-      </c>
-      <c r="B40" s="130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="132">
-        <v>44676</v>
-      </c>
-      <c r="E40" s="133">
-        <v>572400</v>
-      </c>
-      <c r="F40" s="221">
-        <f>E45+E44+E43+E42+E41+E40</f>
-        <v>3335600</v>
-      </c>
-      <c r="G40" s="266">
-        <v>44694</v>
-      </c>
-      <c r="H40" s="257" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="85">
-        <v>39</v>
-      </c>
-      <c r="B41" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="80">
-        <v>44679</v>
-      </c>
-      <c r="E41" s="134">
-        <v>433900</v>
-      </c>
-      <c r="F41" s="222"/>
-      <c r="G41" s="267"/>
-      <c r="H41" s="258"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="44">
-        <v>40</v>
-      </c>
-      <c r="B42" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="12">
-        <v>44683</v>
-      </c>
-      <c r="E42" s="102">
-        <v>645500</v>
-      </c>
-      <c r="F42" s="222"/>
-      <c r="G42" s="267"/>
-      <c r="H42" s="258"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="124">
-        <v>41</v>
-      </c>
-      <c r="B43" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="125">
-        <v>44686</v>
-      </c>
-      <c r="E43" s="126">
-        <v>597000</v>
-      </c>
-      <c r="F43" s="222"/>
-      <c r="G43" s="267"/>
-      <c r="H43" s="258"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="80">
-        <v>44690</v>
-      </c>
-      <c r="E44" s="134">
-        <v>634900</v>
-      </c>
-      <c r="F44" s="222"/>
-      <c r="G44" s="267"/>
-      <c r="H44" s="258"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="105">
-        <v>43</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="128">
-        <v>44693</v>
-      </c>
-      <c r="E45" s="129">
-        <v>451900</v>
-      </c>
-      <c r="F45" s="235"/>
-      <c r="G45" s="268"/>
-      <c r="H45" s="259"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="41">
-        <v>44</v>
-      </c>
-      <c r="B46" s="130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" s="104">
-        <v>44697</v>
-      </c>
-      <c r="E46" s="106">
-        <v>652800</v>
-      </c>
-      <c r="F46" s="221">
-        <f>E46+E47+E48+E49+E50+E51+E52</f>
-        <v>3918500</v>
-      </c>
-      <c r="G46" s="260">
-        <v>44719</v>
-      </c>
-      <c r="H46" s="263" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="124">
-        <v>45</v>
-      </c>
-      <c r="B47" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="80">
-        <v>44701</v>
-      </c>
-      <c r="E47" s="134">
-        <v>470500</v>
-      </c>
-      <c r="F47" s="222"/>
-      <c r="G47" s="261"/>
-      <c r="H47" s="264"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="147">
-        <v>46</v>
-      </c>
-      <c r="B48" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="114">
-        <v>44704</v>
-      </c>
-      <c r="E48" s="115">
-        <v>524300</v>
-      </c>
-      <c r="F48" s="222"/>
-      <c r="G48" s="261"/>
-      <c r="H48" s="264"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
-        <v>47</v>
-      </c>
-      <c r="B49" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" s="80">
-        <v>44707</v>
-      </c>
-      <c r="E49" s="134">
-        <v>441000</v>
-      </c>
-      <c r="F49" s="222"/>
-      <c r="G49" s="261"/>
-      <c r="H49" s="264"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="124">
-        <v>48</v>
-      </c>
-      <c r="B50" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50" s="12">
-        <v>44711</v>
-      </c>
-      <c r="E50" s="102">
-        <v>686100</v>
-      </c>
-      <c r="F50" s="222"/>
-      <c r="G50" s="261"/>
-      <c r="H50" s="264"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="147">
-        <v>49</v>
-      </c>
-      <c r="B51" s="186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="80">
-        <v>44714</v>
-      </c>
-      <c r="E51" s="134">
-        <v>492600</v>
-      </c>
-      <c r="F51" s="222"/>
-      <c r="G51" s="261"/>
-      <c r="H51" s="264"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45">
-        <v>50</v>
-      </c>
-      <c r="B52" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="127" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="128">
-        <v>44718</v>
-      </c>
-      <c r="E52" s="129">
-        <v>651200</v>
-      </c>
-      <c r="F52" s="235"/>
-      <c r="G52" s="262"/>
-      <c r="H52" s="265"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="184">
-        <v>51</v>
-      </c>
-      <c r="B53" s="187" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="196" t="s">
-        <v>272</v>
-      </c>
-      <c r="D53" s="197">
-        <v>44721</v>
-      </c>
-      <c r="E53" s="198">
-        <v>726600</v>
-      </c>
-      <c r="F53" s="136"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="179"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="185">
-        <v>52</v>
-      </c>
-      <c r="B54" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="79" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" s="80">
-        <v>44725</v>
-      </c>
-      <c r="E54" s="135">
-        <v>716000</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="151"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="185">
-        <v>53</v>
-      </c>
-      <c r="B55" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="79" t="s">
-        <v>273</v>
-      </c>
-      <c r="D55" s="80">
-        <v>44728</v>
-      </c>
-      <c r="E55" s="135">
-        <v>1032900</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="151"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="185">
-        <v>54</v>
-      </c>
-      <c r="B56" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" s="80">
-        <v>44729</v>
-      </c>
-      <c r="E56" s="135">
-        <v>946100</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="151"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="190">
-        <v>55</v>
-      </c>
-      <c r="B57" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="80">
-        <v>44740</v>
-      </c>
-      <c r="E57" s="135">
-        <v>545600</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="189"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="191">
-        <v>56</v>
-      </c>
-      <c r="B58" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" s="12">
-        <v>44743</v>
-      </c>
-      <c r="E58" s="11">
-        <v>552100</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="189"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="191">
-        <v>57</v>
-      </c>
-      <c r="B59" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="189"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="191">
-        <v>58</v>
-      </c>
-      <c r="B60" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="189"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="190">
-        <v>59</v>
-      </c>
-      <c r="B61" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="189"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="191">
-        <v>60</v>
-      </c>
-      <c r="B62" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="189"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="191">
-        <v>61</v>
-      </c>
-      <c r="B63" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="189"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="191">
-        <v>62</v>
-      </c>
-      <c r="B64" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="189"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="190">
-        <v>63</v>
-      </c>
-      <c r="B65" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="189"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="191">
-        <v>64</v>
-      </c>
-      <c r="B66" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="189"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="191">
-        <v>65</v>
-      </c>
-      <c r="B67" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="189"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="191">
-        <v>66</v>
-      </c>
-      <c r="B68" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="189"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="190">
-        <v>67</v>
-      </c>
-      <c r="B69" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="189"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="191">
-        <v>68</v>
-      </c>
-      <c r="B70" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="189"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="191">
-        <v>69</v>
-      </c>
-      <c r="B71" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="189"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="191">
-        <v>70</v>
-      </c>
-      <c r="B72" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="189"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="190">
-        <v>71</v>
-      </c>
-      <c r="B73" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="189"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="191">
-        <v>72</v>
-      </c>
-      <c r="B74" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="189"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="191">
-        <v>73</v>
-      </c>
-      <c r="B75" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="189"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="191">
-        <v>74</v>
-      </c>
-      <c r="B76" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="189"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="G19:G25"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="G32:G39"/>
-    <mergeCell ref="F32:F39"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="G4:G10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="H32:H39"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="F46:F52"/>
-    <mergeCell ref="G46:G52"/>
-    <mergeCell ref="H46:H52"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7532,36 +7867,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="248" t="s">
+      <c r="D1" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="230" t="s">
+      <c r="E1" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="254" t="s">
+      <c r="G1" s="285" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="255"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="286"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -7579,10 +7914,10 @@
       <c r="E3" s="11">
         <v>250000</v>
       </c>
-      <c r="F3" s="239">
+      <c r="F3" s="281">
         <v>500000</v>
       </c>
-      <c r="G3" s="252">
+      <c r="G3" s="283">
         <v>44566</v>
       </c>
     </row>
@@ -7602,8 +7937,8 @@
       <c r="E4" s="11">
         <v>250000</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="253"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="284"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -7621,10 +7956,10 @@
       <c r="E5" s="11">
         <v>250000</v>
       </c>
-      <c r="F5" s="239">
+      <c r="F5" s="281">
         <v>500000</v>
       </c>
-      <c r="G5" s="252">
+      <c r="G5" s="283">
         <v>44573</v>
       </c>
     </row>
@@ -7644,8 +7979,8 @@
       <c r="E6" s="11">
         <v>250000</v>
       </c>
-      <c r="F6" s="241"/>
-      <c r="G6" s="253"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="284"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -7663,10 +7998,10 @@
       <c r="E7" s="11">
         <v>250000</v>
       </c>
-      <c r="F7" s="239">
+      <c r="F7" s="281">
         <v>500000</v>
       </c>
-      <c r="G7" s="252">
+      <c r="G7" s="283">
         <v>44580</v>
       </c>
     </row>
@@ -7686,8 +8021,8 @@
       <c r="E8" s="11">
         <v>250000</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="253"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="284"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -7705,10 +8040,10 @@
       <c r="E9" s="11">
         <v>250000</v>
       </c>
-      <c r="F9" s="239">
+      <c r="F9" s="281">
         <v>500000</v>
       </c>
-      <c r="G9" s="252">
+      <c r="G9" s="283">
         <v>44592</v>
       </c>
     </row>
@@ -7728,8 +8063,8 @@
       <c r="E10" s="11">
         <v>250000</v>
       </c>
-      <c r="F10" s="241"/>
-      <c r="G10" s="253"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="284"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -7747,10 +8082,10 @@
       <c r="E11" s="11">
         <v>200000</v>
       </c>
-      <c r="F11" s="239">
+      <c r="F11" s="281">
         <v>500000</v>
       </c>
-      <c r="G11" s="252">
+      <c r="G11" s="283">
         <v>44599</v>
       </c>
     </row>
@@ -7770,8 +8105,8 @@
       <c r="E12" s="11">
         <v>150000</v>
       </c>
-      <c r="F12" s="240"/>
-      <c r="G12" s="290"/>
+      <c r="F12" s="291"/>
+      <c r="G12" s="294"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -7789,8 +8124,8 @@
       <c r="E13" s="11">
         <v>150000</v>
       </c>
-      <c r="F13" s="241"/>
-      <c r="G13" s="253"/>
+      <c r="F13" s="282"/>
+      <c r="G13" s="284"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -7808,10 +8143,10 @@
       <c r="E14" s="11">
         <v>150000</v>
       </c>
-      <c r="F14" s="239">
+      <c r="F14" s="281">
         <v>500000</v>
       </c>
-      <c r="G14" s="252">
+      <c r="G14" s="283">
         <v>44608</v>
       </c>
     </row>
@@ -7831,8 +8166,8 @@
       <c r="E15" s="11">
         <v>150000</v>
       </c>
-      <c r="F15" s="240"/>
-      <c r="G15" s="290"/>
+      <c r="F15" s="291"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -7850,8 +8185,8 @@
       <c r="E16" s="11">
         <v>200000</v>
       </c>
-      <c r="F16" s="241"/>
-      <c r="G16" s="253"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="284"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -7869,10 +8204,10 @@
       <c r="E17" s="11">
         <v>250000</v>
       </c>
-      <c r="F17" s="239">
+      <c r="F17" s="281">
         <v>500000</v>
       </c>
-      <c r="G17" s="252">
+      <c r="G17" s="283">
         <v>44614</v>
       </c>
     </row>
@@ -7892,8 +8227,8 @@
       <c r="E18" s="11">
         <v>250000</v>
       </c>
-      <c r="F18" s="241"/>
-      <c r="G18" s="253"/>
+      <c r="F18" s="282"/>
+      <c r="G18" s="284"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -7911,11 +8246,11 @@
       <c r="E19" s="11">
         <v>250000</v>
       </c>
-      <c r="F19" s="239">
+      <c r="F19" s="281">
         <f>E20+E19</f>
         <v>500000</v>
       </c>
-      <c r="G19" s="252">
+      <c r="G19" s="283">
         <v>44622</v>
       </c>
     </row>
@@ -7935,8 +8270,8 @@
       <c r="E20" s="11">
         <v>250000</v>
       </c>
-      <c r="F20" s="241"/>
-      <c r="G20" s="253"/>
+      <c r="F20" s="282"/>
+      <c r="G20" s="284"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -7978,10 +8313,10 @@
       <c r="E22" s="11">
         <v>200000</v>
       </c>
-      <c r="F22" s="239">
+      <c r="F22" s="281">
         <v>500000</v>
       </c>
-      <c r="G22" s="252">
+      <c r="G22" s="283">
         <v>44643</v>
       </c>
     </row>
@@ -8001,8 +8336,8 @@
       <c r="E23" s="11">
         <v>150000</v>
       </c>
-      <c r="F23" s="240"/>
-      <c r="G23" s="290"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="294"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -8020,8 +8355,8 @@
       <c r="E24" s="11">
         <v>150000</v>
       </c>
-      <c r="F24" s="241"/>
-      <c r="G24" s="253"/>
+      <c r="F24" s="282"/>
+      <c r="G24" s="284"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -8086,10 +8421,10 @@
       <c r="E27" s="135">
         <v>200000</v>
       </c>
-      <c r="F27" s="239">
+      <c r="F27" s="281">
         <v>500000</v>
       </c>
-      <c r="G27" s="252">
+      <c r="G27" s="283">
         <v>44670</v>
       </c>
     </row>
@@ -8109,8 +8444,8 @@
       <c r="E28" s="135">
         <v>300000</v>
       </c>
-      <c r="F28" s="241"/>
-      <c r="G28" s="253"/>
+      <c r="F28" s="282"/>
+      <c r="G28" s="284"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -8154,7 +8489,7 @@
       <c r="F30" s="21">
         <v>500000</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>44685</v>
       </c>
     </row>
@@ -8178,15 +8513,15 @@
         <f>E31</f>
         <v>500000</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="149">
         <v>44692</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="151">
+      <c r="A32" s="150">
         <v>30</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="79" t="s">
@@ -8198,18 +8533,18 @@
       <c r="E32" s="135">
         <v>250000</v>
       </c>
-      <c r="F32" s="239">
+      <c r="F32" s="281">
         <v>500000</v>
       </c>
-      <c r="G32" s="252">
+      <c r="G32" s="283">
         <v>44711</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="151">
+      <c r="A33" s="150">
         <v>31</v>
       </c>
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="79" t="s">
@@ -8221,14 +8556,14 @@
       <c r="E33" s="135">
         <v>250000</v>
       </c>
-      <c r="F33" s="241"/>
-      <c r="G33" s="253"/>
+      <c r="F33" s="282"/>
+      <c r="G33" s="284"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="151">
+      <c r="A34" s="150">
         <v>32</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="79" t="s">
@@ -8241,13 +8576,13 @@
         <v>150000</v>
       </c>
       <c r="F34" s="21"/>
-      <c r="G34" s="150"/>
+      <c r="G34" s="149"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="151">
+      <c r="A35" s="150">
         <v>33</v>
       </c>
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="79" t="s">
@@ -8260,13 +8595,13 @@
         <v>150000</v>
       </c>
       <c r="F35" s="21"/>
-      <c r="G35" s="150"/>
+      <c r="G35" s="149"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="151">
+      <c r="A36" s="150">
         <v>34</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="79" t="s">
@@ -8278,18 +8613,18 @@
       <c r="E36" s="135">
         <v>100000</v>
       </c>
-      <c r="F36" s="239">
+      <c r="F36" s="281">
         <v>500000</v>
       </c>
-      <c r="G36" s="252">
+      <c r="G36" s="283">
         <v>44715</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="151">
+      <c r="A37" s="150">
         <v>35</v>
       </c>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="79" t="s">
@@ -8301,14 +8636,14 @@
       <c r="E37" s="135">
         <v>200000</v>
       </c>
-      <c r="F37" s="240"/>
-      <c r="G37" s="290"/>
+      <c r="F37" s="291"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="151">
+      <c r="A38" s="150">
         <v>36</v>
       </c>
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="79" t="s">
@@ -8320,14 +8655,14 @@
       <c r="E38" s="135">
         <v>200000</v>
       </c>
-      <c r="F38" s="241"/>
-      <c r="G38" s="253"/>
+      <c r="F38" s="282"/>
+      <c r="G38" s="284"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="151">
+      <c r="A39" s="150">
         <v>37</v>
       </c>
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="79" t="s">
@@ -8340,13 +8675,13 @@
         <v>250000</v>
       </c>
       <c r="F39" s="21"/>
-      <c r="G39" s="150"/>
+      <c r="G39" s="149"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="151">
+      <c r="A40" s="150">
         <v>38</v>
       </c>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="150" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="79" t="s">
@@ -8359,10 +8694,31 @@
         <v>250000</v>
       </c>
       <c r="F40" s="21"/>
-      <c r="G40" s="150"/>
+      <c r="G40" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="F22:F24"/>
@@ -8373,27 +8729,6 @@
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8403,7 +8738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8411,7 +8746,7 @@
   <cols>
     <col min="1" max="1" width="6.140625" style="13"/>
     <col min="2" max="2" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="176" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="173" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -8420,36 +8755,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="247" t="s">
+      <c r="D1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="254" t="s">
+      <c r="E1" s="285" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="254" t="s">
+      <c r="G1" s="285" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="255"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="286"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
@@ -8458,7 +8793,7 @@
       <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="152" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="110">
@@ -8482,7 +8817,7 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="172" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="110">
@@ -8506,7 +8841,7 @@
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="174" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="34">
@@ -8530,7 +8865,7 @@
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="174" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="34">
@@ -8548,13 +8883,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="151">
+      <c r="A7" s="150">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="170" t="s">
         <v>178</v>
       </c>
       <c r="D7" s="21">
@@ -8572,64 +8907,64 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="152">
-        <v>6</v>
-      </c>
-      <c r="B8" s="151" t="s">
+      <c r="A8" s="151">
+        <v>6</v>
+      </c>
+      <c r="B8" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="173" t="s">
+      <c r="C8" s="170" t="s">
         <v>265</v>
       </c>
       <c r="D8" s="21">
         <v>265500</v>
       </c>
-      <c r="E8" s="150">
+      <c r="E8" s="149">
         <v>44699</v>
       </c>
       <c r="F8" s="21">
         <v>265500</v>
       </c>
-      <c r="G8" s="150">
+      <c r="G8" s="149">
         <v>44722</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="151">
+      <c r="A9" s="150">
         <v>7</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="170" t="s">
         <v>297</v>
       </c>
       <c r="D9" s="21">
         <v>401200</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <v>44728</v>
       </c>
       <c r="F9" s="21">
         <f>D9</f>
         <v>401200</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <v>44760</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="151">
+      <c r="A10" s="150">
         <v>8</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="173"/>
+      <c r="C10" s="170"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="150"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="150"/>
+      <c r="G10" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8648,17 +8983,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="176" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="173" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="23"/>
     <col min="6" max="6" width="10.7109375" style="23" customWidth="1"/>
@@ -8668,43 +9003,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="246" t="s">
+      <c r="C1" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="237" t="s">
+      <c r="G1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="226"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="238"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="234"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="193" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="62">
@@ -8713,11 +9048,11 @@
       <c r="E3" s="58">
         <v>306000</v>
       </c>
-      <c r="F3" s="282">
+      <c r="F3" s="258">
         <f>E3+E4+E5</f>
         <v>508000</v>
       </c>
-      <c r="G3" s="293">
+      <c r="G3" s="297">
         <v>44579</v>
       </c>
     </row>
@@ -8728,17 +9063,17 @@
       <c r="B4" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="184" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="63">
         <v>44567</v>
       </c>
-      <c r="E4" s="193">
+      <c r="E4" s="185">
         <v>100000</v>
       </c>
-      <c r="F4" s="283"/>
-      <c r="G4" s="294"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="298"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45">
@@ -8747,7 +9082,7 @@
       <c r="B5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="194" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="64">
@@ -8756,8 +9091,8 @@
       <c r="E5" s="61">
         <v>102000</v>
       </c>
-      <c r="F5" s="284"/>
-      <c r="G5" s="295"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="299"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
@@ -8766,7 +9101,7 @@
       <c r="B6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="203" t="s">
+      <c r="C6" s="193" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="62">
@@ -8775,11 +9110,11 @@
       <c r="E6" s="58">
         <v>102000</v>
       </c>
-      <c r="F6" s="282">
+      <c r="F6" s="258">
         <f>E7+E8+E9+E10+E6</f>
         <v>508000</v>
       </c>
-      <c r="G6" s="223">
+      <c r="G6" s="229">
         <v>44607</v>
       </c>
     </row>
@@ -8790,17 +9125,17 @@
       <c r="B7" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="184" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="63">
         <v>44585</v>
       </c>
-      <c r="E7" s="193">
+      <c r="E7" s="185">
         <v>100000</v>
       </c>
-      <c r="F7" s="283"/>
-      <c r="G7" s="224"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="230"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
@@ -8809,17 +9144,17 @@
       <c r="B8" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="184" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="63">
         <v>44588</v>
       </c>
-      <c r="E8" s="193">
+      <c r="E8" s="185">
         <v>102000</v>
       </c>
-      <c r="F8" s="283"/>
-      <c r="G8" s="224"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="230"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
@@ -8828,17 +9163,17 @@
       <c r="B9" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="184" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="63">
         <v>44592</v>
       </c>
-      <c r="E9" s="193">
+      <c r="E9" s="185">
         <v>102000</v>
       </c>
-      <c r="F9" s="283"/>
-      <c r="G9" s="224"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="230"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45">
@@ -8847,7 +9182,7 @@
       <c r="B10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="204" t="s">
+      <c r="C10" s="194" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="67">
@@ -8856,8 +9191,8 @@
       <c r="E10" s="66">
         <v>102000</v>
       </c>
-      <c r="F10" s="284"/>
-      <c r="G10" s="236"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="232"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -8866,7 +9201,7 @@
       <c r="B11" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="205" t="s">
+      <c r="C11" s="195" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="69">
@@ -8875,11 +9210,11 @@
       <c r="E11" s="68">
         <v>102000</v>
       </c>
-      <c r="F11" s="221">
+      <c r="F11" s="227">
         <f>E15+E14+E13+E12+E11</f>
         <v>510000</v>
       </c>
-      <c r="G11" s="223">
+      <c r="G11" s="229">
         <v>44624</v>
       </c>
     </row>
@@ -8890,7 +9225,7 @@
       <c r="B12" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="174" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="70">
@@ -8899,8 +9234,8 @@
       <c r="E12" s="34">
         <v>102000</v>
       </c>
-      <c r="F12" s="222"/>
-      <c r="G12" s="224"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="230"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
@@ -8909,7 +9244,7 @@
       <c r="B13" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="174" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="70">
@@ -8918,8 +9253,8 @@
       <c r="E13" s="34">
         <v>102000</v>
       </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="224"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="230"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
@@ -8928,7 +9263,7 @@
       <c r="B14" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="170" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="71">
@@ -8937,8 +9272,8 @@
       <c r="E14" s="21">
         <v>102000</v>
       </c>
-      <c r="F14" s="222"/>
-      <c r="G14" s="224"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="230"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45">
@@ -8947,7 +9282,7 @@
       <c r="B15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="206" t="s">
+      <c r="C15" s="196" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="72">
@@ -8956,8 +9291,8 @@
       <c r="E15" s="66">
         <v>102000</v>
       </c>
-      <c r="F15" s="235"/>
-      <c r="G15" s="236"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="232"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
@@ -8966,7 +9301,7 @@
       <c r="B16" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="195" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="69">
@@ -8975,11 +9310,11 @@
       <c r="E16" s="68">
         <v>100000</v>
       </c>
-      <c r="F16" s="221">
+      <c r="F16" s="227">
         <f>E16+E17+E18+E19+E20</f>
         <v>502000</v>
       </c>
-      <c r="G16" s="293">
+      <c r="G16" s="297">
         <v>44648</v>
       </c>
     </row>
@@ -8990,7 +9325,7 @@
       <c r="B17" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="174" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="70">
@@ -8999,8 +9334,8 @@
       <c r="E17" s="34">
         <v>100000</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="294"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="298"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="44">
@@ -9009,7 +9344,7 @@
       <c r="B18" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="174" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="70">
@@ -9018,8 +9353,8 @@
       <c r="E18" s="34">
         <v>102000</v>
       </c>
-      <c r="F18" s="222"/>
-      <c r="G18" s="294"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="298"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
@@ -9028,7 +9363,7 @@
       <c r="B19" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="174" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="70">
@@ -9037,8 +9372,8 @@
       <c r="E19" s="34">
         <v>100000</v>
       </c>
-      <c r="F19" s="222"/>
-      <c r="G19" s="294"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="298"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45">
@@ -9047,7 +9382,7 @@
       <c r="B20" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="197" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="75">
@@ -9056,8 +9391,8 @@
       <c r="E20" s="74">
         <v>100000</v>
       </c>
-      <c r="F20" s="235"/>
-      <c r="G20" s="295"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="299"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
@@ -9066,7 +9401,7 @@
       <c r="B21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="195" t="s">
         <v>168</v>
       </c>
       <c r="D21" s="69">
@@ -9075,10 +9410,10 @@
       <c r="E21" s="77">
         <v>102000</v>
       </c>
-      <c r="F21" s="221">
+      <c r="F21" s="227">
         <v>510000</v>
       </c>
-      <c r="G21" s="223">
+      <c r="G21" s="229">
         <v>44670</v>
       </c>
     </row>
@@ -9089,7 +9424,7 @@
       <c r="B22" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="174" t="s">
         <v>169</v>
       </c>
       <c r="D22" s="70">
@@ -9098,8 +9433,8 @@
       <c r="E22" s="21">
         <v>102000</v>
       </c>
-      <c r="F22" s="222"/>
-      <c r="G22" s="224"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="230"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
@@ -9108,7 +9443,7 @@
       <c r="B23" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="177" t="s">
+      <c r="C23" s="174" t="s">
         <v>170</v>
       </c>
       <c r="D23" s="70">
@@ -9117,8 +9452,8 @@
       <c r="E23" s="21">
         <v>102000</v>
       </c>
-      <c r="F23" s="222"/>
-      <c r="G23" s="224"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="230"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
@@ -9127,7 +9462,7 @@
       <c r="B24" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="174" t="s">
         <v>171</v>
       </c>
       <c r="D24" s="71">
@@ -9136,8 +9471,8 @@
       <c r="E24" s="21">
         <v>102000</v>
       </c>
-      <c r="F24" s="222"/>
-      <c r="G24" s="224"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="230"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45">
@@ -9146,7 +9481,7 @@
       <c r="B25" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="207" t="s">
+      <c r="C25" s="197" t="s">
         <v>170</v>
       </c>
       <c r="D25" s="72">
@@ -9155,8 +9490,8 @@
       <c r="E25" s="66">
         <v>102000</v>
       </c>
-      <c r="F25" s="235"/>
-      <c r="G25" s="236"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="232"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
@@ -9165,7 +9500,7 @@
       <c r="B26" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="208" t="s">
+      <c r="C26" s="198" t="s">
         <v>227</v>
       </c>
       <c r="D26" s="148">
@@ -9174,11 +9509,11 @@
       <c r="E26" s="77">
         <v>102000</v>
       </c>
-      <c r="F26" s="221">
+      <c r="F26" s="227">
         <f>E29+E30+E28+E27+E26</f>
         <v>542000</v>
       </c>
-      <c r="G26" s="260">
+      <c r="G26" s="271">
         <v>44708</v>
       </c>
     </row>
@@ -9186,10 +9521,10 @@
       <c r="A27" s="44">
         <v>26</v>
       </c>
-      <c r="B27" s="189" t="s">
+      <c r="B27" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="173" t="s">
+      <c r="C27" s="170" t="s">
         <v>228</v>
       </c>
       <c r="D27" s="71">
@@ -9198,17 +9533,17 @@
       <c r="E27" s="21">
         <v>110000</v>
       </c>
-      <c r="F27" s="222"/>
-      <c r="G27" s="261"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="272"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
         <v>27</v>
       </c>
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="173" t="s">
+      <c r="C28" s="170" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="71">
@@ -9217,17 +9552,17 @@
       <c r="E28" s="21">
         <v>110000</v>
       </c>
-      <c r="F28" s="222"/>
-      <c r="G28" s="261"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="272"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
         <v>28</v>
       </c>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="170" t="s">
         <v>291</v>
       </c>
       <c r="D29" s="71">
@@ -9236,27 +9571,27 @@
       <c r="E29" s="21">
         <v>110000</v>
       </c>
-      <c r="F29" s="222"/>
-      <c r="G29" s="261"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="272"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="147">
         <v>29</v>
       </c>
-      <c r="B30" s="194" t="s">
+      <c r="B30" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="212" t="s">
+      <c r="C30" s="202" t="s">
         <v>292</v>
       </c>
-      <c r="D30" s="202">
+      <c r="D30" s="192">
         <v>44693</v>
       </c>
-      <c r="E30" s="188">
+      <c r="E30" s="180">
         <v>110000</v>
       </c>
-      <c r="F30" s="222"/>
-      <c r="G30" s="261"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="272"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
@@ -9265,20 +9600,20 @@
       <c r="B31" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="210" t="s">
+      <c r="C31" s="200" t="s">
         <v>286</v>
       </c>
       <c r="D31" s="148">
         <v>44697</v>
       </c>
-      <c r="E31" s="164">
+      <c r="E31" s="161">
         <v>110000</v>
       </c>
-      <c r="F31" s="221">
+      <c r="F31" s="227">
         <f>E31+E32+E33+E34+E35</f>
         <v>550000</v>
       </c>
-      <c r="G31" s="223">
+      <c r="G31" s="229">
         <v>44722</v>
       </c>
     </row>
@@ -9286,58 +9621,58 @@
       <c r="A32" s="44">
         <v>31</v>
       </c>
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="173" t="s">
+      <c r="C32" s="170" t="s">
         <v>287</v>
       </c>
       <c r="D32" s="71">
         <v>44703</v>
       </c>
-      <c r="E32" s="171">
+      <c r="E32" s="168">
         <v>110000</v>
       </c>
-      <c r="F32" s="222"/>
-      <c r="G32" s="224"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="230"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="44">
         <v>32</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="173" t="s">
+      <c r="C33" s="170" t="s">
         <v>288</v>
       </c>
       <c r="D33" s="71">
         <v>44708</v>
       </c>
-      <c r="E33" s="171">
+      <c r="E33" s="168">
         <v>110000</v>
       </c>
-      <c r="F33" s="222"/>
-      <c r="G33" s="224"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="230"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
         <v>33</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="173" t="s">
+      <c r="C34" s="170" t="s">
         <v>289</v>
       </c>
       <c r="D34" s="71">
         <v>44713</v>
       </c>
-      <c r="E34" s="171">
+      <c r="E34" s="168">
         <v>110000</v>
       </c>
-      <c r="F34" s="222"/>
-      <c r="G34" s="224"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="230"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45">
@@ -9346,17 +9681,17 @@
       <c r="B35" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="211" t="s">
+      <c r="C35" s="201" t="s">
         <v>290</v>
       </c>
       <c r="D35" s="72">
         <v>44716</v>
       </c>
-      <c r="E35" s="172">
+      <c r="E35" s="169">
         <v>110000</v>
       </c>
-      <c r="F35" s="235"/>
-      <c r="G35" s="236"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="232"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
@@ -9365,19 +9700,19 @@
       <c r="B36" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="214" t="s">
+      <c r="C36" s="204" t="s">
         <v>282</v>
       </c>
       <c r="D36" s="132">
         <v>44728</v>
       </c>
-      <c r="E36" s="215">
+      <c r="E36" s="205">
         <v>136000</v>
       </c>
-      <c r="F36" s="221">
+      <c r="F36" s="227">
         <v>569000</v>
       </c>
-      <c r="G36" s="260">
+      <c r="G36" s="271">
         <v>44734</v>
       </c>
     </row>
@@ -9385,68 +9720,142 @@
       <c r="A37" s="44">
         <v>36</v>
       </c>
-      <c r="B37" s="189" t="s">
+      <c r="B37" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="209" t="s">
+      <c r="C37" s="199" t="s">
         <v>283</v>
       </c>
       <c r="D37" s="80">
         <v>44722</v>
       </c>
-      <c r="E37" s="213">
+      <c r="E37" s="203">
         <v>128000</v>
       </c>
-      <c r="F37" s="222"/>
-      <c r="G37" s="261"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="272"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="44">
         <v>37</v>
       </c>
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="199" t="s">
         <v>284</v>
       </c>
       <c r="D38" s="80">
         <v>44722</v>
       </c>
-      <c r="E38" s="213">
+      <c r="E38" s="203">
         <v>195000</v>
       </c>
-      <c r="F38" s="222"/>
-      <c r="G38" s="261"/>
+      <c r="F38" s="228"/>
+      <c r="G38" s="272"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="216">
+      <c r="A39" s="206">
         <v>38</v>
       </c>
-      <c r="B39" s="217" t="s">
+      <c r="B39" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="218" t="s">
+      <c r="C39" s="208" t="s">
         <v>285</v>
       </c>
       <c r="D39" s="128">
         <v>44719</v>
       </c>
-      <c r="E39" s="219">
+      <c r="E39" s="209">
         <v>110000</v>
       </c>
-      <c r="F39" s="235"/>
-      <c r="G39" s="262"/>
+      <c r="F39" s="231"/>
+      <c r="G39" s="273"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="41">
+        <v>39</v>
+      </c>
+      <c r="B40" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="220" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="159">
+        <v>44729</v>
+      </c>
+      <c r="E40" s="161">
+        <v>136000</v>
+      </c>
+      <c r="F40" s="227">
+        <f>E40+E41</f>
+        <v>272000</v>
+      </c>
+      <c r="G40" s="229">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45">
+        <v>40</v>
+      </c>
+      <c r="B41" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="208" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="166">
+        <v>44756</v>
+      </c>
+      <c r="E41" s="169">
+        <v>136000</v>
+      </c>
+      <c r="F41" s="231"/>
+      <c r="G41" s="232"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="215"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="211"/>
+      <c r="G42" s="154"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="213"/>
+      <c r="B43" s="213"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="213"/>
+      <c r="B44" s="213"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="213"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="25">
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="F31:F35"/>
     <mergeCell ref="G31:G35"/>
     <mergeCell ref="F36:F39"/>
@@ -9463,6 +9872,13 @@
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="F16:F20"/>
     <mergeCell ref="G16:G20"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9489,32 +9905,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="248" t="s">
+      <c r="D1" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="285" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="255"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="286"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -9634,8 +10050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9651,40 +10067,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="237" t="s">
+      <c r="G1" s="233" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="249" t="s">
+      <c r="H1" s="264" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="226"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="251"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="265"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="56">
@@ -9696,20 +10112,20 @@
       <c r="C3" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="168">
+      <c r="D3" s="165">
         <v>44546</v>
       </c>
-      <c r="E3" s="170">
+      <c r="E3" s="167">
         <v>20000</v>
       </c>
-      <c r="F3" s="282">
+      <c r="F3" s="258">
         <f>E9+E8+E7+E6+E5+E4+E3</f>
         <v>498500</v>
       </c>
-      <c r="G3" s="296">
+      <c r="G3" s="300">
         <v>44602</v>
       </c>
-      <c r="H3" s="263" t="s">
+      <c r="H3" s="274" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9717,101 +10133,101 @@
       <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="155">
+      <c r="D4" s="153">
         <v>44565</v>
       </c>
-      <c r="E4" s="165">
+      <c r="E4" s="162">
         <v>52500</v>
       </c>
-      <c r="F4" s="283"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="264"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="275"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <v>3</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="153">
         <v>44565</v>
       </c>
-      <c r="E5" s="165">
+      <c r="E5" s="162">
         <v>169500</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="264"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="275"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="155">
+      <c r="D6" s="153">
         <v>44579</v>
       </c>
-      <c r="E6" s="165">
+      <c r="E6" s="162">
         <v>49500</v>
       </c>
-      <c r="F6" s="283"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="264"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="275"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="85">
         <v>5</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="155">
+      <c r="D7" s="153">
         <v>44586</v>
       </c>
-      <c r="E7" s="165">
+      <c r="E7" s="162">
         <v>140000</v>
       </c>
-      <c r="F7" s="283"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="264"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="275"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="85">
         <v>6</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="152" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="22">
         <v>44596</v>
       </c>
-      <c r="E8" s="171">
+      <c r="E8" s="168">
         <v>17500</v>
       </c>
-      <c r="F8" s="283"/>
-      <c r="G8" s="297"/>
-      <c r="H8" s="264"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="275"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45">
@@ -9823,15 +10239,15 @@
       <c r="C9" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="169">
+      <c r="D9" s="166">
         <v>44599</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="169">
         <v>49500</v>
       </c>
-      <c r="F9" s="284"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="265"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="276"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
@@ -9843,20 +10259,20 @@
       <c r="C10" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="159">
         <v>44610</v>
       </c>
-      <c r="E10" s="164">
+      <c r="E10" s="161">
         <v>140000</v>
       </c>
-      <c r="F10" s="221">
+      <c r="F10" s="227">
         <f>E15+E14+E13+E12+E11+E10</f>
         <v>545000</v>
       </c>
-      <c r="G10" s="260">
+      <c r="G10" s="271">
         <v>44649</v>
       </c>
-      <c r="H10" s="263" t="s">
+      <c r="H10" s="274" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9864,27 +10280,27 @@
       <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="155">
+      <c r="D11" s="153">
         <v>44615</v>
       </c>
-      <c r="E11" s="165">
+      <c r="E11" s="162">
         <v>37500</v>
       </c>
-      <c r="F11" s="222"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="264"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="275"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
         <v>10</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="150" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -9893,18 +10309,18 @@
       <c r="D12" s="35">
         <v>44649</v>
       </c>
-      <c r="E12" s="166">
+      <c r="E12" s="163">
         <v>157500</v>
       </c>
-      <c r="F12" s="222"/>
-      <c r="G12" s="261"/>
-      <c r="H12" s="264"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="272"/>
+      <c r="H12" s="275"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
         <v>11</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="150" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="33" t="s">
@@ -9913,18 +10329,18 @@
       <c r="D13" s="35">
         <v>44649</v>
       </c>
-      <c r="E13" s="166">
+      <c r="E13" s="163">
         <v>20000</v>
       </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="264"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="272"/>
+      <c r="H13" s="275"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="150" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -9933,12 +10349,12 @@
       <c r="D14" s="35">
         <v>44649</v>
       </c>
-      <c r="E14" s="166">
+      <c r="E14" s="163">
         <v>50000</v>
       </c>
-      <c r="F14" s="222"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="264"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="272"/>
+      <c r="H14" s="275"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="105">
@@ -9950,15 +10366,15 @@
       <c r="C15" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="163">
+      <c r="D15" s="160">
         <v>44649</v>
       </c>
-      <c r="E15" s="167">
+      <c r="E15" s="164">
         <v>140000</v>
       </c>
-      <c r="F15" s="235"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="265"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
@@ -9976,14 +10392,14 @@
       <c r="E16" s="133">
         <v>33500</v>
       </c>
-      <c r="F16" s="221">
+      <c r="F16" s="227">
         <f>E20+E19+E18+E17+E16</f>
         <v>342000</v>
       </c>
-      <c r="G16" s="260">
+      <c r="G16" s="271">
         <v>44685</v>
       </c>
-      <c r="H16" s="263" t="s">
+      <c r="H16" s="274" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9991,7 +10407,7 @@
       <c r="A17" s="85">
         <v>15</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="150" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="79" t="s">
@@ -10003,15 +10419,15 @@
       <c r="E17" s="134">
         <v>37500</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="264"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="275"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="85">
         <v>16</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="150" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="79" t="s">
@@ -10023,15 +10439,15 @@
       <c r="E18" s="134">
         <v>157500</v>
       </c>
-      <c r="F18" s="222"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="264"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="275"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="150" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="79" t="s">
@@ -10043,9 +10459,9 @@
       <c r="E19" s="134">
         <v>20000</v>
       </c>
-      <c r="F19" s="222"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="264"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="275"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="105">
@@ -10063,9 +10479,9 @@
       <c r="E20" s="129">
         <v>93500</v>
       </c>
-      <c r="F20" s="235"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="265"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="276"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
@@ -10083,14 +10499,14 @@
       <c r="E21" s="133">
         <v>32000</v>
       </c>
-      <c r="F21" s="221">
+      <c r="F21" s="227">
         <f>E21+E22+E23</f>
         <v>392500</v>
       </c>
-      <c r="G21" s="260">
+      <c r="G21" s="271">
         <v>44720</v>
       </c>
-      <c r="H21" s="263" t="s">
+      <c r="H21" s="274" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10098,7 +10514,7 @@
       <c r="A22" s="85">
         <v>20</v>
       </c>
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="150" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="79" t="s">
@@ -10110,9 +10526,9 @@
       <c r="E22" s="134">
         <v>171000</v>
       </c>
-      <c r="F22" s="222"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="264"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="275"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="105">
@@ -10130,82 +10546,121 @@
       <c r="E23" s="129">
         <v>189500</v>
       </c>
-      <c r="F23" s="235"/>
-      <c r="G23" s="262"/>
-      <c r="H23" s="265"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="273"/>
+      <c r="H23" s="276"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="154">
+      <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="154"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="154"/>
+      <c r="C24" s="131" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" s="132">
+        <v>44754</v>
+      </c>
+      <c r="E24" s="133">
+        <v>21000</v>
+      </c>
+      <c r="F24" s="227">
+        <f>E24+E25+E26+E27</f>
+        <v>447000</v>
+      </c>
+      <c r="G24" s="271">
+        <v>44760</v>
+      </c>
+      <c r="H24" s="274" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="109">
+      <c r="A25" s="85">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="9"/>
+      <c r="C25" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="80">
+        <v>44754</v>
+      </c>
+      <c r="E25" s="134">
+        <v>203000</v>
+      </c>
+      <c r="F25" s="228"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="275"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="44">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="109">
+      <c r="C26" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="D26" s="80">
+        <v>44754</v>
+      </c>
+      <c r="E26" s="134">
+        <v>73000</v>
+      </c>
+      <c r="F26" s="228"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="275"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="105">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="9"/>
+      <c r="C27" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="128">
+        <v>44754</v>
+      </c>
+      <c r="E27" s="129">
+        <v>150000</v>
+      </c>
+      <c r="F27" s="231"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="276"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="109">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="9"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="215"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="F21:F23"/>
@@ -10221,11 +10676,6 @@
     <mergeCell ref="G10:G15"/>
     <mergeCell ref="F3:F9"/>
     <mergeCell ref="G3:G9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10249,32 +10699,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="247" t="s">
+      <c r="E1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="233" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="299"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
